--- a/Character Sheet.xlsx
+++ b/Character Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baudin/Projects/aria-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5A52795-C8C6-AF49-8389-FEEF30365879}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C4014D-80BD-6C41-AA72-60054106B0C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38200" windowHeight="23540" xr2:uid="{47C10E70-C8A1-594D-875F-C0FED4FAA393}"/>
   </bookViews>
@@ -57,6 +57,7 @@
     <definedName name="CHARACTER_NAME">'Character Info'!$B$2</definedName>
     <definedName name="CHARACTER_PROFESSION">'Character Info'!$B$5</definedName>
     <definedName name="CHARACTER_RACE">'Character Info'!$B$4</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">'Character Sheet'!#REF!</definedName>
     <definedName name="EQ_ARMOR" localSheetId="4">Table12[[#Totals],[Armor]]</definedName>
     <definedName name="EQ_ARMOR" localSheetId="7">Table1218[[#Totals],[Armor]]</definedName>
     <definedName name="EQ_ARMOR">Table12[[#Totals],[Armor]]</definedName>
@@ -189,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="205">
   <si>
     <t>Weapon Skill</t>
   </si>
@@ -279,6 +280,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Strength</t>
   </si>
   <si>
     <t>Agility</t>
@@ -758,9 +762,6 @@
     <t>Statistics</t>
   </si>
   <si>
-    <t>Spells</t>
-  </si>
-  <si>
     <t>Rogue</t>
   </si>
   <si>
@@ -806,14 +807,14 @@
     <t>Hunter</t>
   </si>
   <si>
-    <t>Per</t>
+    <t>PROFESSION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -851,14 +852,52 @@
       <family val="4"/>
     </font>
     <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Apple Chancery"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Apple Chancery"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Apple Chancery"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Apple Chancery"/>
+      <family val="4"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -877,8 +916,20 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -966,12 +1017,189 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="4" tint="-0.24994659260841701"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -979,17 +1207,48 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="4" tint="-0.24994659260841701"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="4" tint="-0.24994659260841701"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
       </left>
       <right/>
       <top/>
@@ -999,31 +1258,18 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="4" tint="-0.24994659260841701"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color theme="4" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,7 +1277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1121,18 +1367,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1142,17 +1376,140 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1373,6 +1730,76 @@
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -2279,76 +2706,6 @@
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -5678,9 +6035,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{145CBDC0-3D41-0042-9A92-BFAA003FF86C}" name="Table11" displayName="Table11" ref="P2:R43" totalsRowCount="1" headerRowDxfId="216" dataDxfId="217">
   <autoFilter ref="P2:R42" xr:uid="{F3ABECE7-6469-3F43-890B-0963AC8035B5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{65401DCF-9801-AA4F-9D7C-14A36966F4BA}" name="Date" totalsRowLabel="Total" dataDxfId="215" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{D703D096-B658-604D-BDCC-2B29BF766859}" name="XP" totalsRowFunction="sum" dataDxfId="214" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{BE38B662-73B8-B246-A576-1733D777406D}" name="Description" dataDxfId="218" totalsRowDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{65401DCF-9801-AA4F-9D7C-14A36966F4BA}" name="Date" totalsRowLabel="Total" dataDxfId="215" totalsRowDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{D703D096-B658-604D-BDCC-2B29BF766859}" name="XP" totalsRowFunction="sum" dataDxfId="214" totalsRowDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{BE38B662-73B8-B246-A576-1733D777406D}" name="Description" dataDxfId="218" totalsRowDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5902,66 +6259,66 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AE27B7B0-F0E3-E243-8EFB-88A5ADED5F80}" name="Table12" displayName="Table12" ref="A2:V22" totalsRowCount="1" headerRowDxfId="172" dataDxfId="173">
   <autoFilter ref="A2:V21" xr:uid="{B162921F-791F-624A-81ED-6E2D19AD3439}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{D6AFC6F4-56C5-B94E-AAD7-C07A92ACC04B}" name="Location" totalsRowLabel="Total" dataDxfId="57" totalsRowDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{6EC0F666-8D61-D644-BCAC-A4117F1781F2}" name="Name" dataDxfId="56" totalsRowDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{FDC3F4BD-A2FD-6648-8EE1-D8B4F6108857}" name="Enabled" dataDxfId="55" totalsRowDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{6BD01D3C-E517-274F-87F1-974D9398BA72}" name="DMG" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="32">
+    <tableColumn id="1" xr3:uid="{D6AFC6F4-56C5-B94E-AAD7-C07A92ACC04B}" name="Location" totalsRowLabel="Total" dataDxfId="71" totalsRowDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{6EC0F666-8D61-D644-BCAC-A4117F1781F2}" name="Name" dataDxfId="70" totalsRowDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{FDC3F4BD-A2FD-6648-8EE1-D8B4F6108857}" name="Enabled" dataDxfId="69" totalsRowDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{6BD01D3C-E517-274F-87F1-974D9398BA72}" name="DMG" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="46">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1E15D738-D79A-244C-851E-E57C038AF8E0}" name="Stamina" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="31">
+    <tableColumn id="5" xr3:uid="{1E15D738-D79A-244C-851E-E57C038AF8E0}" name="Stamina" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="45">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Stamina])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4356B910-7F96-084F-A9BD-24B81A1D65C2}" name="Crit" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="30">
+    <tableColumn id="6" xr3:uid="{4356B910-7F96-084F-A9BD-24B81A1D65C2}" name="Crit" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="44">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Stamina])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{34D53967-FE59-F548-9D59-EBF5A5FF3B80}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="29">
+    <tableColumn id="7" xr3:uid="{34D53967-FE59-F548-9D59-EBF5A5FF3B80}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="43">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Crit DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D37EF853-D2F7-214A-83D0-086F59F00DC8}" name="Splash" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="28">
+    <tableColumn id="8" xr3:uid="{D37EF853-D2F7-214A-83D0-086F59F00DC8}" name="Splash" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="42">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Splash])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5DE5E55B-8076-214A-88F0-165C9D5589AB}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="27">
+    <tableColumn id="9" xr3:uid="{5DE5E55B-8076-214A-88F0-165C9D5589AB}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="41">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Splash 
 DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1CB3B9C9-B073-D24E-A036-62CB1C097282}" name="Exprt." totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="26">
+    <tableColumn id="10" xr3:uid="{1CB3B9C9-B073-D24E-A036-62CB1C097282}" name="Exprt." totalsRowFunction="custom" dataDxfId="62" totalsRowDxfId="40">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Exprt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{80F0809C-2100-2247-9ADB-01576F8CA19B}" name="Mvmt." totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="25">
+    <tableColumn id="11" xr3:uid="{80F0809C-2100-2247-9ADB-01576F8CA19B}" name="Mvmt." totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="39">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Mvmt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{100B3365-5937-EA45-886B-E3DFD195C5B2}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="24">
+    <tableColumn id="12" xr3:uid="{100B3365-5937-EA45-886B-E3DFD195C5B2}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="38">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Extra 
 Attack])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{5594E278-21E8-A14C-ADBC-E8B9C800F93B}" name="Armor" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="23">
+    <tableColumn id="13" xr3:uid="{5594E278-21E8-A14C-ADBC-E8B9C800F93B}" name="Armor" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="37">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Armor])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{CB23327D-EFF8-A342-A9DE-65E1B7BC4BE3}" name="Aura" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="22">
+    <tableColumn id="14" xr3:uid="{CB23327D-EFF8-A342-A9DE-65E1B7BC4BE3}" name="Aura" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="36">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Aura])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B0438D6C-EBB6-7D45-9116-94CBEFB8D439}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="21">
+    <tableColumn id="15" xr3:uid="{B0438D6C-EBB6-7D45-9116-94CBEFB8D439}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="35">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Directed Strike])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{0C0196AE-E23B-644F-8625-5FFF406E7239}" name="INI" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="20">
+    <tableColumn id="16" xr3:uid="{0C0196AE-E23B-644F-8625-5FFF406E7239}" name="INI" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="34">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[INI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{0CE5E91F-F441-3541-ACBF-9B6E8F3D32BE}" name="STR" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="19">
+    <tableColumn id="17" xr3:uid="{0CE5E91F-F441-3541-ACBF-9B6E8F3D32BE}" name="STR" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="33">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[STR])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{CE0B6C3F-7775-4E44-8CAD-EB5E7ED373D8}" name="AGI" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="18">
+    <tableColumn id="18" xr3:uid="{CE0B6C3F-7775-4E44-8CAD-EB5E7ED373D8}" name="AGI" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="32">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[AGI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{DD3C9C3F-31EB-7F48-83CE-9607AADE61CE}" name="INU" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="17">
+    <tableColumn id="19" xr3:uid="{DD3C9C3F-31EB-7F48-83CE-9607AADE61CE}" name="INU" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="31">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[INU])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{93C1F38D-CC0D-9F4E-AFB2-B3B60FA2E230}" name="CHA" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="16">
+    <tableColumn id="20" xr3:uid="{93C1F38D-CC0D-9F4E-AFB2-B3B60FA2E230}" name="CHA" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="30">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[CHA])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{86EE74A2-267E-5244-ADE0-325523D5DAF0}" name="PER" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="15">
+    <tableColumn id="21" xr3:uid="{86EE74A2-267E-5244-ADE0-325523D5DAF0}" name="PER" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="29">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[PER])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{DBC245A7-FD67-824A-B01B-CDA3F14F2832}" name="Description" dataDxfId="36" totalsRowDxfId="14"/>
+    <tableColumn id="23" xr3:uid="{DBC245A7-FD67-824A-B01B-CDA3F14F2832}" name="Description" dataDxfId="50" totalsRowDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6389,766 +6746,1562 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A4D850-7FA0-814F-8986-D549CD923602}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:AT291"/>
+  <dimension ref="B1:AV291"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH26" sqref="AH26"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="160" width="3.83203125" style="39" customWidth="1"/>
-    <col min="161" max="16384" width="10.83203125" style="39"/>
+    <col min="1" max="50" width="1.83203125" style="35" customWidth="1"/>
+    <col min="51" max="160" width="3.83203125" style="35" customWidth="1"/>
+    <col min="161" max="16384" width="10.83203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="39" t="str">
-        <f>"Name: " &amp; CHARACTER_NAME</f>
-        <v>Name: Peter Pan</v>
-      </c>
-      <c r="H2" s="39" t="str">
-        <f>"Race: " &amp; CHARACTER_RACE</f>
-        <v>Race: None</v>
-      </c>
-      <c r="T2" s="39" t="str">
-        <f>"Level: " &amp; CHARACTER_LEVEL</f>
-        <v>Level: 0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H3" s="39" t="str">
-        <f>"Profession: " &amp; CHARACTER_PROFESSION</f>
-        <v>Profession: None</v>
-      </c>
-      <c r="T3" s="39" t="str">
-        <f>"XP: " &amp; TOTAL_XP</f>
-        <v>XP: 0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z4" s="40"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-    </row>
-    <row r="5" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="E5" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="45"/>
-      <c r="Z5" s="40"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="41"/>
-    </row>
-    <row r="6" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="35">
+    <row r="1" spans="2:48" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:48" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="51" t="str">
+        <f>CHARACTER_NAME</f>
+        <v>Peter Pan</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="S2" s="52" t="str">
+        <f>CHARACTER_RACE</f>
+        <v>None</v>
+      </c>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AB2" s="52" t="str">
+        <f>CHARACTER_PROFESSION</f>
+        <v>None</v>
+      </c>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AN2" s="70">
+        <f>TOTAL_XP</f>
+        <v>23</v>
+      </c>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AS2" s="70">
+        <f>LVL</f>
+        <v>1</v>
+      </c>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
+    </row>
+    <row r="3" spans="2:48" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="70"/>
+      <c r="AS3" s="70"/>
+      <c r="AT3" s="70"/>
+      <c r="AU3" s="70"/>
+      <c r="AV3" s="70"/>
+    </row>
+    <row r="4" spans="2:48" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="S4" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z4" s="36"/>
+      <c r="AB4" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="37"/>
+      <c r="AN4" s="70"/>
+      <c r="AO4" s="70"/>
+      <c r="AP4" s="70"/>
+      <c r="AQ4" s="70"/>
+      <c r="AR4" s="37"/>
+      <c r="AS4" s="70"/>
+      <c r="AT4" s="70"/>
+      <c r="AU4" s="70"/>
+      <c r="AV4" s="70"/>
+    </row>
+    <row r="5" spans="2:48" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="Z5" s="36"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="71"/>
+      <c r="AO5" s="71"/>
+      <c r="AP5" s="71"/>
+      <c r="AQ5" s="71"/>
+      <c r="AR5" s="37"/>
+      <c r="AS5" s="71"/>
+      <c r="AT5" s="71"/>
+      <c r="AU5" s="71"/>
+      <c r="AV5" s="71"/>
+    </row>
+    <row r="6" spans="2:48" ht="10" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="39"/>
+      <c r="H6" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="63"/>
+      <c r="M6" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="63"/>
+      <c r="R6" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="63"/>
+      <c r="W6" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="63"/>
+      <c r="AB6" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO6" s="55"/>
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="55"/>
+      <c r="AR6" s="37"/>
+      <c r="AS6" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT6" s="55"/>
+      <c r="AU6" s="55"/>
+      <c r="AV6" s="55"/>
+    </row>
+    <row r="7" spans="2:48" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="43">
         <f>STR</f>
         <v>1</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="E6" s="37">
-        <f>HP</f>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="39"/>
+      <c r="H7" s="56">
+        <f>CHARACTER_HP</f>
         <v>5</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="Z6" s="40"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="41"/>
-      <c r="AF6" s="41"/>
-      <c r="AG6" s="41"/>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="41"/>
-      <c r="AJ6" s="41"/>
-      <c r="AK6" s="41"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="41"/>
-      <c r="AN6" s="41"/>
-      <c r="AO6" s="41"/>
-      <c r="AP6" s="41"/>
-      <c r="AQ6" s="41"/>
-      <c r="AR6" s="41"/>
-      <c r="AS6" s="41"/>
-      <c r="AT6" s="41"/>
-    </row>
-    <row r="7" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="Z7" s="40"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="41"/>
-    </row>
-    <row r="8" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="37">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="57"/>
+      <c r="M7" s="56">
+        <f>CHARACTER_ARMOR</f>
+        <v>2</v>
+      </c>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="57"/>
+      <c r="R7" s="56">
+        <f>CHARACTER_AURA</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="57"/>
+      <c r="W7" s="56">
+        <f>CHARACTER_EXPERTISE</f>
+        <v>1</v>
+      </c>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="57"/>
+      <c r="AB7" s="56">
+        <f>CHARACTER_MOVEMENT</f>
+        <v>8</v>
+      </c>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="37"/>
+      <c r="AL7" s="37"/>
+      <c r="AM7" s="37"/>
+      <c r="AN7" s="37"/>
+      <c r="AO7" s="37"/>
+      <c r="AP7" s="37"/>
+      <c r="AQ7" s="37"/>
+      <c r="AR7" s="37"/>
+      <c r="AS7" s="37"/>
+      <c r="AT7" s="37"/>
+    </row>
+    <row r="8" spans="2:48" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="43"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="39"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="57"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="57"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="57"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="57"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="37"/>
+      <c r="AP8" s="37"/>
+      <c r="AQ8" s="37"/>
+      <c r="AR8" s="37"/>
+      <c r="AS8" s="37"/>
+      <c r="AT8" s="37"/>
+    </row>
+    <row r="9" spans="2:48" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="43"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="39"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="60"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="60"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="60"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="60"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="37"/>
+      <c r="AM9" s="37"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="37"/>
+      <c r="AP9" s="37"/>
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="37"/>
+      <c r="AS9" s="37"/>
+      <c r="AT9" s="37"/>
+    </row>
+    <row r="10" spans="2:48" ht="10" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="64"/>
+      <c r="C10" s="66">
         <f>STR_TOTAL</f>
         <v>5</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="Z8" s="40"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="41"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="41"/>
-      <c r="AI8" s="41"/>
-      <c r="AJ8" s="41"/>
-      <c r="AK8" s="41"/>
-      <c r="AL8" s="41"/>
-      <c r="AM8" s="41"/>
-      <c r="AN8" s="41"/>
-      <c r="AO8" s="41"/>
-      <c r="AP8" s="41"/>
-      <c r="AQ8" s="41"/>
-      <c r="AR8" s="41"/>
-      <c r="AS8" s="41"/>
-      <c r="AT8" s="41"/>
-    </row>
-    <row r="9" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z9" s="40"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="41"/>
-      <c r="AJ9" s="41"/>
-      <c r="AK9" s="41"/>
-      <c r="AL9" s="41"/>
-      <c r="AM9" s="41"/>
-      <c r="AN9" s="41"/>
-      <c r="AO9" s="41"/>
-      <c r="AP9" s="41"/>
-      <c r="AQ9" s="41"/>
-      <c r="AR9" s="41"/>
-      <c r="AS9" s="41"/>
-      <c r="AT9" s="41"/>
-    </row>
-    <row r="10" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="Z10" s="40"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="41"/>
-      <c r="AL10" s="41"/>
-      <c r="AM10" s="41"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
-      <c r="AP10" s="41"/>
-      <c r="AQ10" s="41"/>
-      <c r="AR10" s="41"/>
-      <c r="AS10" s="41"/>
-      <c r="AT10" s="41"/>
-    </row>
-    <row r="11" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="35">
+      <c r="D10" s="67"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="39"/>
+      <c r="Z10" s="36"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="37"/>
+      <c r="AM10" s="37"/>
+      <c r="AN10" s="37"/>
+      <c r="AO10" s="37"/>
+      <c r="AP10" s="37"/>
+      <c r="AQ10" s="37"/>
+      <c r="AR10" s="37"/>
+      <c r="AS10" s="37"/>
+      <c r="AT10" s="37"/>
+    </row>
+    <row r="11" spans="2:48" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="41"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="Z11" s="36"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="37"/>
+      <c r="AM11" s="37"/>
+      <c r="AN11" s="37"/>
+      <c r="AO11" s="37"/>
+      <c r="AP11" s="37"/>
+      <c r="AQ11" s="37"/>
+      <c r="AR11" s="37"/>
+      <c r="AS11" s="37"/>
+      <c r="AT11" s="37"/>
+    </row>
+    <row r="12" spans="2:48" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="Z12" s="36"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="37"/>
+      <c r="AM12" s="37"/>
+      <c r="AN12" s="37"/>
+      <c r="AO12" s="37"/>
+      <c r="AP12" s="37"/>
+      <c r="AQ12" s="37"/>
+      <c r="AR12" s="37"/>
+      <c r="AS12" s="37"/>
+      <c r="AT12" s="37"/>
+    </row>
+    <row r="13" spans="2:48" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="39"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37"/>
+      <c r="AK13" s="37"/>
+      <c r="AL13" s="37"/>
+      <c r="AM13" s="37"/>
+      <c r="AN13" s="37"/>
+      <c r="AO13" s="37"/>
+      <c r="AP13" s="37"/>
+      <c r="AQ13" s="37"/>
+      <c r="AR13" s="37"/>
+      <c r="AS13" s="37"/>
+      <c r="AT13" s="37"/>
+    </row>
+    <row r="14" spans="2:48" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="43">
         <f>AGI</f>
         <v>1</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="Z11" s="40"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41"/>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="41"/>
-      <c r="AL11" s="41"/>
-      <c r="AM11" s="41"/>
-      <c r="AN11" s="41"/>
-      <c r="AO11" s="41"/>
-      <c r="AP11" s="41"/>
-      <c r="AQ11" s="41"/>
-      <c r="AR11" s="41"/>
-      <c r="AS11" s="41"/>
-      <c r="AT11" s="41"/>
-    </row>
-    <row r="12" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="Z12" s="40"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="41"/>
-      <c r="AK12" s="41"/>
-      <c r="AL12" s="41"/>
-      <c r="AM12" s="41"/>
-      <c r="AN12" s="41"/>
-      <c r="AO12" s="41"/>
-      <c r="AP12" s="41"/>
-      <c r="AQ12" s="41"/>
-      <c r="AR12" s="41"/>
-      <c r="AS12" s="41"/>
-      <c r="AT12" s="41"/>
-    </row>
-    <row r="13" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="37">
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="39"/>
+      <c r="J14" s="72" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,2,1)</f>
+        <v>Weapon Skill</v>
+      </c>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="74" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],2,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="37"/>
+      <c r="AM14" s="37"/>
+      <c r="AN14" s="37"/>
+      <c r="AO14" s="37"/>
+      <c r="AP14" s="37"/>
+      <c r="AQ14" s="37"/>
+      <c r="AR14" s="37"/>
+      <c r="AS14" s="37"/>
+      <c r="AT14" s="37"/>
+    </row>
+    <row r="15" spans="2:48" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="43"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="39"/>
+      <c r="J15" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,3,1)</f>
+        <v>Unarmed Skill</v>
+      </c>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],3,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="37"/>
+      <c r="AK15" s="37"/>
+      <c r="AL15" s="37"/>
+      <c r="AM15" s="37"/>
+      <c r="AN15" s="37"/>
+      <c r="AO15" s="37"/>
+      <c r="AP15" s="37"/>
+      <c r="AQ15" s="37"/>
+      <c r="AR15" s="37"/>
+      <c r="AS15" s="37"/>
+      <c r="AT15" s="37"/>
+    </row>
+    <row r="16" spans="2:48" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="43"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="39"/>
+      <c r="J16" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,4,1)</f>
+        <v>Dodge</v>
+      </c>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],4,11)</f>
+        <v>1d10 + 1</v>
+      </c>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="37"/>
+      <c r="AK16" s="37"/>
+      <c r="AL16" s="37"/>
+      <c r="AM16" s="37"/>
+      <c r="AN16" s="37"/>
+      <c r="AO16" s="37"/>
+      <c r="AP16" s="37"/>
+      <c r="AQ16" s="37"/>
+      <c r="AR16" s="37"/>
+      <c r="AS16" s="37"/>
+      <c r="AT16" s="37"/>
+    </row>
+    <row r="17" spans="2:46" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="45"/>
+      <c r="C17" s="66">
         <f>AGI_TOTAL</f>
         <v>5</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="Z13" s="40"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41"/>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="41"/>
-      <c r="AJ13" s="41"/>
-      <c r="AK13" s="41"/>
-      <c r="AL13" s="41"/>
-      <c r="AM13" s="41"/>
-      <c r="AN13" s="41"/>
-      <c r="AO13" s="41"/>
-      <c r="AP13" s="41"/>
-      <c r="AQ13" s="41"/>
-      <c r="AR13" s="41"/>
-      <c r="AS13" s="41"/>
-      <c r="AT13" s="41"/>
-    </row>
-    <row r="14" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z14" s="40"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="41"/>
-      <c r="AJ14" s="41"/>
-      <c r="AK14" s="41"/>
-      <c r="AL14" s="41"/>
-      <c r="AM14" s="41"/>
-      <c r="AN14" s="41"/>
-      <c r="AO14" s="41"/>
-      <c r="AP14" s="41"/>
-      <c r="AQ14" s="41"/>
-      <c r="AR14" s="41"/>
-      <c r="AS14" s="41"/>
-      <c r="AT14" s="41"/>
-    </row>
-    <row r="15" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="45"/>
-      <c r="Z15" s="40"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="41"/>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="41"/>
-      <c r="AH15" s="41"/>
-      <c r="AI15" s="41"/>
-      <c r="AJ15" s="41"/>
-      <c r="AK15" s="41"/>
-      <c r="AL15" s="41"/>
-      <c r="AM15" s="41"/>
-      <c r="AN15" s="41"/>
-      <c r="AO15" s="41"/>
-      <c r="AP15" s="41"/>
-      <c r="AQ15" s="41"/>
-      <c r="AR15" s="41"/>
-      <c r="AS15" s="41"/>
-      <c r="AT15" s="41"/>
-    </row>
-    <row r="16" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="35">
+      <c r="D17" s="67"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="39"/>
+      <c r="J17" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,5,1)</f>
+        <v>Ballistic Skill</v>
+      </c>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],5,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="Z17" s="36"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="37"/>
+      <c r="AM17" s="37"/>
+      <c r="AN17" s="37"/>
+      <c r="AO17" s="37"/>
+      <c r="AP17" s="37"/>
+      <c r="AQ17" s="37"/>
+      <c r="AR17" s="37"/>
+      <c r="AS17" s="37"/>
+      <c r="AT17" s="37"/>
+    </row>
+    <row r="18" spans="2:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="41"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="J18" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,6,1)</f>
+        <v>Tactics</v>
+      </c>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],6,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="Z18" s="36"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="37"/>
+      <c r="AM18" s="37"/>
+      <c r="AN18" s="37"/>
+      <c r="AO18" s="37"/>
+      <c r="AP18" s="37"/>
+      <c r="AQ18" s="37"/>
+      <c r="AR18" s="37"/>
+      <c r="AS18" s="37"/>
+      <c r="AT18" s="37"/>
+    </row>
+    <row r="19" spans="2:46" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="J19" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,7,1)</f>
+        <v>Acrobatics</v>
+      </c>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],7,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="Z19" s="36"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="37"/>
+      <c r="AI19" s="37"/>
+      <c r="AJ19" s="37"/>
+      <c r="AK19" s="37"/>
+      <c r="AL19" s="37"/>
+      <c r="AM19" s="37"/>
+      <c r="AN19" s="37"/>
+      <c r="AO19" s="37"/>
+      <c r="AP19" s="37"/>
+      <c r="AQ19" s="37"/>
+      <c r="AR19" s="37"/>
+      <c r="AS19" s="37"/>
+      <c r="AT19" s="37"/>
+    </row>
+    <row r="20" spans="2:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="39"/>
+      <c r="J20" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,8,1)</f>
+        <v>Magic Skill</v>
+      </c>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],8,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="Z20" s="36"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="37"/>
+      <c r="AK20" s="37"/>
+      <c r="AL20" s="37"/>
+      <c r="AM20" s="37"/>
+      <c r="AN20" s="37"/>
+      <c r="AO20" s="37"/>
+      <c r="AP20" s="37"/>
+      <c r="AQ20" s="37"/>
+      <c r="AR20" s="37"/>
+      <c r="AS20" s="37"/>
+      <c r="AT20" s="37"/>
+    </row>
+    <row r="21" spans="2:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="43">
         <f>INU</f>
         <v>1</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="Z16" s="40"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="41"/>
-      <c r="AK16" s="41"/>
-      <c r="AL16" s="41"/>
-      <c r="AM16" s="41"/>
-      <c r="AN16" s="41"/>
-      <c r="AO16" s="41"/>
-      <c r="AP16" s="41"/>
-      <c r="AQ16" s="41"/>
-      <c r="AR16" s="41"/>
-      <c r="AS16" s="41"/>
-      <c r="AT16" s="41"/>
-    </row>
-    <row r="17" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="Z17" s="40"/>
-      <c r="AB17" s="41"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="41"/>
-      <c r="AH17" s="41"/>
-      <c r="AI17" s="41"/>
-      <c r="AJ17" s="41"/>
-      <c r="AK17" s="41"/>
-      <c r="AL17" s="41"/>
-      <c r="AM17" s="41"/>
-      <c r="AN17" s="41"/>
-      <c r="AO17" s="41"/>
-      <c r="AP17" s="41"/>
-      <c r="AQ17" s="41"/>
-      <c r="AR17" s="41"/>
-      <c r="AS17" s="41"/>
-      <c r="AT17" s="41"/>
-    </row>
-    <row r="18" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="37">
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="39"/>
+      <c r="J21" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,9,1)</f>
+        <v>Arcane Lore</v>
+      </c>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],9,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="Z21" s="36"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="37"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="37"/>
+      <c r="AK21" s="37"/>
+      <c r="AL21" s="37"/>
+      <c r="AM21" s="37"/>
+      <c r="AN21" s="37"/>
+      <c r="AO21" s="37"/>
+      <c r="AP21" s="37"/>
+      <c r="AQ21" s="37"/>
+      <c r="AR21" s="37"/>
+      <c r="AS21" s="37"/>
+      <c r="AT21" s="37"/>
+    </row>
+    <row r="22" spans="2:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="43"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="39"/>
+      <c r="J22" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,10,1)</f>
+        <v>Religious Magic</v>
+      </c>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],10,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="Z22" s="36"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="37"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="37"/>
+      <c r="AI22" s="37"/>
+      <c r="AJ22" s="37"/>
+      <c r="AK22" s="37"/>
+      <c r="AL22" s="37"/>
+      <c r="AM22" s="37"/>
+      <c r="AN22" s="37"/>
+      <c r="AO22" s="37"/>
+      <c r="AP22" s="37"/>
+      <c r="AQ22" s="37"/>
+      <c r="AR22" s="37"/>
+      <c r="AS22" s="37"/>
+      <c r="AT22" s="37"/>
+    </row>
+    <row r="23" spans="2:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="43"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="39"/>
+      <c r="J23" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,11,1)</f>
+        <v>Religion</v>
+      </c>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],11,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+    </row>
+    <row r="24" spans="2:46" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="45"/>
+      <c r="C24" s="66">
         <f>INU_TOTAL</f>
         <v>5</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="Z18" s="40"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="41"/>
-      <c r="AL18" s="41"/>
-      <c r="AM18" s="41"/>
-      <c r="AN18" s="41"/>
-      <c r="AO18" s="41"/>
-      <c r="AP18" s="41"/>
-      <c r="AQ18" s="41"/>
-      <c r="AR18" s="41"/>
-      <c r="AS18" s="41"/>
-      <c r="AT18" s="41"/>
-    </row>
-    <row r="19" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z19" s="40"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="41"/>
-      <c r="AE19" s="41"/>
-      <c r="AF19" s="41"/>
-      <c r="AG19" s="41"/>
-      <c r="AH19" s="41"/>
-      <c r="AI19" s="41"/>
-      <c r="AJ19" s="41"/>
-      <c r="AK19" s="41"/>
-      <c r="AL19" s="41"/>
-      <c r="AM19" s="41"/>
-      <c r="AN19" s="41"/>
-      <c r="AO19" s="41"/>
-      <c r="AP19" s="41"/>
-      <c r="AQ19" s="41"/>
-      <c r="AR19" s="41"/>
-      <c r="AS19" s="41"/>
-      <c r="AT19" s="41"/>
-    </row>
-    <row r="20" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="44" t="s">
+      <c r="D24" s="67"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="39"/>
+      <c r="J24" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,12,1)</f>
+        <v>History</v>
+      </c>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],12,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+    </row>
+    <row r="25" spans="2:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="41"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="J25" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,13,1)</f>
+        <v>Animal Handler</v>
+      </c>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],13,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+    </row>
+    <row r="26" spans="2:46" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="J26" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,14,1)</f>
+        <v>Insight</v>
+      </c>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],14,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+    </row>
+    <row r="27" spans="2:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="Z20" s="40"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="41"/>
-      <c r="AE20" s="41"/>
-      <c r="AF20" s="41"/>
-      <c r="AG20" s="41"/>
-      <c r="AH20" s="41"/>
-      <c r="AI20" s="41"/>
-      <c r="AJ20" s="41"/>
-      <c r="AK20" s="41"/>
-      <c r="AL20" s="41"/>
-      <c r="AM20" s="41"/>
-      <c r="AN20" s="41"/>
-      <c r="AO20" s="41"/>
-      <c r="AP20" s="41"/>
-      <c r="AQ20" s="41"/>
-      <c r="AR20" s="41"/>
-      <c r="AS20" s="41"/>
-      <c r="AT20" s="41"/>
-    </row>
-    <row r="21" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="35">
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="39"/>
+      <c r="J27" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,15,1)</f>
+        <v>Slight of Hand</v>
+      </c>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],15,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+    </row>
+    <row r="28" spans="2:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="43">
         <f>CHA</f>
         <v>1</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="Z21" s="40"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="41"/>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="41"/>
-      <c r="AJ21" s="41"/>
-      <c r="AK21" s="41"/>
-      <c r="AL21" s="41"/>
-      <c r="AM21" s="41"/>
-      <c r="AN21" s="41"/>
-      <c r="AO21" s="41"/>
-      <c r="AP21" s="41"/>
-      <c r="AQ21" s="41"/>
-      <c r="AR21" s="41"/>
-      <c r="AS21" s="41"/>
-      <c r="AT21" s="41"/>
-    </row>
-    <row r="22" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="Z22" s="40"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="41"/>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="41"/>
-      <c r="AH22" s="41"/>
-      <c r="AI22" s="41"/>
-      <c r="AJ22" s="41"/>
-      <c r="AK22" s="41"/>
-      <c r="AL22" s="41"/>
-      <c r="AM22" s="41"/>
-      <c r="AN22" s="41"/>
-      <c r="AO22" s="41"/>
-      <c r="AP22" s="41"/>
-      <c r="AQ22" s="41"/>
-      <c r="AR22" s="41"/>
-      <c r="AS22" s="41"/>
-      <c r="AT22" s="41"/>
-    </row>
-    <row r="23" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="37">
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="39"/>
+      <c r="J28" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,16,1)</f>
+        <v>Deception</v>
+      </c>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],16,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+    </row>
+    <row r="29" spans="2:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="43"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="44"/>
+      <c r="J29" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,17,1)</f>
+        <v>Charm</v>
+      </c>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],17,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+    </row>
+    <row r="30" spans="2:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="43"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="44"/>
+      <c r="J30" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,18,1)</f>
+        <v>Interrogate</v>
+      </c>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],18,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+    </row>
+    <row r="31" spans="2:46" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="45"/>
+      <c r="C31" s="66">
         <f>CHA_TOTAL</f>
         <v>5</v>
       </c>
-      <c r="C23" s="38"/>
-    </row>
-    <row r="24" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="C25" s="45"/>
-    </row>
-    <row r="26" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="35">
+      <c r="D31" s="67"/>
+      <c r="E31" s="46"/>
+      <c r="J31" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,19,1)</f>
+        <v>Torture</v>
+      </c>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],19,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+    </row>
+    <row r="32" spans="2:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="41"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="39"/>
+      <c r="J32" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,20,1)</f>
+        <v>Inspire</v>
+      </c>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],20,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="78"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+    </row>
+    <row r="33" spans="2:21" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,21,1)</f>
+        <v>Stealth</v>
+      </c>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],21,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="78"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+    </row>
+    <row r="34" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="49"/>
+      <c r="J34" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,22,1)</f>
+        <v>Guard</v>
+      </c>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],22,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q34" s="78"/>
+      <c r="R34" s="78"/>
+      <c r="S34" s="79"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+    </row>
+    <row r="35" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="43">
         <f>PER</f>
         <v>1</v>
       </c>
-      <c r="C26" s="36"/>
-    </row>
-    <row r="27" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-    </row>
-    <row r="28" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="37">
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="44"/>
+      <c r="J35" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,23,1)</f>
+        <v>Law</v>
+      </c>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],23,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q35" s="78"/>
+      <c r="R35" s="78"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="53"/>
+    </row>
+    <row r="36" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="43"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="44"/>
+      <c r="J36" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,24,1)</f>
+        <v>Culture</v>
+      </c>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="77"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="77"/>
+      <c r="P36" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],24,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q36" s="78"/>
+      <c r="R36" s="78"/>
+      <c r="S36" s="79"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+    </row>
+    <row r="37" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="43"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="44"/>
+      <c r="J37" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,25,1)</f>
+        <v>Concoct Poison</v>
+      </c>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="77"/>
+      <c r="P37" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],25,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q37" s="78"/>
+      <c r="R37" s="78"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+    </row>
+    <row r="38" spans="2:21" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="45"/>
+      <c r="C38" s="66">
         <f>PER_TOTAL</f>
         <v>5</v>
       </c>
-      <c r="C28" s="38"/>
-    </row>
-    <row r="29" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
-    </row>
-    <row r="51" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="46"/>
+      <c r="J38" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,26,1)</f>
+        <v>Medicine</v>
+      </c>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],26,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q38" s="78"/>
+      <c r="R38" s="78"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
+    </row>
+    <row r="39" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="41"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="39"/>
+      <c r="J39" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,27,1)</f>
+        <v>Language</v>
+      </c>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],27,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q39" s="78"/>
+      <c r="R39" s="78"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+    </row>
+    <row r="40" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J40" s="76" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,28,1)</f>
+        <v>Culture</v>
+      </c>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="78" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],28,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Q40" s="78"/>
+      <c r="R40" s="78"/>
+      <c r="S40" s="79"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="53"/>
+    </row>
+    <row r="41" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J41" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="81"/>
+      <c r="N41" s="81"/>
+      <c r="O41" s="81"/>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="81"/>
+      <c r="R41" s="81"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="53"/>
+    </row>
+    <row r="42" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="50"/>
+      <c r="P49" s="50"/>
+      <c r="Q49" s="50"/>
+      <c r="R49" s="50"/>
+      <c r="S49" s="50"/>
+      <c r="T49" s="50"/>
+      <c r="U49" s="50"/>
+    </row>
+    <row r="50" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="V50" s="50"/>
+      <c r="W50" s="50"/>
+    </row>
+    <row r="51" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="209" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="210" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="211" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7233,34 +8386,75 @@
     <row r="290" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="291" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="62">
+    <mergeCell ref="J41:S41"/>
+    <mergeCell ref="J35:O35"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J39:O39"/>
+    <mergeCell ref="J40:O40"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="J33:O33"/>
+    <mergeCell ref="J34:O34"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="J25:O25"/>
+    <mergeCell ref="J26:O26"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AB7:AE9"/>
+    <mergeCell ref="AS2:AV5"/>
+    <mergeCell ref="AS6:AV6"/>
+    <mergeCell ref="AN2:AQ5"/>
+    <mergeCell ref="AN6:AQ6"/>
+    <mergeCell ref="S2:Z3"/>
+    <mergeCell ref="AB2:AI3"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="M7:P9"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U9"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="W7:Z9"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K9"/>
+    <mergeCell ref="B28:E30"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E37"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="B2:O4"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="B7:E9"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E16"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B50:W50"/>
-    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E23"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="B27:E27"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="B18:C18"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB4" xr:uid="{2A650EF6-5695-9D49-9465-3F49B3DDBBF7}">
-      <formula1>Yes_No</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="P15" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -7285,63 +8479,63 @@
         <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -7367,7 +8561,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2">
         <v>18</v>
@@ -7397,7 +8591,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2">
         <v>26</v>
@@ -7427,7 +8621,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2">
         <v>20</v>
@@ -8157,47 +9351,47 @@
   <sheetData>
     <row r="1" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M1" s="9"/>
       <c r="O1" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S1" s="9" t="s">
         <v>21</v>
@@ -8223,7 +9417,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J2" s="8">
         <v>0</v>
@@ -8236,7 +9430,7 @@
       </c>
       <c r="M2" s="8"/>
       <c r="O2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P2" s="8">
         <v>1</v>
@@ -8272,7 +9466,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J3" s="8">
         <v>1</v>
@@ -8285,7 +9479,7 @@
       </c>
       <c r="M3" s="8"/>
       <c r="O3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P3" s="8">
         <v>1</v>
@@ -8321,7 +9515,7 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J4" s="8">
         <v>2</v>
@@ -8334,7 +9528,7 @@
       </c>
       <c r="M4" s="8"/>
       <c r="O4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P4" s="8">
         <v>2</v>
@@ -8370,7 +9564,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J5" s="8">
         <v>3</v>
@@ -8383,7 +9577,7 @@
       </c>
       <c r="M5" s="8"/>
       <c r="O5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P5" s="8">
         <v>3</v>
@@ -8419,7 +9613,7 @@
         <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J6" s="8">
         <v>0</v>
@@ -8431,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P6" s="8">
         <v>0</v>
@@ -8627,11 +9821,11 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17" s="5">
         <f>VLOOKUP(XP,A2:B15,2,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8681,7 +9875,7 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -8699,7 +9893,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I1" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
@@ -8709,10 +9903,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C2" s="14"/>
       <c r="E2" s="2"/>
@@ -8725,22 +9919,22 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="P2" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="16">
         <f>VLOOKUP(TOTAL_XP,XP_LEVEL,2,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="7"/>
@@ -8748,26 +9942,28 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P3" s="21"/>
-      <c r="Q3" s="22"/>
+      <c r="Q3" s="22">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C4" s="14"/>
       <c r="E4" s="2"/>
@@ -8783,21 +9979,21 @@
       </c>
       <c r="K4" s="6">
         <f>TOTAL_XP_EARNED</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L4" s="6">
         <f>SUM(I4:K4)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C5" s="17"/>
       <c r="E5" s="2"/>
@@ -8808,16 +10004,16 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="13">
         <f>SUM(D6:E6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="2">
         <f>VLOOKUP(TOTAL_XP,XP_LEVEL,3,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
         <f>FEAT_EXPT</f>
@@ -8826,29 +10022,29 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="I6" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B7" s="16">
         <f>SUM(D7,F7)</f>
@@ -8894,7 +10090,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="13">
         <f>SUM(D8:E8)</f>
@@ -8915,7 +10111,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" s="16">
         <f>FEAT_ARMOR</f>
@@ -8926,18 +10122,18 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="I9" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K9" s="20">
         <f>L4-N7</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="22"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" s="13">
         <f>FEAT_AURA</f>
@@ -9146,11 +10342,11 @@
     </row>
     <row r="43" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P43" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q43" s="10">
         <f>SUBTOTAL(109,Table11[XP])</f>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -9230,7 +10426,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>23</v>
@@ -9242,42 +10438,42 @@
         <v>25</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
@@ -9329,10 +10525,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
@@ -9384,10 +10580,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
@@ -9439,10 +10635,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
@@ -9454,7 +10650,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" s="2">
         <v>5</v>
@@ -9493,10 +10689,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -9548,7 +10744,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2">
         <f>SUM(Table1[[#Totals],[Bought]:[Expert]])</f>
@@ -9573,42 +10769,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:E6">
-    <cfRule type="containsText" dxfId="71" priority="8" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F6">
-    <cfRule type="containsText" dxfId="70" priority="7" operator="containsText" text="1d10">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="1d10">
       <formula>NOT(ISERROR(SEARCH("1d10",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:L6 H2:L3 I4:L4">
-    <cfRule type="cellIs" dxfId="69" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="68" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="67" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="66" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9633,7 +10829,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -9651,7 +10847,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>23</v>
@@ -9666,19 +10862,19 @@
         <v>25</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -9686,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
@@ -9726,7 +10922,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
@@ -9765,7 +10961,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
@@ -9804,7 +11000,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
@@ -9843,7 +11039,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -9879,10 +11075,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
@@ -9921,7 +11117,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
@@ -9960,7 +11156,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
@@ -9996,10 +11192,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
@@ -10035,10 +11231,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>29</v>
@@ -10077,7 +11273,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
@@ -10116,7 +11312,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
@@ -10155,7 +11351,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
@@ -10194,7 +11390,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
@@ -10233,7 +11429,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
@@ -10272,7 +11468,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
@@ -10311,7 +11507,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
@@ -10350,7 +11546,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>29</v>
@@ -10389,7 +11585,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>29</v>
@@ -10428,7 +11624,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>29</v>
@@ -10467,7 +11663,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>29</v>
@@ -10506,7 +11702,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>29</v>
@@ -10545,7 +11741,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>29</v>
@@ -10584,7 +11780,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>29</v>
@@ -10623,7 +11819,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
@@ -10659,10 +11855,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>29</v>
@@ -10701,7 +11897,7 @@
         <v>16</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>29</v>
@@ -10863,7 +12059,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2">
         <f>SUM(Table2[[#Totals],[Bought]:[Expert]])</f>
@@ -10889,22 +12085,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:F25 C31:F34">
-    <cfRule type="containsText" dxfId="63" priority="5" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K25 H31:K34">
-    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F30">
-    <cfRule type="containsText" dxfId="61" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:K30">
-    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10946,7 +12142,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>23</v>
@@ -10961,27 +12157,27 @@
         <v>25</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
@@ -11018,10 +12214,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
@@ -11057,10 +12253,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
@@ -11096,10 +12292,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
@@ -11135,10 +12331,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -11174,10 +12370,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
@@ -11213,10 +12409,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
@@ -11252,10 +12448,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
@@ -11291,10 +12487,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
@@ -11456,7 +12652,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2">
         <f>SUM(Table217[[#Totals],[Bought]:[Expert]])</f>
@@ -11482,12 +12678,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:F16">
-    <cfRule type="containsText" dxfId="59" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K16">
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11526,42 +12722,42 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -11601,12 +12797,12 @@
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -11646,12 +12842,12 @@
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -11689,12 +12885,12 @@
         <v>0</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -11717,7 +12913,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2">
@@ -11734,12 +12930,12 @@
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -11763,7 +12959,7 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J6" s="2">
         <f>ROUND(Table9[[#This Row],[Total
@@ -11779,12 +12975,12 @@
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -11807,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2">
@@ -11824,12 +13020,12 @@
         <v>0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -11870,12 +13066,12 @@
         <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -11902,7 +13098,7 @@
         <v>+</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J9" s="2">
         <f>Table9[[#This Row],[Total
@@ -11918,12 +13114,12 @@
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -11947,7 +13143,7 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J10" s="2">
         <f>ROUND(Table9[[#This Row],[Total
@@ -11963,12 +13159,12 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -12009,12 +13205,12 @@
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -12055,12 +13251,12 @@
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -12094,12 +13290,12 @@
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -12338,7 +13534,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C1" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
@@ -12354,7 +13550,7 @@
       <c r="O1" s="33"/>
       <c r="P1" s="33"/>
       <c r="Q1" s="33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="R1" s="33"/>
       <c r="S1" s="33"/>
@@ -12365,75 +13561,75 @@
     </row>
     <row r="2" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I2" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>154</v>
-      </c>
       <c r="L2" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S2" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T2" s="26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U2" s="26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V2" s="26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
@@ -12496,10 +13692,10 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>
@@ -12559,15 +13755,15 @@
         <v>0</v>
       </c>
       <c r="V4" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
@@ -12627,15 +13823,15 @@
         <v>0</v>
       </c>
       <c r="V5" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>28</v>
@@ -12695,15 +13891,15 @@
         <v>0</v>
       </c>
       <c r="V6" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
@@ -12763,15 +13959,15 @@
         <v>0</v>
       </c>
       <c r="V7" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>28</v>
@@ -12831,15 +14027,15 @@
         <v>0</v>
       </c>
       <c r="V8" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>28</v>
@@ -12899,12 +14095,12 @@
         <v>0</v>
       </c>
       <c r="V9" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>28</v>
@@ -12967,7 +14163,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>28</v>
@@ -13030,7 +14226,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
@@ -13093,7 +14289,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
@@ -13156,7 +14352,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
@@ -13219,7 +14415,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
@@ -13282,7 +14478,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
@@ -13345,7 +14541,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
@@ -13408,7 +14604,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
@@ -13471,7 +14667,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>29</v>
@@ -13534,7 +14730,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>29</v>
@@ -13597,7 +14793,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>29</v>
@@ -13660,7 +14856,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2">
@@ -13741,16 +14937,16 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>21</v>
@@ -13758,10 +14954,10 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C25" s="2">
         <f>VLOOKUP($B$25,ARMOR_TYPE,2,FALSE)</f>
@@ -13781,10 +14977,10 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C26" s="2">
         <f>VLOOKUP($B$26,SHIELD_TYPE,2,FALSE)</f>
@@ -13877,12 +15073,12 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C1" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" s="33"/>
       <c r="H1" s="33"/>
@@ -13897,7 +15093,7 @@
       <c r="Q1" s="33"/>
       <c r="R1" s="33"/>
       <c r="S1" s="33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T1" s="33"/>
       <c r="U1" s="33"/>
@@ -13909,75 +15105,75 @@
         <v>22</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K2" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="L2" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>154</v>
-      </c>
       <c r="N2" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P2" s="25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S2" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T2" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U2" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V2" s="26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W2" s="26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>28</v>
@@ -15320,60 +16516,60 @@
         <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -15409,7 +16605,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -15449,7 +16645,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2">
         <v>15</v>
@@ -15489,7 +16685,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2">
         <v>10</v>
@@ -15529,7 +16725,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2">
         <v>12</v>
@@ -15569,7 +16765,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -15609,7 +16805,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2">
         <v>10</v>
@@ -15649,7 +16845,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2">
         <v>10</v>
@@ -15689,7 +16885,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10" s="2">
         <v>12</v>
@@ -15729,7 +16925,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2">
         <v>20</v>
@@ -15769,7 +16965,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2">
         <v>15</v>
@@ -15809,7 +17005,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>

--- a/Character Sheet.xlsx
+++ b/Character Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baudin/Projects/aria-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C4014D-80BD-6C41-AA72-60054106B0C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C012DB-4E09-C84A-9B94-576384836B35}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38200" windowHeight="23540" xr2:uid="{47C10E70-C8A1-594D-875F-C0FED4FAA393}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38200" windowHeight="23540" activeTab="7" xr2:uid="{47C10E70-C8A1-594D-875F-C0FED4FAA393}"/>
   </bookViews>
   <sheets>
     <sheet name="Character Sheet" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Drop Downs" sheetId="3" r:id="rId12"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Feats!$A$1:$L$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Resistances!$A$1:$K$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Skills!$A$1:$K$34</definedName>
     <definedName name="AGI">Statistics!$N$3</definedName>
     <definedName name="AGI_TOTAL">Statistics!$M$3</definedName>
     <definedName name="Armor" localSheetId="7">Table13[#All]</definedName>
@@ -57,7 +60,10 @@
     <definedName name="CHARACTER_NAME">'Character Info'!$B$2</definedName>
     <definedName name="CHARACTER_PROFESSION">'Character Info'!$B$5</definedName>
     <definedName name="CHARACTER_RACE">'Character Info'!$B$4</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">'Character Sheet'!#REF!</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">'Character Sheet'!$W$1:$X$1</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="5">Feats!$W$1:$X$1</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">Resistances!$O$1:$Q$1</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">Skills!$N$1:$O$1</definedName>
     <definedName name="EQ_ARMOR" localSheetId="4">Table12[[#Totals],[Armor]]</definedName>
     <definedName name="EQ_ARMOR" localSheetId="7">Table1218[[#Totals],[Armor]]</definedName>
     <definedName name="EQ_ARMOR">Table12[[#Totals],[Armor]]</definedName>
@@ -108,6 +114,9 @@
     <definedName name="EQ_STAMINA">Table12[[#Totals],[Stamina]]</definedName>
     <definedName name="EXPERTISE">'Character Info'!$B$6</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">'Character Sheet'!$Z$4:$AT$4</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="5">Feats!$N$25:$O$25</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="4">Resistances!$O$7:$Q$7</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="3">Skills!$N$9:$O$9</definedName>
     <definedName name="FEAT_ARMOR">Feats!$J$11</definedName>
     <definedName name="FEAT_AURA">Feats!$J$12</definedName>
     <definedName name="FEAT_DMG">Feats!$K$2</definedName>
@@ -190,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="216">
   <si>
     <t>Weapon Skill</t>
   </si>
@@ -382,6 +391,9 @@
   </si>
   <si>
     <t>Feats</t>
+  </si>
+  <si>
+    <t>Resistances</t>
   </si>
   <si>
     <t>Resist.</t>
@@ -674,10 +686,6 @@
     <t>Initiative (INI)</t>
   </si>
   <si>
-    <t>Total
-Rank</t>
-  </si>
-  <si>
     <t>INI</t>
   </si>
   <si>
@@ -808,13 +816,46 @@
   </si>
   <si>
     <t>PROFESSION</t>
+  </si>
+  <si>
+    <t>1d10 + 0</t>
+  </si>
+  <si>
+    <t>+0</t>
+  </si>
+  <si>
+    <t>+0d4</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>+-2ft</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>TotalRank</t>
+  </si>
+  <si>
+    <t>Melee</t>
+  </si>
+  <si>
+    <t>Ranged</t>
+  </si>
+  <si>
+    <t>Magic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -864,6 +905,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Apple Chancery"/>
+      <family val="4"/>
     </font>
     <font>
       <sz val="28"/>
@@ -1277,7 +1324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1388,13 +1435,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1403,31 +1450,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1445,13 +1492,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1460,16 +1507,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1478,44 +1525,347 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="268">
+  <dxfs count="270">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color theme="4" tint="0.39994506668294322"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1675,6 +2025,14 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="4" tint="0.39994506668294322"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1734,6 +2092,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -1800,6 +2177,222 @@
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="4" tint="0.39994506668294322"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -2962,466 +3555,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color theme="4" tint="0.39994506668294322"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thick">
-          <color theme="4" tint="0.39994506668294322"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thick">
-          <color theme="4" tint="0.39994506668294322"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -6032,72 +6165,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{145CBDC0-3D41-0042-9A92-BFAA003FF86C}" name="Table11" displayName="Table11" ref="P2:R43" totalsRowCount="1" headerRowDxfId="216" dataDxfId="217">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{145CBDC0-3D41-0042-9A92-BFAA003FF86C}" name="Table11" displayName="Table11" ref="P2:R43" totalsRowCount="1" headerRowDxfId="218" dataDxfId="219">
   <autoFilter ref="P2:R42" xr:uid="{F3ABECE7-6469-3F43-890B-0963AC8035B5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{65401DCF-9801-AA4F-9D7C-14A36966F4BA}" name="Date" totalsRowLabel="Total" dataDxfId="215" totalsRowDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{D703D096-B658-604D-BDCC-2B29BF766859}" name="XP" totalsRowFunction="sum" dataDxfId="214" totalsRowDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{BE38B662-73B8-B246-A576-1733D777406D}" name="Description" dataDxfId="218" totalsRowDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{65401DCF-9801-AA4F-9D7C-14A36966F4BA}" name="Date" totalsRowLabel="Total" dataDxfId="217" totalsRowDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{D703D096-B658-604D-BDCC-2B29BF766859}" name="XP" totalsRowFunction="sum" dataDxfId="216" totalsRowDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{BE38B662-73B8-B246-A576-1733D777406D}" name="Description" dataDxfId="220" totalsRowDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{78200D4B-54DE-294C-A2EC-E7A9132DE4A6}" name="Table6" displayName="Table6" ref="A1:C15" totalsRowShown="0" headerRowDxfId="241">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{78200D4B-54DE-294C-A2EC-E7A9132DE4A6}" name="Table6" displayName="Table6" ref="A1:C15" totalsRowShown="0" headerRowDxfId="243">
   <autoFilter ref="A1:C15" xr:uid="{155EBD5E-3DA9-7C4C-98B7-91D73ABBCBEA}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AE3CEFB8-A81B-1945-B935-54D9C303AE90}" name="XP" dataDxfId="136"/>
-    <tableColumn id="2" xr3:uid="{BC117F6B-7A72-794E-A7A9-35C1983CB4DB}" name="Level" dataDxfId="137"/>
-    <tableColumn id="3" xr3:uid="{B8412833-42B8-AC4F-8B3F-0E354215D314}" name="Expertise" dataDxfId="138"/>
+    <tableColumn id="1" xr3:uid="{AE3CEFB8-A81B-1945-B935-54D9C303AE90}" name="XP" dataDxfId="138"/>
+    <tableColumn id="2" xr3:uid="{BC117F6B-7A72-794E-A7A9-35C1983CB4DB}" name="Level" dataDxfId="139"/>
+    <tableColumn id="3" xr3:uid="{B8412833-42B8-AC4F-8B3F-0E354215D314}" name="Expertise" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{26ECF4A8-7727-1C46-A7B9-8B557DBD00C1}" name="Table10" displayName="Table10" ref="E1:G14" totalsRowShown="0" headerRowDxfId="234" dataDxfId="233">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{26ECF4A8-7727-1C46-A7B9-8B557DBD00C1}" name="Table10" displayName="Table10" ref="E1:G14" totalsRowShown="0" headerRowDxfId="236" dataDxfId="235">
   <autoFilter ref="E1:G14" xr:uid="{5644FF1C-D713-604E-8E6F-FA601D66BB9F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3666EECD-8766-9142-ADF8-3E0E7512115A}" name="Rank" dataDxfId="237"/>
-    <tableColumn id="2" xr3:uid="{73A0B26C-75CB-ED4F-882C-B1AFE5834235}" name="XP" dataDxfId="236">
+    <tableColumn id="1" xr3:uid="{3666EECD-8766-9142-ADF8-3E0E7512115A}" name="Rank" dataDxfId="239"/>
+    <tableColumn id="2" xr3:uid="{73A0B26C-75CB-ED4F-882C-B1AFE5834235}" name="XP" dataDxfId="238">
       <calculatedColumnFormula>F1+G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{51D4A3E4-3DB9-124B-945D-53E6771F1494}" name="XP_ADD" dataDxfId="235"/>
+    <tableColumn id="3" xr3:uid="{51D4A3E4-3DB9-124B-945D-53E6771F1494}" name="XP_ADD" dataDxfId="237"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4895560C-F7FE-264B-9757-BE94C044D54A}" name="Table13" displayName="Table13" ref="I1:L6" totalsRowShown="0" headerRowDxfId="170">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4895560C-F7FE-264B-9757-BE94C044D54A}" name="Table13" displayName="Table13" ref="I1:L6" totalsRowShown="0" headerRowDxfId="172">
   <autoFilter ref="I1:L6" xr:uid="{8133F681-167D-F049-9826-3312B39E818C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{48A52C97-1904-CD46-80EA-064E09AAF69B}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{38C00C01-3C20-6D47-A5EB-F3A7BEAEC051}" name="Armor" dataDxfId="171"/>
-    <tableColumn id="3" xr3:uid="{EE898554-2F74-C149-B88C-AF12B4508BF3}" name="INI" dataDxfId="168"/>
-    <tableColumn id="4" xr3:uid="{F349EE49-F581-BB4C-8F32-35834A1E04BF}" name="Movement" dataDxfId="167"/>
+    <tableColumn id="2" xr3:uid="{38C00C01-3C20-6D47-A5EB-F3A7BEAEC051}" name="Armor" dataDxfId="173"/>
+    <tableColumn id="3" xr3:uid="{EE898554-2F74-C149-B88C-AF12B4508BF3}" name="INI" dataDxfId="170"/>
+    <tableColumn id="4" xr3:uid="{F349EE49-F581-BB4C-8F32-35834A1E04BF}" name="Movement" dataDxfId="169"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B7E950BC-4606-8A49-8B91-DEC3B6A9BAA8}" name="Table1315" displayName="Table1315" ref="O1:S6" totalsRowShown="0" headerRowDxfId="169">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B7E950BC-4606-8A49-8B91-DEC3B6A9BAA8}" name="Table1315" displayName="Table1315" ref="O1:S6" totalsRowShown="0" headerRowDxfId="171">
   <autoFilter ref="O1:S6" xr:uid="{2A1B3E48-F34C-174D-8FBD-7A506A55BF41}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{94233833-88FD-1A4A-B618-9CFA4BB779D8}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{65FF8683-7DAD-9541-BA3F-72C23BBAA524}" name="Armor" dataDxfId="142"/>
-    <tableColumn id="4" xr3:uid="{0071B3F4-3F31-4840-9341-10D8AB7C1EFB}" name="INI" dataDxfId="141"/>
-    <tableColumn id="5" xr3:uid="{0770FF4B-C599-B144-8E09-19F1C8E836A2}" name="Movement" dataDxfId="140"/>
-    <tableColumn id="6" xr3:uid="{E5FDFDB6-BBF2-DC42-8D85-B230C4C6AECD}" name="Dodge" dataDxfId="139"/>
+    <tableColumn id="2" xr3:uid="{65FF8683-7DAD-9541-BA3F-72C23BBAA524}" name="Armor" dataDxfId="144"/>
+    <tableColumn id="4" xr3:uid="{0071B3F4-3F31-4840-9341-10D8AB7C1EFB}" name="INI" dataDxfId="143"/>
+    <tableColumn id="5" xr3:uid="{0770FF4B-C599-B144-8E09-19F1C8E836A2}" name="Movement" dataDxfId="142"/>
+    <tableColumn id="6" xr3:uid="{E5FDFDB6-BBF2-DC42-8D85-B230C4C6AECD}" name="Dodge" dataDxfId="141"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77A7907B-AE9B-314A-992E-E0A4617DC74E}" name="Table1" displayName="Table1" ref="A1:O7" totalsRowCount="1" headerRowDxfId="267" dataDxfId="266">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77A7907B-AE9B-314A-992E-E0A4617DC74E}" name="Table1" displayName="Table1" ref="A1:O7" totalsRowCount="1" headerRowDxfId="269" dataDxfId="268">
   <autoFilter ref="A1:O6" xr:uid="{60B8AEF8-2C69-5B48-9C1A-DCFAB2AD983D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6116,35 +6249,35 @@
     <filterColumn colId="14" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{1782BAF0-6CF8-464E-925A-9A2A96505774}" name="Name" totalsRowLabel="Total XP" dataDxfId="265" totalsRowDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{9BCB48E4-DBE3-5942-8D75-286CC1057954}" name="Code" totalsRowFunction="custom" dataDxfId="264" totalsRowDxfId="85">
+    <tableColumn id="1" xr3:uid="{1782BAF0-6CF8-464E-925A-9A2A96505774}" name="Name" totalsRowLabel="Total XP" dataDxfId="267" totalsRowDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{9BCB48E4-DBE3-5942-8D75-286CC1057954}" name="Code" totalsRowFunction="custom" dataDxfId="266" totalsRowDxfId="110">
       <totalsRowFormula>SUM(Table1[[#Totals],[Bought]:[Expert]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CA9C36A3-6157-BA4C-AA92-67A100D27609}" name="Bought" totalsRowFunction="custom" dataDxfId="263" totalsRowDxfId="84">
+    <tableColumn id="3" xr3:uid="{CA9C36A3-6157-BA4C-AA92-67A100D27609}" name="Bought" totalsRowFunction="custom" dataDxfId="265" totalsRowDxfId="109">
       <totalsRowFormula>COUNTIF(Table1[Bought], "Yes") * 2</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CA0D2A17-FBA4-5E4F-B125-4C070D8788C4}" name="Skilled" totalsRowFunction="custom" dataDxfId="262" totalsRowDxfId="83">
+    <tableColumn id="4" xr3:uid="{CA0D2A17-FBA4-5E4F-B125-4C070D8788C4}" name="Skilled" totalsRowFunction="custom" dataDxfId="264" totalsRowDxfId="108">
       <totalsRowFormula>COUNTIF(Table1[Skilled], "Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A7566064-06E8-8E44-98CD-C54733321306}" name="Expert" totalsRowFunction="custom" dataDxfId="261" totalsRowDxfId="82">
+    <tableColumn id="5" xr3:uid="{A7566064-06E8-8E44-98CD-C54733321306}" name="Expert" totalsRowFunction="custom" dataDxfId="263" totalsRowDxfId="107">
       <totalsRowFormula>COUNTIF(Table1[Expert], "Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2FBFFF7E-FF36-3B4A-B953-C82904D36913}" name="DICE" dataDxfId="260" totalsRowDxfId="81"/>
-    <tableColumn id="8" xr3:uid="{C8BCD9D1-3FE9-3647-A609-5788CD8AB7AD}" name="START" dataDxfId="259" totalsRowDxfId="80"/>
-    <tableColumn id="14" xr3:uid="{6C3C1930-198A-CA42-8563-974CFD7E82BB}" name="RACE" dataDxfId="258" totalsRowDxfId="79"/>
-    <tableColumn id="9" xr3:uid="{22F7BDEA-1AD8-5343-8765-89D3F14F6903}" name="PROF" dataDxfId="240" totalsRowDxfId="78">
+    <tableColumn id="7" xr3:uid="{2FBFFF7E-FF36-3B4A-B953-C82904D36913}" name="DICE" dataDxfId="262" totalsRowDxfId="106"/>
+    <tableColumn id="8" xr3:uid="{C8BCD9D1-3FE9-3647-A609-5788CD8AB7AD}" name="START" dataDxfId="261" totalsRowDxfId="105"/>
+    <tableColumn id="14" xr3:uid="{6C3C1930-198A-CA42-8563-974CFD7E82BB}" name="RACE" dataDxfId="260" totalsRowDxfId="104"/>
+    <tableColumn id="9" xr3:uid="{22F7BDEA-1AD8-5343-8765-89D3F14F6903}" name="PROF" dataDxfId="242" totalsRowDxfId="103">
       <calculatedColumnFormula>VLOOKUP(PROF,Table7[],Table7[[#Headers],[STR]],FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2075AAEA-B6EA-0E43-A822-11D62BB1BE24}" name="EQ." dataDxfId="257" totalsRowDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{0AD5C3C3-BBF8-D24A-B215-5FCDD41C3025}" name="Weapons" dataDxfId="239" totalsRowDxfId="76"/>
-    <tableColumn id="11" xr3:uid="{97BDD625-37C1-2848-8E6B-2AB44DBA88F9}" name="BONUS" dataDxfId="256" totalsRowDxfId="75"/>
-    <tableColumn id="12" xr3:uid="{5E1E8E4D-E523-3C4D-9FE9-AB8CFD8BE3A1}" name="TOTAL" dataDxfId="255" totalsRowDxfId="74">
+    <tableColumn id="10" xr3:uid="{2075AAEA-B6EA-0E43-A822-11D62BB1BE24}" name="EQ." dataDxfId="259" totalsRowDxfId="102"/>
+    <tableColumn id="6" xr3:uid="{0AD5C3C3-BBF8-D24A-B215-5FCDD41C3025}" name="Weapons" dataDxfId="241" totalsRowDxfId="101"/>
+    <tableColumn id="11" xr3:uid="{97BDD625-37C1-2848-8E6B-2AB44DBA88F9}" name="BONUS" dataDxfId="258" totalsRowDxfId="100"/>
+    <tableColumn id="12" xr3:uid="{5E1E8E4D-E523-3C4D-9FE9-AB8CFD8BE3A1}" name="TOTAL" dataDxfId="257" totalsRowDxfId="99">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[START]:[BONUS]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{B331F653-0EE6-C649-97EB-5E84A49DCF84}" name="STAT" dataDxfId="254" totalsRowDxfId="73">
+    <tableColumn id="13" xr3:uid="{B331F653-0EE6-C649-97EB-5E84A49DCF84}" name="STAT" dataDxfId="256" totalsRowDxfId="98">
       <calculatedColumnFormula>ROUNDUP(Table1[[#This Row],[TOTAL]]/10, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{E9A47421-916C-7F48-A22E-F14FB2F5F313}" name="Roll" dataDxfId="135" totalsRowDxfId="72">
+    <tableColumn id="15" xr3:uid="{E9A47421-916C-7F48-A22E-F14FB2F5F313}" name="Roll" dataDxfId="137" totalsRowDxfId="97">
       <calculatedColumnFormula>Table1[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; IF(Table1[[#This Row],[Skilled]] = "Yes",LVL,0) + IF(Table1[[#This Row],[Expert]]="Yes",EXPERTISE,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6153,36 +6286,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95EE0547-B330-BF4F-8608-1382B945C7E0}" name="Table2" displayName="Table2" ref="A1:K35" totalsRowCount="1" headerRowDxfId="253" dataDxfId="252">
-  <autoFilter ref="A1:K34" xr:uid="{030F305C-8F11-B741-B25F-ECB30F00D6AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95EE0547-B330-BF4F-8608-1382B945C7E0}" name="Table2" displayName="Table2" ref="A1:K35" totalsRowCount="1" headerRowDxfId="255" dataDxfId="254">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{488891F9-A380-104B-B93D-C02458C8FA29}" name="Name" totalsRowLabel="Total" dataDxfId="251" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{93A5AD0F-341D-E245-AF40-3EAD21FC48A0}" name="Statistic" totalsRowFunction="custom" dataDxfId="250" totalsRowDxfId="9">
+    <tableColumn id="1" xr3:uid="{488891F9-A380-104B-B93D-C02458C8FA29}" name="Name" totalsRowLabel="Total" dataDxfId="253" totalsRowDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{93A5AD0F-341D-E245-AF40-3EAD21FC48A0}" name="Statistic" totalsRowFunction="custom" dataDxfId="252" totalsRowDxfId="48">
       <totalsRowFormula>SUM(Table2[[#Totals],[Bought]:[Expert]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FE35E503-2EA7-A343-99C7-C5C5899FC054}" name="Bought" totalsRowFunction="custom" dataDxfId="249" totalsRowDxfId="8">
+    <tableColumn id="3" xr3:uid="{FE35E503-2EA7-A343-99C7-C5C5899FC054}" name="Bought" totalsRowFunction="custom" dataDxfId="251" totalsRowDxfId="47">
       <totalsRowFormula>COUNTIF(Table2[Bought],"Yes") * 2</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{98DF01DF-054B-914B-974E-8AF998FF4E53}" name="Skilled" totalsRowFunction="custom" dataDxfId="248" totalsRowDxfId="7">
+    <tableColumn id="4" xr3:uid="{98DF01DF-054B-914B-974E-8AF998FF4E53}" name="Skilled" totalsRowFunction="custom" dataDxfId="250" totalsRowDxfId="46">
       <totalsRowFormula>COUNTIF(Table2[Skilled],"Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C62BCE48-B5FF-6A47-AA15-86C6BDEC45D6}" name="Professional" totalsRowFunction="custom" dataDxfId="247" totalsRowDxfId="6">
+    <tableColumn id="5" xr3:uid="{C62BCE48-B5FF-6A47-AA15-86C6BDEC45D6}" name="Professional" totalsRowFunction="custom" dataDxfId="249" totalsRowDxfId="45">
       <totalsRowFormula>COUNTIF(Table2[Professional],"Yes") * 4</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D9F29455-4DAB-6A40-8A17-0CA575126A74}" name="Expert" totalsRowFunction="custom" dataDxfId="246" totalsRowDxfId="5">
+    <tableColumn id="6" xr3:uid="{D9F29455-4DAB-6A40-8A17-0CA575126A74}" name="Expert" totalsRowFunction="custom" dataDxfId="248" totalsRowDxfId="44">
       <totalsRowFormula>COUNTIF(Table2[Skilled],"Yes") * 5</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D32EF9E9-A539-8B41-871A-B89EA355F651}" name="DICE" dataDxfId="245" totalsRowDxfId="4">
+    <tableColumn id="8" xr3:uid="{D32EF9E9-A539-8B41-871A-B89EA355F651}" name="DICE" dataDxfId="247" totalsRowDxfId="43">
       <calculatedColumnFormula>IF(C2="Yes","1d20","1d10")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C1A4C07D-E510-A944-A562-B1C910EB2898}" name="STAT" dataDxfId="238" totalsRowDxfId="3">
+    <tableColumn id="9" xr3:uid="{C1A4C07D-E510-A944-A562-B1C910EB2898}" name="STAT" dataDxfId="240" totalsRowDxfId="42">
       <calculatedColumnFormula>IF(Table2[[#This Row],[Skilled]] = "YES",VLOOKUP(Table2[[#This Row],[Statistic]],Table1[[Code]:[STAT]],13,FALSE), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0B24A7B2-5A09-214A-A140-1714C5D361A4}" name="LEVEL" dataDxfId="242" totalsRowDxfId="2">
+    <tableColumn id="10" xr3:uid="{0B24A7B2-5A09-214A-A140-1714C5D361A4}" name="LEVEL" dataDxfId="244" totalsRowDxfId="41">
       <calculatedColumnFormula>IF(Table2[[#This Row],[Professional]]="Yes",LVL,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{356CD671-6933-4E45-8BBD-9402E92B4106}" name="EXP." dataDxfId="244" totalsRowDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{28D63D3F-7CDE-BD4A-8D01-F7FC776D2F9A}" name="TOTAL" dataDxfId="243" totalsRowDxfId="0">
+    <tableColumn id="11" xr3:uid="{356CD671-6933-4E45-8BBD-9402E92B4106}" name="EXP." dataDxfId="246" totalsRowDxfId="40"/>
+    <tableColumn id="12" xr3:uid="{28D63D3F-7CDE-BD4A-8D01-F7FC776D2F9A}" name="TOTAL" dataDxfId="245" totalsRowDxfId="39">
       <calculatedColumnFormula>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H2:J2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6191,36 +6323,35 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3AD258F9-46CB-0748-BE8B-849C3A884EB8}" name="Table217" displayName="Table217" ref="A1:K17" totalsRowCount="1" headerRowDxfId="166" dataDxfId="165">
-  <autoFilter ref="A1:K16" xr:uid="{030F305C-8F11-B741-B25F-ECB30F00D6AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3AD258F9-46CB-0748-BE8B-849C3A884EB8}" name="Table217" displayName="Table217" ref="A1:K17" totalsRowCount="1" headerRowDxfId="168" dataDxfId="167">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{87BB9924-DBC9-8B4C-98A3-1C64069A7F16}" name="Name" totalsRowLabel="Total" dataDxfId="164" totalsRowDxfId="153"/>
-    <tableColumn id="2" xr3:uid="{C7B0EDCD-3736-3443-8494-C77B335F22CF}" name="Statistic" totalsRowFunction="custom" dataDxfId="163" totalsRowDxfId="152">
+    <tableColumn id="1" xr3:uid="{87BB9924-DBC9-8B4C-98A3-1C64069A7F16}" name="Name" totalsRowLabel="Total" dataDxfId="166" totalsRowDxfId="155"/>
+    <tableColumn id="2" xr3:uid="{C7B0EDCD-3736-3443-8494-C77B335F22CF}" name="Statistic" totalsRowFunction="custom" dataDxfId="165" totalsRowDxfId="154">
       <totalsRowFormula>SUM(Table217[[#Totals],[Bought]:[Expert]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DB3431C6-D27C-1F4F-A527-26C5173FD0AF}" name="Bought" totalsRowFunction="custom" dataDxfId="162" totalsRowDxfId="151">
+    <tableColumn id="3" xr3:uid="{DB3431C6-D27C-1F4F-A527-26C5173FD0AF}" name="Bought" totalsRowFunction="custom" dataDxfId="164" totalsRowDxfId="153">
       <totalsRowFormula>COUNTIF(Table217[Bought],"Yes") * 2</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16801E44-9587-1F43-A05D-A6A621B7D92E}" name="Skilled" totalsRowFunction="custom" dataDxfId="161" totalsRowDxfId="150">
+    <tableColumn id="4" xr3:uid="{16801E44-9587-1F43-A05D-A6A621B7D92E}" name="Skilled" totalsRowFunction="custom" dataDxfId="163" totalsRowDxfId="152">
       <totalsRowFormula>COUNTIF(Table217[Skilled],"Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{831CD727-7203-A442-90B2-7454C8FF3483}" name="Professional" totalsRowFunction="custom" dataDxfId="160" totalsRowDxfId="149">
+    <tableColumn id="5" xr3:uid="{831CD727-7203-A442-90B2-7454C8FF3483}" name="Professional" totalsRowFunction="custom" dataDxfId="162" totalsRowDxfId="151">
       <totalsRowFormula>COUNTIF(Table217[Professional],"Yes") * 4</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{29019F01-4B37-FD41-BF61-39E9F80E0220}" name="Expert" totalsRowFunction="custom" dataDxfId="159" totalsRowDxfId="148">
+    <tableColumn id="6" xr3:uid="{29019F01-4B37-FD41-BF61-39E9F80E0220}" name="Expert" totalsRowFunction="custom" dataDxfId="161" totalsRowDxfId="150">
       <totalsRowFormula>COUNTIF(Table217[Skilled],"Yes") * 5</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9DA99A80-D4A2-7245-9FF6-F208EE342709}" name="DICE" dataDxfId="158" totalsRowDxfId="147">
+    <tableColumn id="8" xr3:uid="{9DA99A80-D4A2-7245-9FF6-F208EE342709}" name="DICE" dataDxfId="160" totalsRowDxfId="149">
       <calculatedColumnFormula>IF(C2="Yes","1d20","1d10")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C3CB34DA-A904-9C4B-8C33-222761B6D7D2}" name="STAT" dataDxfId="157" totalsRowDxfId="146">
+    <tableColumn id="9" xr3:uid="{C3CB34DA-A904-9C4B-8C33-222761B6D7D2}" name="STAT" dataDxfId="159" totalsRowDxfId="148">
       <calculatedColumnFormula>IF(Table217[[#This Row],[Skilled]] = "YES",VLOOKUP(Table217[[#This Row],[Statistic]],Table1[[Code]:[STAT]],13,FALSE), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{AA0D7124-EB80-8D45-8B3A-B710D5C942D2}" name="LEVEL" dataDxfId="156" totalsRowDxfId="145">
+    <tableColumn id="10" xr3:uid="{AA0D7124-EB80-8D45-8B3A-B710D5C942D2}" name="LEVEL" dataDxfId="158" totalsRowDxfId="147">
       <calculatedColumnFormula>IF(Table217[[#This Row],[Professional]]="Yes",LVL,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6DA8214E-CFCE-1F48-9C1E-1466DBBCA419}" name="EXP." dataDxfId="155" totalsRowDxfId="144"/>
-    <tableColumn id="12" xr3:uid="{44A80818-EE79-AD41-B43E-D9EA1EB5457F}" name="TOTAL" dataDxfId="154" totalsRowDxfId="143">
+    <tableColumn id="11" xr3:uid="{6DA8214E-CFCE-1F48-9C1E-1466DBBCA419}" name="EXP." dataDxfId="157" totalsRowDxfId="146"/>
+    <tableColumn id="12" xr3:uid="{44A80818-EE79-AD41-B43E-D9EA1EB5457F}" name="TOTAL" dataDxfId="156" totalsRowDxfId="145">
       <calculatedColumnFormula>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H2:J2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6229,25 +6360,24 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9BF8CF78-37C6-3445-BBF5-327B62B15019}" name="Table9" displayName="Table9" ref="A1:L19" totalsRowShown="0" headerRowDxfId="221" dataDxfId="220">
-  <autoFilter ref="A1:L19" xr:uid="{32329F18-20A0-CD44-82BA-4CE16E9DAD27}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9BF8CF78-37C6-3445-BBF5-327B62B15019}" name="Table9" displayName="Table9" ref="A1:L19" totalsRowShown="0" headerRowDxfId="223" dataDxfId="222">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{AAE218F1-975D-6E4D-A78F-7D9CFE3F2D85}" name="Name" dataDxfId="232"/>
-    <tableColumn id="2" xr3:uid="{D6530EC6-244B-1342-B158-F1BF3AB28116}" name="Rank" dataDxfId="231"/>
-    <tableColumn id="3" xr3:uid="{06E3316B-0582-394A-BC3E-83FCA17E3605}" name="Weapon" dataDxfId="230"/>
-    <tableColumn id="12" xr3:uid="{DFE40438-CA22-3D44-8C0F-517F5D131F5B}" name="Equip." dataDxfId="219"/>
-    <tableColumn id="4" xr3:uid="{D4781ED7-4593-8541-BEFE-6294607C35A6}" name="Special" dataDxfId="229"/>
-    <tableColumn id="10" xr3:uid="{F3DF0F91-E598-724D-9337-DE5DFBDAB49E}" name="Total_x000a_Rank" dataDxfId="228">
+    <tableColumn id="1" xr3:uid="{AAE218F1-975D-6E4D-A78F-7D9CFE3F2D85}" name="Name" dataDxfId="234"/>
+    <tableColumn id="2" xr3:uid="{D6530EC6-244B-1342-B158-F1BF3AB28116}" name="Rank" dataDxfId="233"/>
+    <tableColumn id="3" xr3:uid="{06E3316B-0582-394A-BC3E-83FCA17E3605}" name="Weapon" dataDxfId="232"/>
+    <tableColumn id="12" xr3:uid="{DFE40438-CA22-3D44-8C0F-517F5D131F5B}" name="Equip." dataDxfId="221"/>
+    <tableColumn id="4" xr3:uid="{D4781ED7-4593-8541-BEFE-6294607C35A6}" name="Special" dataDxfId="231"/>
+    <tableColumn id="10" xr3:uid="{F3DF0F91-E598-724D-9337-DE5DFBDAB49E}" name="TotalRank" dataDxfId="230">
       <calculatedColumnFormula>SUM(Table9[[#This Row],[Rank]:[Special]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0D510646-E339-4D49-AC64-0E9893C8F3DB}" name="Factor" dataDxfId="227"/>
-    <tableColumn id="6" xr3:uid="{7B2CF3F3-396A-4840-8DAE-8804AB543E30}" name="Prefix" dataDxfId="226"/>
-    <tableColumn id="7" xr3:uid="{83E2A74F-B858-6946-B767-CA721DD0DE12}" name="Postfix" dataDxfId="225"/>
-    <tableColumn id="11" xr3:uid="{ADBF929F-A437-7A42-B5EE-CA1C4C9D4880}" name="CALC" dataDxfId="224"/>
-    <tableColumn id="8" xr3:uid="{0BF9FD32-BE0B-AC4D-B2C3-0AE1CD340401}" name="Result" dataDxfId="223">
+    <tableColumn id="5" xr3:uid="{0D510646-E339-4D49-AC64-0E9893C8F3DB}" name="Factor" dataDxfId="229"/>
+    <tableColumn id="6" xr3:uid="{7B2CF3F3-396A-4840-8DAE-8804AB543E30}" name="Prefix" dataDxfId="228"/>
+    <tableColumn id="7" xr3:uid="{83E2A74F-B858-6946-B767-CA721DD0DE12}" name="Postfix" dataDxfId="227"/>
+    <tableColumn id="11" xr3:uid="{ADBF929F-A437-7A42-B5EE-CA1C4C9D4880}" name="CALC" dataDxfId="226"/>
+    <tableColumn id="8" xr3:uid="{0BF9FD32-BE0B-AC4D-B2C3-0AE1CD340401}" name="Result" dataDxfId="225">
       <calculatedColumnFormula>Table9[[#This Row],[Prefix]] &amp; SUM(Table9[[#This Row],[Rank]:[Special]])*Table9[[#This Row],[Factor]] &amp; Table9[[#This Row],[Postfix]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0D1C4892-DA2B-BC49-8BD4-B5FF578B67AD}" name="XP" dataDxfId="222">
+    <tableColumn id="9" xr3:uid="{0D1C4892-DA2B-BC49-8BD4-B5FF578B67AD}" name="XP" dataDxfId="224">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table9[[#This Row],[Rank]],RANK_LOOKUP,2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6256,137 +6386,138 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AE27B7B0-F0E3-E243-8EFB-88A5ADED5F80}" name="Table12" displayName="Table12" ref="A2:V22" totalsRowCount="1" headerRowDxfId="172" dataDxfId="173">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AE27B7B0-F0E3-E243-8EFB-88A5ADED5F80}" name="Table12" displayName="Table12" ref="A2:V22" totalsRowCount="1" headerRowDxfId="174" dataDxfId="175">
   <autoFilter ref="A2:V21" xr:uid="{B162921F-791F-624A-81ED-6E2D19AD3439}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{D6AFC6F4-56C5-B94E-AAD7-C07A92ACC04B}" name="Location" totalsRowLabel="Total" dataDxfId="71" totalsRowDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{6EC0F666-8D61-D644-BCAC-A4117F1781F2}" name="Name" dataDxfId="70" totalsRowDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{FDC3F4BD-A2FD-6648-8EE1-D8B4F6108857}" name="Enabled" dataDxfId="69" totalsRowDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{6BD01D3C-E517-274F-87F1-974D9398BA72}" name="DMG" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="46">
+    <tableColumn id="1" xr3:uid="{D6AFC6F4-56C5-B94E-AAD7-C07A92ACC04B}" name="Location" totalsRowLabel="Total" dataDxfId="96" totalsRowDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{6EC0F666-8D61-D644-BCAC-A4117F1781F2}" name="Name" dataDxfId="95" totalsRowDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{FDC3F4BD-A2FD-6648-8EE1-D8B4F6108857}" name="Enabled" dataDxfId="94" totalsRowDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{6BD01D3C-E517-274F-87F1-974D9398BA72}" name="DMG" totalsRowFunction="custom" dataDxfId="93" totalsRowDxfId="71">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1E15D738-D79A-244C-851E-E57C038AF8E0}" name="Stamina" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="45">
+    <tableColumn id="5" xr3:uid="{1E15D738-D79A-244C-851E-E57C038AF8E0}" name="Stamina" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="70">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Stamina])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4356B910-7F96-084F-A9BD-24B81A1D65C2}" name="Crit" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="44">
+    <tableColumn id="6" xr3:uid="{4356B910-7F96-084F-A9BD-24B81A1D65C2}" name="Crit" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="69">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Stamina])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{34D53967-FE59-F548-9D59-EBF5A5FF3B80}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="43">
+    <tableColumn id="7" xr3:uid="{34D53967-FE59-F548-9D59-EBF5A5FF3B80}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="90" totalsRowDxfId="68">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Crit DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D37EF853-D2F7-214A-83D0-086F59F00DC8}" name="Splash" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="42">
+    <tableColumn id="8" xr3:uid="{D37EF853-D2F7-214A-83D0-086F59F00DC8}" name="Splash" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="67">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Splash])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5DE5E55B-8076-214A-88F0-165C9D5589AB}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="41">
+    <tableColumn id="9" xr3:uid="{5DE5E55B-8076-214A-88F0-165C9D5589AB}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="66">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Splash 
 DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1CB3B9C9-B073-D24E-A036-62CB1C097282}" name="Exprt." totalsRowFunction="custom" dataDxfId="62" totalsRowDxfId="40">
+    <tableColumn id="10" xr3:uid="{1CB3B9C9-B073-D24E-A036-62CB1C097282}" name="Exprt." totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="65">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Exprt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{80F0809C-2100-2247-9ADB-01576F8CA19B}" name="Mvmt." totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="39">
+    <tableColumn id="11" xr3:uid="{80F0809C-2100-2247-9ADB-01576F8CA19B}" name="Mvmt." totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="64">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Mvmt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{100B3365-5937-EA45-886B-E3DFD195C5B2}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="38">
+    <tableColumn id="12" xr3:uid="{100B3365-5937-EA45-886B-E3DFD195C5B2}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="63">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Extra 
 Attack])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{5594E278-21E8-A14C-ADBC-E8B9C800F93B}" name="Armor" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="37">
+    <tableColumn id="13" xr3:uid="{5594E278-21E8-A14C-ADBC-E8B9C800F93B}" name="Armor" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="62">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Armor])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{CB23327D-EFF8-A342-A9DE-65E1B7BC4BE3}" name="Aura" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="36">
+    <tableColumn id="14" xr3:uid="{CB23327D-EFF8-A342-A9DE-65E1B7BC4BE3}" name="Aura" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="61">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Aura])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B0438D6C-EBB6-7D45-9116-94CBEFB8D439}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="35">
+    <tableColumn id="15" xr3:uid="{B0438D6C-EBB6-7D45-9116-94CBEFB8D439}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="60">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Directed Strike])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{0C0196AE-E23B-644F-8625-5FFF406E7239}" name="INI" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="34">
+    <tableColumn id="16" xr3:uid="{0C0196AE-E23B-644F-8625-5FFF406E7239}" name="INI" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="59">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[INI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{0CE5E91F-F441-3541-ACBF-9B6E8F3D32BE}" name="STR" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="33">
+    <tableColumn id="17" xr3:uid="{0CE5E91F-F441-3541-ACBF-9B6E8F3D32BE}" name="STR" totalsRowFunction="custom" dataDxfId="80" totalsRowDxfId="58">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[STR])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{CE0B6C3F-7775-4E44-8CAD-EB5E7ED373D8}" name="AGI" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="32">
+    <tableColumn id="18" xr3:uid="{CE0B6C3F-7775-4E44-8CAD-EB5E7ED373D8}" name="AGI" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="57">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[AGI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{DD3C9C3F-31EB-7F48-83CE-9607AADE61CE}" name="INU" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="31">
+    <tableColumn id="19" xr3:uid="{DD3C9C3F-31EB-7F48-83CE-9607AADE61CE}" name="INU" totalsRowFunction="custom" dataDxfId="78" totalsRowDxfId="56">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[INU])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{93C1F38D-CC0D-9F4E-AFB2-B3B60FA2E230}" name="CHA" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="30">
+    <tableColumn id="20" xr3:uid="{93C1F38D-CC0D-9F4E-AFB2-B3B60FA2E230}" name="CHA" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="55">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[CHA])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{86EE74A2-267E-5244-ADE0-325523D5DAF0}" name="PER" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="29">
+    <tableColumn id="21" xr3:uid="{86EE74A2-267E-5244-ADE0-325523D5DAF0}" name="PER" totalsRowFunction="custom" dataDxfId="76" totalsRowDxfId="54">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[PER])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{DBC245A7-FD67-824A-B01B-CDA3F14F2832}" name="Description" dataDxfId="50" totalsRowDxfId="28"/>
+    <tableColumn id="23" xr3:uid="{DBC245A7-FD67-824A-B01B-CDA3F14F2832}" name="Description" dataDxfId="75" totalsRowDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{AF77A677-2D80-6443-A05D-655858194459}" name="Table1218" displayName="Table1218" ref="A2:W22" totalsRowCount="1" headerRowDxfId="134" dataDxfId="133">
-  <autoFilter ref="A2:W21" xr:uid="{B162921F-791F-624A-81ED-6E2D19AD3439}"/>
-  <tableColumns count="23">
-    <tableColumn id="2" xr3:uid="{E56D130D-99FD-2946-944B-A51CABD832AC}" name="Name" dataDxfId="132" totalsRowDxfId="109"/>
-    <tableColumn id="3" xr3:uid="{BC699B2A-E436-DD44-83B3-3C0AAF24FC76}" name="Enabled" dataDxfId="131" totalsRowDxfId="108"/>
-    <tableColumn id="24" xr3:uid="{8B9165EA-408B-0644-BD6C-7AF334F6ACD8}" name="#" dataDxfId="110" totalsRowDxfId="107"/>
-    <tableColumn id="23" xr3:uid="{ECE39BFF-43E4-2240-9FE3-1B3C6A2CD436}" name="Dice" dataDxfId="112" totalsRowDxfId="106"/>
-    <tableColumn id="22" xr3:uid="{E209AE0C-255B-2449-B26F-DEE2F0E8CF23}" name="Constant" dataDxfId="113" totalsRowDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{B47ADA7A-75BF-8845-B1F4-51CE35E67214}" name="DMG" totalsRowFunction="custom" dataDxfId="111" totalsRowDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{AF77A677-2D80-6443-A05D-655858194459}" name="Table1218" displayName="Table1218" ref="A2:X22" totalsRowCount="1" headerRowDxfId="136" dataDxfId="135">
+  <autoFilter ref="A2:X21" xr:uid="{B162921F-791F-624A-81ED-6E2D19AD3439}"/>
+  <tableColumns count="24">
+    <tableColumn id="2" xr3:uid="{E56D130D-99FD-2946-944B-A51CABD832AC}" name="Name" dataDxfId="134" totalsRowDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{BC699B2A-E436-DD44-83B3-3C0AAF24FC76}" name="Enabled" dataDxfId="133" totalsRowDxfId="22"/>
+    <tableColumn id="25" xr3:uid="{DE34C382-31A8-114A-B47A-484AE873AF1F}" name="Type" dataDxfId="24" totalsRowDxfId="21"/>
+    <tableColumn id="24" xr3:uid="{8B9165EA-408B-0644-BD6C-7AF334F6ACD8}" name="#" dataDxfId="112" totalsRowDxfId="20"/>
+    <tableColumn id="23" xr3:uid="{ECE39BFF-43E4-2240-9FE3-1B3C6A2CD436}" name="Dice" dataDxfId="114" totalsRowDxfId="19"/>
+    <tableColumn id="22" xr3:uid="{E209AE0C-255B-2449-B26F-DEE2F0E8CF23}" name="Constant" dataDxfId="115" totalsRowDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{B47ADA7A-75BF-8845-B1F4-51CE35E67214}" name="DMG" totalsRowFunction="custom" dataDxfId="113" totalsRowDxfId="17">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A56869D3-EF92-704B-9000-BD3D1B486A75}" name="Stamina" totalsRowFunction="custom" dataDxfId="130" totalsRowDxfId="103">
+    <tableColumn id="5" xr3:uid="{A56869D3-EF92-704B-9000-BD3D1B486A75}" name="Stamina" totalsRowFunction="custom" dataDxfId="132" totalsRowDxfId="16">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Stamina])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4399BDD2-0759-9445-AC6C-05B3B499C492}" name="Crit" totalsRowFunction="custom" dataDxfId="129" totalsRowDxfId="102">
+    <tableColumn id="6" xr3:uid="{4399BDD2-0759-9445-AC6C-05B3B499C492}" name="Crit" totalsRowFunction="custom" dataDxfId="131" totalsRowDxfId="15">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Stamina])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D6B38714-0E9C-D649-BFE5-49596BA9BF1C}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="128" totalsRowDxfId="101">
+    <tableColumn id="7" xr3:uid="{D6B38714-0E9C-D649-BFE5-49596BA9BF1C}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="130" totalsRowDxfId="14">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Crit DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9519CA17-112B-224B-952F-51AC027496F6}" name="Splash" totalsRowFunction="custom" dataDxfId="127" totalsRowDxfId="100">
+    <tableColumn id="8" xr3:uid="{9519CA17-112B-224B-952F-51AC027496F6}" name="Splash" totalsRowFunction="custom" dataDxfId="129" totalsRowDxfId="13">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Splash])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{429CA498-92FA-A74E-BC4B-6663D9D8CABA}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="126" totalsRowDxfId="99">
+    <tableColumn id="9" xr3:uid="{429CA498-92FA-A74E-BC4B-6663D9D8CABA}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="128" totalsRowDxfId="12">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Splash 
 DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{37D7FA16-18E2-6842-926B-EFE8BBF1B1DF}" name="Exprt." totalsRowFunction="custom" dataDxfId="125" totalsRowDxfId="98">
+    <tableColumn id="10" xr3:uid="{37D7FA16-18E2-6842-926B-EFE8BBF1B1DF}" name="Exprt." totalsRowFunction="custom" dataDxfId="127" totalsRowDxfId="11">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Exprt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{25A44E44-0A05-AC4D-8AB4-EE74A0BFFAED}" name="Mvmt." totalsRowFunction="custom" dataDxfId="124" totalsRowDxfId="97">
+    <tableColumn id="11" xr3:uid="{25A44E44-0A05-AC4D-8AB4-EE74A0BFFAED}" name="Mvmt." totalsRowFunction="custom" dataDxfId="126" totalsRowDxfId="10">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Mvmt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{9162589E-4452-B14F-84BF-BA8ADF153104}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="96">
+    <tableColumn id="12" xr3:uid="{9162589E-4452-B14F-84BF-BA8ADF153104}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="125" totalsRowDxfId="9">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Extra 
 Attack])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{76EB8C7B-5213-1A46-B243-DA8120143C97}" name="Armor" totalsRowFunction="custom" dataDxfId="122" totalsRowDxfId="95">
+    <tableColumn id="13" xr3:uid="{76EB8C7B-5213-1A46-B243-DA8120143C97}" name="Armor" totalsRowFunction="custom" dataDxfId="124" totalsRowDxfId="8">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Armor])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{7694EA49-563E-1E43-AAAE-55BA11A1C48C}" name="Aura" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="94">
+    <tableColumn id="14" xr3:uid="{7694EA49-563E-1E43-AAAE-55BA11A1C48C}" name="Aura" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="7">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Aura])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{8C961621-41FF-2948-9B22-39E0CDEE8A7E}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="120" totalsRowDxfId="93">
+    <tableColumn id="15" xr3:uid="{8C961621-41FF-2948-9B22-39E0CDEE8A7E}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="122" totalsRowDxfId="6">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Directed Strike])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{C1A5919F-5B4B-C442-8BBB-F57C37FB2FEE}" name="INI" totalsRowFunction="custom" dataDxfId="119" totalsRowDxfId="92">
+    <tableColumn id="16" xr3:uid="{C1A5919F-5B4B-C442-8BBB-F57C37FB2FEE}" name="INI" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="5">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[INI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{93F7A8DA-DC28-864F-8239-7E93AD5F7188}" name="STR" totalsRowFunction="custom" dataDxfId="118" totalsRowDxfId="91">
+    <tableColumn id="17" xr3:uid="{93F7A8DA-DC28-864F-8239-7E93AD5F7188}" name="STR" totalsRowFunction="custom" dataDxfId="120" totalsRowDxfId="4">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[STR])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{5E33A6F3-45E5-B14F-8A37-AE470CDA5006}" name="AGI" totalsRowFunction="custom" dataDxfId="117" totalsRowDxfId="90">
+    <tableColumn id="18" xr3:uid="{5E33A6F3-45E5-B14F-8A37-AE470CDA5006}" name="AGI" totalsRowFunction="custom" dataDxfId="119" totalsRowDxfId="3">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[AGI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{47674090-5365-2D4F-B2B6-FA5831CE6013}" name="INU" totalsRowFunction="custom" dataDxfId="116" totalsRowDxfId="89">
+    <tableColumn id="19" xr3:uid="{47674090-5365-2D4F-B2B6-FA5831CE6013}" name="INU" totalsRowFunction="custom" dataDxfId="118" totalsRowDxfId="2">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[INU])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{180A191A-7E92-F146-BDD6-AFE6A0673A36}" name="CHA" totalsRowFunction="custom" dataDxfId="115" totalsRowDxfId="88">
+    <tableColumn id="20" xr3:uid="{180A191A-7E92-F146-BDD6-AFE6A0673A36}" name="CHA" totalsRowFunction="custom" dataDxfId="117" totalsRowDxfId="1">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[CHA])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{66B45B9E-7117-9F4B-9D86-B2A72231074D}" name="PER" totalsRowFunction="custom" dataDxfId="114" totalsRowDxfId="87">
+    <tableColumn id="21" xr3:uid="{66B45B9E-7117-9F4B-9D86-B2A72231074D}" name="PER" totalsRowFunction="custom" dataDxfId="116" totalsRowDxfId="0">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[PER])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -6395,54 +6526,54 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2E8E73B-2220-B14A-B34D-B2A2D31C87D8}" name="Table79" displayName="Table79" ref="A1:R33" totalsRowShown="0" headerRowDxfId="195" dataDxfId="194">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2E8E73B-2220-B14A-B34D-B2A2D31C87D8}" name="Table79" displayName="Table79" ref="A1:R33" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196">
   <autoFilter ref="A1:R33" xr:uid="{9A133D1A-1408-9A4D-B1A8-016FBFDDF397}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{8A7DFF72-A39A-0242-878A-A43522EFE24F}" name="Name" dataDxfId="213"/>
-    <tableColumn id="2" xr3:uid="{1E867DD1-2259-0F42-8DE6-24E3B57FB023}" name="STR" dataDxfId="212"/>
-    <tableColumn id="3" xr3:uid="{8B62FCC6-44AF-3745-9B75-FB2CB998E35C}" name="AGI" dataDxfId="211"/>
-    <tableColumn id="4" xr3:uid="{A2E15CA6-9E2A-1344-A6EF-BEDA148248DE}" name="INU" dataDxfId="210"/>
-    <tableColumn id="18" xr3:uid="{403E2468-C5FB-E940-8CC9-FA9C085C6CA2}" name="CHA" dataDxfId="209"/>
-    <tableColumn id="5" xr3:uid="{6997B2AE-7002-964B-8C6B-EF465FAF82EA}" name="PER" dataDxfId="208"/>
-    <tableColumn id="6" xr3:uid="{052C7C9D-EB8C-4640-8FD3-30EDB4571A40}" name="HP Factor" dataDxfId="207"/>
-    <tableColumn id="7" xr3:uid="{CB645AD0-0F06-3B43-B1B3-E6D435FC9BBC}" name="XP" dataDxfId="206"/>
-    <tableColumn id="8" xr3:uid="{187B0803-25C6-8643-B93A-30A61D579311}" name="Column2" dataDxfId="205"/>
-    <tableColumn id="9" xr3:uid="{D5FA0FDA-C465-914B-9F10-275BED958455}" name="Column3" dataDxfId="204"/>
-    <tableColumn id="10" xr3:uid="{E91B6F4A-B437-F54C-B449-1103036C5B36}" name="Column4" dataDxfId="203"/>
-    <tableColumn id="11" xr3:uid="{916C933F-3F60-A640-86EB-CA547F95B9D7}" name="Column5" dataDxfId="202"/>
-    <tableColumn id="12" xr3:uid="{C2E89ECD-3CE6-DF4A-8BED-C99396B26E38}" name="Column6" dataDxfId="201"/>
-    <tableColumn id="13" xr3:uid="{584B2452-4E2B-914C-AEF2-657C6BD496DB}" name="Column7" dataDxfId="200"/>
-    <tableColumn id="14" xr3:uid="{ACFF4731-2977-724C-BEA0-BF0E750D4D37}" name="Column8" dataDxfId="199"/>
-    <tableColumn id="15" xr3:uid="{13FA1501-6896-C04C-AC18-9E866978A015}" name="Column9" dataDxfId="198"/>
-    <tableColumn id="16" xr3:uid="{8673696E-720C-DF47-836C-C07175E535C6}" name="Column10" dataDxfId="197"/>
-    <tableColumn id="17" xr3:uid="{2177733D-A9EC-574A-81A2-DCB7E8D34927}" name="Column11" dataDxfId="196"/>
+    <tableColumn id="1" xr3:uid="{8A7DFF72-A39A-0242-878A-A43522EFE24F}" name="Name" dataDxfId="215"/>
+    <tableColumn id="2" xr3:uid="{1E867DD1-2259-0F42-8DE6-24E3B57FB023}" name="STR" dataDxfId="214"/>
+    <tableColumn id="3" xr3:uid="{8B62FCC6-44AF-3745-9B75-FB2CB998E35C}" name="AGI" dataDxfId="213"/>
+    <tableColumn id="4" xr3:uid="{A2E15CA6-9E2A-1344-A6EF-BEDA148248DE}" name="INU" dataDxfId="212"/>
+    <tableColumn id="18" xr3:uid="{403E2468-C5FB-E940-8CC9-FA9C085C6CA2}" name="CHA" dataDxfId="211"/>
+    <tableColumn id="5" xr3:uid="{6997B2AE-7002-964B-8C6B-EF465FAF82EA}" name="PER" dataDxfId="210"/>
+    <tableColumn id="6" xr3:uid="{052C7C9D-EB8C-4640-8FD3-30EDB4571A40}" name="HP Factor" dataDxfId="209"/>
+    <tableColumn id="7" xr3:uid="{CB645AD0-0F06-3B43-B1B3-E6D435FC9BBC}" name="XP" dataDxfId="208"/>
+    <tableColumn id="8" xr3:uid="{187B0803-25C6-8643-B93A-30A61D579311}" name="Column2" dataDxfId="207"/>
+    <tableColumn id="9" xr3:uid="{D5FA0FDA-C465-914B-9F10-275BED958455}" name="Column3" dataDxfId="206"/>
+    <tableColumn id="10" xr3:uid="{E91B6F4A-B437-F54C-B449-1103036C5B36}" name="Column4" dataDxfId="205"/>
+    <tableColumn id="11" xr3:uid="{916C933F-3F60-A640-86EB-CA547F95B9D7}" name="Column5" dataDxfId="204"/>
+    <tableColumn id="12" xr3:uid="{C2E89ECD-3CE6-DF4A-8BED-C99396B26E38}" name="Column6" dataDxfId="203"/>
+    <tableColumn id="13" xr3:uid="{584B2452-4E2B-914C-AEF2-657C6BD496DB}" name="Column7" dataDxfId="202"/>
+    <tableColumn id="14" xr3:uid="{ACFF4731-2977-724C-BEA0-BF0E750D4D37}" name="Column8" dataDxfId="201"/>
+    <tableColumn id="15" xr3:uid="{13FA1501-6896-C04C-AC18-9E866978A015}" name="Column9" dataDxfId="200"/>
+    <tableColumn id="16" xr3:uid="{8673696E-720C-DF47-836C-C07175E535C6}" name="Column10" dataDxfId="199"/>
+    <tableColumn id="17" xr3:uid="{2177733D-A9EC-574A-81A2-DCB7E8D34927}" name="Column11" dataDxfId="198"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{172D7A85-ACEB-9F45-BDE6-0764A63BAFE0}" name="Table7" displayName="Table7" ref="A1:R58" totalsRowShown="0" headerRowDxfId="175" dataDxfId="174">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{172D7A85-ACEB-9F45-BDE6-0764A63BAFE0}" name="Table7" displayName="Table7" ref="A1:R58" totalsRowShown="0" headerRowDxfId="177" dataDxfId="176">
   <autoFilter ref="A1:R58" xr:uid="{BA70A05F-D1C9-EC47-8CA4-A9B304C93060}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{98665492-075C-D44B-8EDA-A52F37F4C96E}" name="Name" dataDxfId="193"/>
-    <tableColumn id="2" xr3:uid="{73639F93-F9BF-204E-AEC8-CAA30EB8D6B5}" name="STR" dataDxfId="192"/>
-    <tableColumn id="3" xr3:uid="{6B9E0521-C50E-264F-9593-C1F9E4D23715}" name="AGI" dataDxfId="191"/>
-    <tableColumn id="4" xr3:uid="{44939BD3-1FFC-3E45-994F-37661A933E0C}" name="INU" dataDxfId="190"/>
-    <tableColumn id="18" xr3:uid="{556D51F8-4C69-4644-B0FC-A64BD79C53F2}" name="CHA" dataDxfId="189"/>
-    <tableColumn id="5" xr3:uid="{5BFA8BB0-66CB-0546-8525-FCA528C6BD63}" name="PER" dataDxfId="188"/>
-    <tableColumn id="6" xr3:uid="{3512D05D-3A98-B245-A95E-F240DF5C3211}" name="HP Factor" dataDxfId="187"/>
-    <tableColumn id="7" xr3:uid="{D0765DA9-8712-204F-B9A9-1B49046E2AAD}" name="XP" dataDxfId="186"/>
-    <tableColumn id="8" xr3:uid="{597A7743-384F-C14E-BB6E-C23E1C6CE1CA}" name="Column2" dataDxfId="185"/>
-    <tableColumn id="9" xr3:uid="{60EC4EF6-1D62-7949-816C-66C151F7BFBA}" name="Column3" dataDxfId="184"/>
-    <tableColumn id="10" xr3:uid="{F0B18199-5A5B-414E-8450-522D2887E3DD}" name="Column4" dataDxfId="183"/>
-    <tableColumn id="11" xr3:uid="{5A39FD33-B251-5041-8B88-5B33BFD6B2FC}" name="Column5" dataDxfId="182"/>
-    <tableColumn id="12" xr3:uid="{CF21C245-91A7-BB49-9363-D365711ABDF3}" name="Column6" dataDxfId="181"/>
-    <tableColumn id="13" xr3:uid="{B44C18CE-6E00-724D-B4CD-609ADE475EB9}" name="Column7" dataDxfId="180"/>
-    <tableColumn id="14" xr3:uid="{901CE9F9-D8E2-2E46-9384-039CDF6A0ABF}" name="Column8" dataDxfId="179"/>
-    <tableColumn id="15" xr3:uid="{964E2ED5-56C5-014E-BF41-7C68744CD8FA}" name="Column9" dataDxfId="178"/>
-    <tableColumn id="16" xr3:uid="{BDC3BBC8-C722-A94E-89BC-53601B603859}" name="Column10" dataDxfId="177"/>
-    <tableColumn id="17" xr3:uid="{6085284D-3498-D640-B82F-39D5127439B9}" name="Column11" dataDxfId="176"/>
+    <tableColumn id="1" xr3:uid="{98665492-075C-D44B-8EDA-A52F37F4C96E}" name="Name" dataDxfId="195"/>
+    <tableColumn id="2" xr3:uid="{73639F93-F9BF-204E-AEC8-CAA30EB8D6B5}" name="STR" dataDxfId="194"/>
+    <tableColumn id="3" xr3:uid="{6B9E0521-C50E-264F-9593-C1F9E4D23715}" name="AGI" dataDxfId="193"/>
+    <tableColumn id="4" xr3:uid="{44939BD3-1FFC-3E45-994F-37661A933E0C}" name="INU" dataDxfId="192"/>
+    <tableColumn id="18" xr3:uid="{556D51F8-4C69-4644-B0FC-A64BD79C53F2}" name="CHA" dataDxfId="191"/>
+    <tableColumn id="5" xr3:uid="{5BFA8BB0-66CB-0546-8525-FCA528C6BD63}" name="PER" dataDxfId="190"/>
+    <tableColumn id="6" xr3:uid="{3512D05D-3A98-B245-A95E-F240DF5C3211}" name="HP Factor" dataDxfId="189"/>
+    <tableColumn id="7" xr3:uid="{D0765DA9-8712-204F-B9A9-1B49046E2AAD}" name="XP" dataDxfId="188"/>
+    <tableColumn id="8" xr3:uid="{597A7743-384F-C14E-BB6E-C23E1C6CE1CA}" name="Column2" dataDxfId="187"/>
+    <tableColumn id="9" xr3:uid="{60EC4EF6-1D62-7949-816C-66C151F7BFBA}" name="Column3" dataDxfId="186"/>
+    <tableColumn id="10" xr3:uid="{F0B18199-5A5B-414E-8450-522D2887E3DD}" name="Column4" dataDxfId="185"/>
+    <tableColumn id="11" xr3:uid="{5A39FD33-B251-5041-8B88-5B33BFD6B2FC}" name="Column5" dataDxfId="184"/>
+    <tableColumn id="12" xr3:uid="{CF21C245-91A7-BB49-9363-D365711ABDF3}" name="Column6" dataDxfId="183"/>
+    <tableColumn id="13" xr3:uid="{B44C18CE-6E00-724D-B4CD-609ADE475EB9}" name="Column7" dataDxfId="182"/>
+    <tableColumn id="14" xr3:uid="{901CE9F9-D8E2-2E46-9384-039CDF6A0ABF}" name="Column8" dataDxfId="181"/>
+    <tableColumn id="15" xr3:uid="{964E2ED5-56C5-014E-BF41-7C68744CD8FA}" name="Column9" dataDxfId="180"/>
+    <tableColumn id="16" xr3:uid="{BDC3BBC8-C722-A94E-89BC-53601B603859}" name="Column10" dataDxfId="179"/>
+    <tableColumn id="17" xr3:uid="{6085284D-3498-D640-B82F-39D5127439B9}" name="Column11" dataDxfId="178"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6746,10 +6877,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A4D850-7FA0-814F-8986-D549CD923602}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:AV291"/>
+  <dimension ref="B1:AW291"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:S41"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AN24" sqref="AN24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6759,8 +6890,8 @@
     <col min="161" max="16384" width="10.83203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:48" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:48" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="51" t="str">
         <f>CHARACTER_NAME</f>
         <v>Peter Pan</v>
@@ -6815,7 +6946,7 @@
       <c r="AU2" s="70"/>
       <c r="AV2" s="70"/>
     </row>
-    <row r="3" spans="2:48" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
       <c r="D3" s="51"/>
@@ -6855,7 +6986,7 @@
       <c r="AU3" s="70"/>
       <c r="AV3" s="70"/>
     </row>
-    <row r="4" spans="2:48" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
       <c r="D4" s="51"/>
@@ -6892,7 +7023,7 @@
       <c r="AU4" s="70"/>
       <c r="AV4" s="70"/>
     </row>
-    <row r="5" spans="2:48" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:49" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="39"/>
@@ -6921,7 +7052,7 @@
       <c r="AU5" s="71"/>
       <c r="AV5" s="71"/>
     </row>
-    <row r="6" spans="2:48" ht="10" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:49" ht="10" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="47" t="s">
         <v>30</v>
       </c>
@@ -6930,31 +7061,31 @@
       <c r="E6" s="49"/>
       <c r="F6" s="39"/>
       <c r="H6" s="61" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="63"/>
       <c r="M6" s="61" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N6" s="62"/>
       <c r="O6" s="62"/>
       <c r="P6" s="63"/>
       <c r="R6" s="61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S6" s="62"/>
       <c r="T6" s="62"/>
       <c r="U6" s="63"/>
       <c r="W6" s="61" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X6" s="62"/>
       <c r="Y6" s="62"/>
       <c r="Z6" s="63"/>
       <c r="AB6" s="61" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC6" s="62"/>
       <c r="AD6" s="62"/>
@@ -6981,7 +7112,7 @@
       <c r="AU6" s="55"/>
       <c r="AV6" s="55"/>
     </row>
-    <row r="7" spans="2:48" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="43">
         <f>STR</f>
         <v>1</v>
@@ -7041,7 +7172,7 @@
       <c r="AS7" s="37"/>
       <c r="AT7" s="37"/>
     </row>
-    <row r="8" spans="2:48" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="43"/>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
@@ -7083,7 +7214,7 @@
       <c r="AS8" s="37"/>
       <c r="AT8" s="37"/>
     </row>
-    <row r="9" spans="2:48" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:49" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="43"/>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
@@ -7125,7 +7256,7 @@
       <c r="AS9" s="37"/>
       <c r="AT9" s="37"/>
     </row>
-    <row r="10" spans="2:48" ht="10" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:49" ht="10" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="64"/>
       <c r="C10" s="66">
         <f>STR_TOTAL</f>
@@ -7155,7 +7286,7 @@
       <c r="AS10" s="37"/>
       <c r="AT10" s="37"/>
     </row>
-    <row r="11" spans="2:48" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="41"/>
       <c r="C11" s="68"/>
       <c r="D11" s="69"/>
@@ -7182,34 +7313,57 @@
       <c r="AS11" s="37"/>
       <c r="AT11" s="37"/>
     </row>
-    <row r="12" spans="2:48" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:49" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
-      <c r="Z12" s="36"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="37"/>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="37"/>
-      <c r="AM12" s="37"/>
-      <c r="AN12" s="37"/>
-      <c r="AO12" s="37"/>
-      <c r="AP12" s="37"/>
-      <c r="AQ12" s="37"/>
-      <c r="AR12" s="37"/>
-      <c r="AS12" s="37"/>
-      <c r="AT12" s="37"/>
-    </row>
-    <row r="13" spans="2:48" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="72"/>
+      <c r="AG12" s="72"/>
+      <c r="AH12" s="72"/>
+      <c r="AI12" s="72"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="72"/>
+      <c r="AL12" s="72"/>
+      <c r="AM12" s="72"/>
+      <c r="AN12" s="72"/>
+      <c r="AO12" s="72"/>
+      <c r="AP12" s="72"/>
+      <c r="AQ12" s="72"/>
+      <c r="AR12" s="72"/>
+      <c r="AS12" s="72"/>
+      <c r="AT12" s="72"/>
+      <c r="AU12" s="53"/>
+      <c r="AV12" s="53"/>
+      <c r="AW12" s="53"/>
+    </row>
+    <row r="13" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="47" t="s">
         <v>31</v>
       </c>
@@ -7217,26 +7371,51 @@
       <c r="D13" s="48"/>
       <c r="E13" s="49"/>
       <c r="F13" s="39"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="37"/>
-      <c r="AN13" s="37"/>
-      <c r="AO13" s="37"/>
-      <c r="AP13" s="37"/>
-      <c r="AQ13" s="37"/>
-      <c r="AR13" s="37"/>
-      <c r="AS13" s="37"/>
-      <c r="AT13" s="37"/>
-    </row>
-    <row r="14" spans="2:48" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="53"/>
+      <c r="H13" s="80" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,2,1)</f>
+        <v>Weapon Skill</v>
+      </c>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="73" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],2,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA13" s="90"/>
+      <c r="AB13" s="91"/>
+      <c r="AC13" s="53"/>
+      <c r="AN13" s="72"/>
+      <c r="AO13" s="72"/>
+      <c r="AP13" s="72"/>
+      <c r="AQ13" s="72"/>
+      <c r="AR13" s="72"/>
+      <c r="AS13" s="72"/>
+      <c r="AT13" s="72"/>
+      <c r="AU13" s="53"/>
+      <c r="AV13" s="53"/>
+      <c r="AW13" s="53"/>
+    </row>
+    <row r="14" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="43">
         <f>AGI</f>
         <v>1</v>
@@ -7245,130 +7424,151 @@
       <c r="D14" s="42"/>
       <c r="E14" s="44"/>
       <c r="F14" s="39"/>
-      <c r="J14" s="72" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,2,1)</f>
-        <v>Weapon Skill</v>
-      </c>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="74" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],2,11)</f>
+      <c r="G14" s="53"/>
+      <c r="H14" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,3,1)</f>
+        <v>Unarmed Skill</v>
+      </c>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],3,11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="37"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="37"/>
-      <c r="AM14" s="37"/>
-      <c r="AN14" s="37"/>
-      <c r="AO14" s="37"/>
-      <c r="AP14" s="37"/>
-      <c r="AQ14" s="37"/>
-      <c r="AR14" s="37"/>
-      <c r="AS14" s="37"/>
-      <c r="AT14" s="37"/>
-    </row>
-    <row r="15" spans="2:48" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA14" s="92"/>
+      <c r="AB14" s="93"/>
+      <c r="AC14" s="53"/>
+      <c r="AN14" s="72"/>
+      <c r="AO14" s="72"/>
+      <c r="AP14" s="72"/>
+      <c r="AQ14" s="72"/>
+      <c r="AR14" s="72"/>
+      <c r="AS14" s="72"/>
+      <c r="AT14" s="72"/>
+      <c r="AU14" s="53"/>
+      <c r="AV14" s="53"/>
+      <c r="AW14" s="53"/>
+    </row>
+    <row r="15" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="43"/>
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
       <c r="E15" s="44"/>
       <c r="F15" s="39"/>
-      <c r="J15" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,3,1)</f>
-        <v>Unarmed Skill</v>
-      </c>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],3,11)</f>
-        <v>1d10 + 0</v>
-      </c>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="37"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="37"/>
-      <c r="AQ15" s="37"/>
-      <c r="AR15" s="37"/>
-      <c r="AS15" s="37"/>
-      <c r="AT15" s="37"/>
-    </row>
-    <row r="16" spans="2:48" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="53"/>
+      <c r="H15" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,4,1)</f>
+        <v>Dodge</v>
+      </c>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],4,11)</f>
+        <v>1d10 + 1</v>
+      </c>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="75"/>
+      <c r="Z15" s="83">
+        <v>20</v>
+      </c>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="93"/>
+      <c r="AC15" s="53"/>
+      <c r="AN15" s="72"/>
+      <c r="AO15" s="72"/>
+      <c r="AP15" s="72"/>
+      <c r="AQ15" s="72"/>
+      <c r="AR15" s="72"/>
+      <c r="AS15" s="72"/>
+      <c r="AT15" s="72"/>
+      <c r="AU15" s="53"/>
+      <c r="AV15" s="53"/>
+      <c r="AW15" s="53"/>
+    </row>
+    <row r="16" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="43"/>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
       <c r="E16" s="44"/>
       <c r="F16" s="39"/>
-      <c r="J16" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,4,1)</f>
-        <v>Dodge</v>
-      </c>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],4,11)</f>
-        <v>1d10 + 1</v>
-      </c>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="37"/>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="37"/>
-      <c r="AM16" s="37"/>
-      <c r="AN16" s="37"/>
-      <c r="AO16" s="37"/>
-      <c r="AP16" s="37"/>
-      <c r="AQ16" s="37"/>
-      <c r="AR16" s="37"/>
-      <c r="AS16" s="37"/>
-      <c r="AT16" s="37"/>
-    </row>
-    <row r="17" spans="2:46" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="53"/>
+      <c r="H16" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,5,1)</f>
+        <v>Ballistic Skill</v>
+      </c>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],5,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="75"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="53"/>
+      <c r="AN16" s="72"/>
+      <c r="AO16" s="72"/>
+      <c r="AP16" s="72"/>
+      <c r="AQ16" s="72"/>
+      <c r="AR16" s="72"/>
+      <c r="AS16" s="72"/>
+      <c r="AT16" s="72"/>
+      <c r="AU16" s="53"/>
+      <c r="AV16" s="53"/>
+      <c r="AW16" s="53"/>
+    </row>
+    <row r="17" spans="2:49" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="45"/>
       <c r="C17" s="66">
         <f>AGI_TOTAL</f>
@@ -7377,136 +7577,151 @@
       <c r="D17" s="67"/>
       <c r="E17" s="46"/>
       <c r="F17" s="39"/>
-      <c r="J17" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,5,1)</f>
-        <v>Ballistic Skill</v>
-      </c>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],5,11)</f>
+      <c r="G17" s="53"/>
+      <c r="H17" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,6,1)</f>
+        <v>Tactics</v>
+      </c>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],6,11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="Z17" s="36"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="37"/>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="37"/>
-      <c r="AK17" s="37"/>
-      <c r="AL17" s="37"/>
-      <c r="AM17" s="37"/>
-      <c r="AN17" s="37"/>
-      <c r="AO17" s="37"/>
-      <c r="AP17" s="37"/>
-      <c r="AQ17" s="37"/>
-      <c r="AR17" s="37"/>
-      <c r="AS17" s="37"/>
-      <c r="AT17" s="37"/>
-    </row>
-    <row r="18" spans="2:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="T17" s="75"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="75"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="75"/>
+      <c r="Y17" s="75"/>
+      <c r="Z17" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA17" s="92"/>
+      <c r="AB17" s="93"/>
+      <c r="AC17" s="53"/>
+      <c r="AN17" s="72"/>
+      <c r="AO17" s="72"/>
+      <c r="AP17" s="72"/>
+      <c r="AQ17" s="72"/>
+      <c r="AR17" s="72"/>
+      <c r="AS17" s="72"/>
+      <c r="AT17" s="72"/>
+      <c r="AU17" s="53"/>
+      <c r="AV17" s="53"/>
+      <c r="AW17" s="53"/>
+    </row>
+    <row r="18" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="41"/>
       <c r="C18" s="68"/>
       <c r="D18" s="69"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
-      <c r="J18" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,6,1)</f>
-        <v>Tactics</v>
-      </c>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],6,11)</f>
+      <c r="G18" s="53"/>
+      <c r="H18" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,7,1)</f>
+        <v>Acrobatics</v>
+      </c>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],7,11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
-      <c r="Z18" s="36"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="37"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="37"/>
-      <c r="AM18" s="37"/>
-      <c r="AN18" s="37"/>
-      <c r="AO18" s="37"/>
-      <c r="AP18" s="37"/>
-      <c r="AQ18" s="37"/>
-      <c r="AR18" s="37"/>
-      <c r="AS18" s="37"/>
-      <c r="AT18" s="37"/>
-    </row>
-    <row r="19" spans="2:46" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="75"/>
+      <c r="X18" s="75"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA18" s="92"/>
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="53"/>
+      <c r="AN18" s="72"/>
+      <c r="AO18" s="72"/>
+      <c r="AP18" s="72"/>
+      <c r="AQ18" s="72"/>
+      <c r="AR18" s="72"/>
+      <c r="AS18" s="72"/>
+      <c r="AT18" s="72"/>
+      <c r="AU18" s="53"/>
+      <c r="AV18" s="53"/>
+      <c r="AW18" s="53"/>
+    </row>
+    <row r="19" spans="2:49" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
-      <c r="J19" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,7,1)</f>
-        <v>Acrobatics</v>
-      </c>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],7,11)</f>
+      <c r="G19" s="53"/>
+      <c r="H19" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,8,1)</f>
+        <v>Magic Skill</v>
+      </c>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],8,11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="Z19" s="36"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="37"/>
-      <c r="AF19" s="37"/>
-      <c r="AG19" s="37"/>
-      <c r="AH19" s="37"/>
-      <c r="AI19" s="37"/>
-      <c r="AJ19" s="37"/>
-      <c r="AK19" s="37"/>
-      <c r="AL19" s="37"/>
-      <c r="AM19" s="37"/>
-      <c r="AN19" s="37"/>
-      <c r="AO19" s="37"/>
-      <c r="AP19" s="37"/>
-      <c r="AQ19" s="37"/>
-      <c r="AR19" s="37"/>
-      <c r="AS19" s="37"/>
-      <c r="AT19" s="37"/>
-    </row>
-    <row r="20" spans="2:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="T19" s="75"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="75"/>
+      <c r="W19" s="75"/>
+      <c r="X19" s="75"/>
+      <c r="Y19" s="75"/>
+      <c r="Z19" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA19" s="92"/>
+      <c r="AB19" s="93"/>
+      <c r="AC19" s="53"/>
+      <c r="AN19" s="72"/>
+      <c r="AO19" s="72"/>
+      <c r="AP19" s="72"/>
+      <c r="AQ19" s="72"/>
+      <c r="AR19" s="72"/>
+      <c r="AS19" s="72"/>
+      <c r="AT19" s="72"/>
+      <c r="AU19" s="53"/>
+      <c r="AV19" s="53"/>
+      <c r="AW19" s="53"/>
+    </row>
+    <row r="20" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="47" t="s">
         <v>32</v>
       </c>
@@ -7514,46 +7729,51 @@
       <c r="D20" s="48"/>
       <c r="E20" s="49"/>
       <c r="F20" s="39"/>
-      <c r="J20" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,8,1)</f>
-        <v>Magic Skill</v>
-      </c>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],8,11)</f>
+      <c r="G20" s="53"/>
+      <c r="H20" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,9,1)</f>
+        <v>Arcane Lore</v>
+      </c>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],9,11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
-      <c r="Z20" s="36"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="37"/>
-      <c r="AI20" s="37"/>
-      <c r="AJ20" s="37"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="37"/>
-      <c r="AM20" s="37"/>
-      <c r="AN20" s="37"/>
-      <c r="AO20" s="37"/>
-      <c r="AP20" s="37"/>
-      <c r="AQ20" s="37"/>
-      <c r="AR20" s="37"/>
-      <c r="AS20" s="37"/>
-      <c r="AT20" s="37"/>
-    </row>
-    <row r="21" spans="2:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA20" s="92"/>
+      <c r="AB20" s="93"/>
+      <c r="AC20" s="53"/>
+      <c r="AN20" s="72"/>
+      <c r="AO20" s="72"/>
+      <c r="AP20" s="72"/>
+      <c r="AQ20" s="72"/>
+      <c r="AR20" s="72"/>
+      <c r="AS20" s="72"/>
+      <c r="AT20" s="72"/>
+      <c r="AU20" s="53"/>
+      <c r="AV20" s="53"/>
+      <c r="AW20" s="53"/>
+    </row>
+    <row r="21" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="43">
         <f>INU</f>
         <v>1</v>
@@ -7562,116 +7782,161 @@
       <c r="D21" s="42"/>
       <c r="E21" s="44"/>
       <c r="F21" s="39"/>
-      <c r="J21" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,9,1)</f>
-        <v>Arcane Lore</v>
-      </c>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],9,11)</f>
+      <c r="G21" s="53"/>
+      <c r="H21" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,10,1)</f>
+        <v>Religious Magic</v>
+      </c>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],10,11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="Z21" s="36"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="37"/>
-      <c r="AI21" s="37"/>
-      <c r="AJ21" s="37"/>
-      <c r="AK21" s="37"/>
-      <c r="AL21" s="37"/>
-      <c r="AM21" s="37"/>
-      <c r="AN21" s="37"/>
-      <c r="AO21" s="37"/>
-      <c r="AP21" s="37"/>
-      <c r="AQ21" s="37"/>
-      <c r="AR21" s="37"/>
-      <c r="AS21" s="37"/>
-      <c r="AT21" s="37"/>
-    </row>
-    <row r="22" spans="2:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA21" s="92"/>
+      <c r="AB21" s="93"/>
+      <c r="AC21" s="53"/>
+      <c r="AN21" s="72"/>
+      <c r="AO21" s="72"/>
+      <c r="AP21" s="72"/>
+      <c r="AQ21" s="72"/>
+      <c r="AR21" s="72"/>
+      <c r="AS21" s="72"/>
+      <c r="AT21" s="72"/>
+      <c r="AU21" s="53"/>
+      <c r="AV21" s="53"/>
+      <c r="AW21" s="53"/>
+    </row>
+    <row r="22" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="43"/>
       <c r="C22" s="42"/>
       <c r="D22" s="42"/>
       <c r="E22" s="44"/>
       <c r="F22" s="39"/>
-      <c r="J22" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,10,1)</f>
-        <v>Religious Magic</v>
-      </c>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],10,11)</f>
+      <c r="G22" s="53"/>
+      <c r="H22" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,11,1)</f>
+        <v>Religion</v>
+      </c>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],11,11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="Z22" s="36"/>
-      <c r="AB22" s="37"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="37"/>
-      <c r="AE22" s="37"/>
-      <c r="AF22" s="37"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="37"/>
-      <c r="AI22" s="37"/>
-      <c r="AJ22" s="37"/>
-      <c r="AK22" s="37"/>
-      <c r="AL22" s="37"/>
-      <c r="AM22" s="37"/>
-      <c r="AN22" s="37"/>
-      <c r="AO22" s="37"/>
-      <c r="AP22" s="37"/>
-      <c r="AQ22" s="37"/>
-      <c r="AR22" s="37"/>
-      <c r="AS22" s="37"/>
-      <c r="AT22" s="37"/>
-    </row>
-    <row r="23" spans="2:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="83" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA22" s="92"/>
+      <c r="AB22" s="93"/>
+      <c r="AC22" s="53"/>
+      <c r="AN22" s="72"/>
+      <c r="AO22" s="72"/>
+      <c r="AP22" s="72"/>
+      <c r="AQ22" s="72"/>
+      <c r="AR22" s="72"/>
+      <c r="AS22" s="72"/>
+      <c r="AT22" s="72"/>
+      <c r="AU22" s="53"/>
+      <c r="AV22" s="53"/>
+      <c r="AW22" s="53"/>
+    </row>
+    <row r="23" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="43"/>
       <c r="C23" s="42"/>
       <c r="D23" s="42"/>
       <c r="E23" s="44"/>
       <c r="F23" s="39"/>
-      <c r="J23" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,11,1)</f>
-        <v>Religion</v>
-      </c>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],11,11)</f>
+      <c r="G23" s="53"/>
+      <c r="H23" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,12,1)</f>
+        <v>History</v>
+      </c>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],12,11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-    </row>
-    <row r="24" spans="2:46" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA23" s="75"/>
+      <c r="AB23" s="76"/>
+      <c r="AC23" s="53"/>
+      <c r="AD23" s="53"/>
+      <c r="AE23" s="53"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="53"/>
+      <c r="AJ23" s="53"/>
+      <c r="AK23" s="53"/>
+      <c r="AL23" s="53"/>
+      <c r="AM23" s="53"/>
+      <c r="AN23" s="53"/>
+      <c r="AO23" s="53"/>
+      <c r="AP23" s="53"/>
+      <c r="AQ23" s="53"/>
+      <c r="AR23" s="53"/>
+      <c r="AS23" s="53"/>
+      <c r="AT23" s="53"/>
+      <c r="AU23" s="53"/>
+      <c r="AV23" s="53"/>
+      <c r="AW23" s="53"/>
+    </row>
+    <row r="24" spans="2:49" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="45"/>
       <c r="C24" s="66">
         <f>INU_TOTAL</f>
@@ -7680,76 +7945,177 @@
       <c r="D24" s="67"/>
       <c r="E24" s="46"/>
       <c r="F24" s="39"/>
-      <c r="J24" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,12,1)</f>
-        <v>History</v>
-      </c>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],12,11)</f>
+      <c r="G24" s="53"/>
+      <c r="H24" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,13,1)</f>
+        <v>Animal Handler</v>
+      </c>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],13,11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="Q24" s="78"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-    </row>
-    <row r="25" spans="2:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="75"/>
+      <c r="AB24" s="76"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="53"/>
+      <c r="AF24" s="53"/>
+      <c r="AG24" s="53"/>
+      <c r="AH24" s="53"/>
+      <c r="AI24" s="53"/>
+      <c r="AJ24" s="53"/>
+      <c r="AK24" s="53"/>
+      <c r="AL24" s="53"/>
+      <c r="AM24" s="53"/>
+      <c r="AN24" s="53"/>
+      <c r="AO24" s="53"/>
+      <c r="AP24" s="53"/>
+      <c r="AQ24" s="53"/>
+      <c r="AR24" s="53"/>
+      <c r="AS24" s="53"/>
+      <c r="AT24" s="53"/>
+      <c r="AU24" s="53"/>
+      <c r="AV24" s="53"/>
+      <c r="AW24" s="53"/>
+    </row>
+    <row r="25" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="41"/>
       <c r="C25" s="68"/>
       <c r="D25" s="69"/>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
-      <c r="J25" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,13,1)</f>
-        <v>Animal Handler</v>
-      </c>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],13,11)</f>
+      <c r="G25" s="53"/>
+      <c r="H25" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,14,1)</f>
+        <v>Insight</v>
+      </c>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],14,11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="78"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-    </row>
-    <row r="26" spans="2:46" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="88" t="s">
+        <v>160</v>
+      </c>
+      <c r="T25" s="75"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="75"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="75"/>
+      <c r="Y25" s="75"/>
+      <c r="Z25" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA25" s="75"/>
+      <c r="AB25" s="76"/>
+      <c r="AC25" s="53"/>
+      <c r="AD25" s="53"/>
+      <c r="AE25" s="53"/>
+      <c r="AF25" s="53"/>
+      <c r="AG25" s="53"/>
+      <c r="AH25" s="53"/>
+      <c r="AI25" s="53"/>
+      <c r="AJ25" s="53"/>
+      <c r="AK25" s="53"/>
+      <c r="AL25" s="53"/>
+      <c r="AM25" s="53"/>
+      <c r="AN25" s="53"/>
+      <c r="AO25" s="53"/>
+      <c r="AP25" s="53"/>
+      <c r="AQ25" s="53"/>
+      <c r="AR25" s="53"/>
+      <c r="AS25" s="53"/>
+      <c r="AT25" s="53"/>
+      <c r="AU25" s="53"/>
+      <c r="AV25" s="53"/>
+      <c r="AW25" s="53"/>
+    </row>
+    <row r="26" spans="2:49" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
-      <c r="J26" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,14,1)</f>
-        <v>Insight</v>
-      </c>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],14,11)</f>
+      <c r="G26" s="53"/>
+      <c r="H26" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,15,1)</f>
+        <v>Slight of Hand</v>
+      </c>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],15,11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-    </row>
-    <row r="27" spans="2:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="89"/>
+      <c r="AC26" s="53"/>
+      <c r="AD26" s="53"/>
+      <c r="AE26" s="53"/>
+      <c r="AF26" s="53"/>
+      <c r="AG26" s="53"/>
+      <c r="AH26" s="53"/>
+      <c r="AI26" s="53"/>
+      <c r="AJ26" s="53"/>
+      <c r="AK26" s="53"/>
+      <c r="AL26" s="53"/>
+      <c r="AM26" s="53"/>
+      <c r="AN26" s="53"/>
+      <c r="AO26" s="53"/>
+      <c r="AP26" s="53"/>
+      <c r="AQ26" s="53"/>
+      <c r="AR26" s="53"/>
+      <c r="AS26" s="53"/>
+      <c r="AT26" s="53"/>
+      <c r="AU26" s="53"/>
+      <c r="AV26" s="53"/>
+      <c r="AW26" s="53"/>
+    </row>
+    <row r="27" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="47" t="s">
         <v>54</v>
       </c>
@@ -7757,26 +8123,57 @@
       <c r="D27" s="48"/>
       <c r="E27" s="49"/>
       <c r="F27" s="39"/>
-      <c r="J27" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,15,1)</f>
-        <v>Slight of Hand</v>
-      </c>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],15,11)</f>
+      <c r="G27" s="53"/>
+      <c r="H27" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,16,1)</f>
+        <v>Deception</v>
+      </c>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],16,11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-    </row>
-    <row r="28" spans="2:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="100"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="75"/>
+      <c r="Y27" s="75"/>
+      <c r="Z27" s="75"/>
+      <c r="AA27" s="75"/>
+      <c r="AB27" s="76"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="53"/>
+      <c r="AF27" s="53"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
+      <c r="AI27" s="53"/>
+      <c r="AJ27" s="53"/>
+      <c r="AK27" s="53"/>
+      <c r="AL27" s="53"/>
+      <c r="AM27" s="53"/>
+      <c r="AN27" s="53"/>
+      <c r="AO27" s="53"/>
+      <c r="AP27" s="53"/>
+      <c r="AQ27" s="53"/>
+      <c r="AR27" s="53"/>
+      <c r="AS27" s="53"/>
+      <c r="AT27" s="53"/>
+      <c r="AU27" s="53"/>
+      <c r="AV27" s="53"/>
+      <c r="AW27" s="53"/>
+    </row>
+    <row r="28" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="43">
         <f>CHA</f>
         <v>1</v>
@@ -7785,74 +8182,175 @@
       <c r="D28" s="42"/>
       <c r="E28" s="44"/>
       <c r="F28" s="39"/>
-      <c r="J28" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,16,1)</f>
-        <v>Deception</v>
-      </c>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],16,11)</f>
+      <c r="G28" s="53"/>
+      <c r="H28" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,17,1)</f>
+        <v>Charm</v>
+      </c>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],17,11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="Q28" s="78"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-    </row>
-    <row r="29" spans="2:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="78"/>
+      <c r="AB28" s="79"/>
+      <c r="AC28" s="53"/>
+      <c r="AD28" s="53"/>
+      <c r="AE28" s="53"/>
+      <c r="AF28" s="53"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="53"/>
+      <c r="AJ28" s="53"/>
+      <c r="AK28" s="53"/>
+      <c r="AL28" s="53"/>
+      <c r="AM28" s="53"/>
+      <c r="AN28" s="53"/>
+      <c r="AO28" s="53"/>
+      <c r="AP28" s="53"/>
+      <c r="AQ28" s="53"/>
+      <c r="AR28" s="53"/>
+      <c r="AS28" s="53"/>
+      <c r="AT28" s="53"/>
+      <c r="AU28" s="53"/>
+      <c r="AV28" s="53"/>
+      <c r="AW28" s="53"/>
+    </row>
+    <row r="29" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="43"/>
       <c r="C29" s="42"/>
       <c r="D29" s="42"/>
       <c r="E29" s="44"/>
-      <c r="J29" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,17,1)</f>
-        <v>Charm</v>
-      </c>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],17,11)</f>
+      <c r="G29" s="53"/>
+      <c r="H29" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,18,1)</f>
+        <v>Interrogate</v>
+      </c>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],18,11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="79"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
       <c r="T29" s="53"/>
       <c r="U29" s="53"/>
-    </row>
-    <row r="30" spans="2:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="53"/>
+      <c r="AD29" s="53"/>
+      <c r="AE29" s="53"/>
+      <c r="AF29" s="53"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="53"/>
+      <c r="AJ29" s="53"/>
+      <c r="AK29" s="53"/>
+      <c r="AL29" s="53"/>
+      <c r="AM29" s="53"/>
+      <c r="AN29" s="53"/>
+      <c r="AO29" s="53"/>
+      <c r="AP29" s="53"/>
+      <c r="AQ29" s="53"/>
+      <c r="AR29" s="53"/>
+      <c r="AS29" s="53"/>
+      <c r="AT29" s="53"/>
+      <c r="AU29" s="53"/>
+      <c r="AV29" s="53"/>
+      <c r="AW29" s="53"/>
+    </row>
+    <row r="30" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="43"/>
       <c r="C30" s="42"/>
       <c r="D30" s="42"/>
       <c r="E30" s="44"/>
-      <c r="J30" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,18,1)</f>
-        <v>Interrogate</v>
-      </c>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],18,11)</f>
+      <c r="G30" s="53"/>
+      <c r="H30" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,19,1)</f>
+        <v>Torture</v>
+      </c>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],19,11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-    </row>
-    <row r="31" spans="2:46" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="76"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="90"/>
+      <c r="W30" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="X30" s="90"/>
+      <c r="Y30" s="96" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z30" s="90"/>
+      <c r="AA30" s="90"/>
+      <c r="AB30" s="91"/>
+      <c r="AC30" s="53"/>
+      <c r="AD30" s="53"/>
+      <c r="AE30" s="53"/>
+      <c r="AF30" s="53"/>
+      <c r="AG30" s="53"/>
+      <c r="AH30" s="53"/>
+      <c r="AI30" s="53"/>
+      <c r="AJ30" s="53"/>
+      <c r="AK30" s="53"/>
+      <c r="AL30" s="53"/>
+      <c r="AM30" s="53"/>
+      <c r="AN30" s="53"/>
+      <c r="AO30" s="53"/>
+      <c r="AP30" s="53"/>
+      <c r="AQ30" s="53"/>
+      <c r="AR30" s="53"/>
+      <c r="AS30" s="53"/>
+      <c r="AT30" s="53"/>
+      <c r="AU30" s="53"/>
+      <c r="AV30" s="53"/>
+      <c r="AW30" s="53"/>
+    </row>
+    <row r="31" spans="2:49" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B31" s="45"/>
       <c r="C31" s="66">
         <f>CHA_TOTAL</f>
@@ -7860,96 +8358,244 @@
       </c>
       <c r="D31" s="67"/>
       <c r="E31" s="46"/>
-      <c r="J31" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,19,1)</f>
-        <v>Torture</v>
-      </c>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],19,11)</f>
+      <c r="G31" s="53"/>
+      <c r="H31" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,20,1)</f>
+        <v>Inspire</v>
+      </c>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],20,11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-    </row>
-    <row r="32" spans="2:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="76"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="88" t="s">
+        <v>178</v>
+      </c>
+      <c r="T31" s="92"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="92"/>
+      <c r="W31" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="X31" s="92"/>
+      <c r="Y31" s="98" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z31" s="92"/>
+      <c r="AA31" s="92"/>
+      <c r="AB31" s="93"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="53"/>
+      <c r="AJ31" s="53"/>
+      <c r="AK31" s="53"/>
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="53"/>
+      <c r="AN31" s="53"/>
+      <c r="AO31" s="53"/>
+      <c r="AP31" s="53"/>
+      <c r="AQ31" s="53"/>
+      <c r="AR31" s="53"/>
+      <c r="AS31" s="53"/>
+      <c r="AT31" s="53"/>
+      <c r="AU31" s="53"/>
+      <c r="AV31" s="53"/>
+      <c r="AW31" s="53"/>
+    </row>
+    <row r="32" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="41"/>
       <c r="C32" s="68"/>
       <c r="D32" s="69"/>
       <c r="E32" s="39"/>
-      <c r="J32" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,20,1)</f>
-        <v>Inspire</v>
-      </c>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],20,11)</f>
-        <v>1d10 + 0</v>
-      </c>
-      <c r="Q32" s="78"/>
-      <c r="R32" s="78"/>
-      <c r="S32" s="79"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-    </row>
-    <row r="33" spans="2:21" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J33" s="76" t="str">
+      <c r="G32" s="53"/>
+      <c r="H32" s="82" t="str">
         <f>INDEX(Skills!$A$1:$K$34,21,1)</f>
         <v>Stealth</v>
       </c>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="78" t="str">
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="75" t="str">
         <f>INDEX(Table2[[#Headers],[#Data]],21,11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="Q33" s="78"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="79"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-    </row>
-    <row r="34" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="88" t="s">
+        <v>173</v>
+      </c>
+      <c r="T32" s="92"/>
+      <c r="U32" s="92"/>
+      <c r="V32" s="92"/>
+      <c r="W32" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="X32" s="92"/>
+      <c r="Y32" s="98" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z32" s="92"/>
+      <c r="AA32" s="92"/>
+      <c r="AB32" s="93"/>
+      <c r="AC32" s="53"/>
+      <c r="AD32" s="53"/>
+      <c r="AE32" s="53"/>
+      <c r="AF32" s="53"/>
+      <c r="AG32" s="53"/>
+      <c r="AH32" s="53"/>
+      <c r="AI32" s="53"/>
+      <c r="AJ32" s="53"/>
+      <c r="AK32" s="53"/>
+      <c r="AL32" s="53"/>
+      <c r="AM32" s="53"/>
+      <c r="AN32" s="53"/>
+      <c r="AO32" s="53"/>
+      <c r="AP32" s="53"/>
+      <c r="AQ32" s="53"/>
+      <c r="AR32" s="53"/>
+      <c r="AS32" s="53"/>
+      <c r="AT32" s="53"/>
+      <c r="AU32" s="53"/>
+      <c r="AV32" s="53"/>
+      <c r="AW32" s="53"/>
+    </row>
+    <row r="33" spans="2:49" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="53"/>
+      <c r="H33" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,22,1)</f>
+        <v>Guard</v>
+      </c>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="83"/>
+      <c r="M33" s="83"/>
+      <c r="N33" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],22,11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="T33" s="92"/>
+      <c r="U33" s="92"/>
+      <c r="V33" s="92"/>
+      <c r="W33" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="X33" s="92"/>
+      <c r="Y33" s="98" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z33" s="92"/>
+      <c r="AA33" s="92"/>
+      <c r="AB33" s="93"/>
+      <c r="AC33" s="53"/>
+      <c r="AD33" s="53"/>
+      <c r="AE33" s="53"/>
+      <c r="AF33" s="53"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="53"/>
+      <c r="AJ33" s="53"/>
+      <c r="AK33" s="53"/>
+      <c r="AL33" s="53"/>
+      <c r="AM33" s="53"/>
+      <c r="AN33" s="53"/>
+      <c r="AO33" s="53"/>
+      <c r="AP33" s="53"/>
+      <c r="AQ33" s="53"/>
+      <c r="AR33" s="53"/>
+      <c r="AS33" s="53"/>
+      <c r="AT33" s="53"/>
+      <c r="AU33" s="53"/>
+      <c r="AV33" s="53"/>
+      <c r="AW33" s="53"/>
+    </row>
+    <row r="34" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="47" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="48"/>
       <c r="D34" s="48"/>
       <c r="E34" s="49"/>
-      <c r="J34" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,22,1)</f>
-        <v>Guard</v>
-      </c>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],22,11)</f>
+      <c r="G34" s="53"/>
+      <c r="H34" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,23,1)</f>
+        <v>Law</v>
+      </c>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],23,11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="Q34" s="78"/>
-      <c r="R34" s="78"/>
-      <c r="S34" s="79"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
-    </row>
-    <row r="35" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="88" t="s">
+        <v>174</v>
+      </c>
+      <c r="T34" s="92"/>
+      <c r="U34" s="92"/>
+      <c r="V34" s="92"/>
+      <c r="W34" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="X34" s="92"/>
+      <c r="Y34" s="98" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z34" s="92"/>
+      <c r="AA34" s="92"/>
+      <c r="AB34" s="93"/>
+      <c r="AC34" s="53"/>
+      <c r="AD34" s="53"/>
+      <c r="AE34" s="53"/>
+      <c r="AF34" s="53"/>
+      <c r="AG34" s="53"/>
+      <c r="AH34" s="53"/>
+      <c r="AI34" s="53"/>
+      <c r="AJ34" s="53"/>
+      <c r="AK34" s="53"/>
+      <c r="AL34" s="53"/>
+      <c r="AM34" s="53"/>
+      <c r="AN34" s="53"/>
+      <c r="AO34" s="53"/>
+      <c r="AP34" s="53"/>
+      <c r="AQ34" s="53"/>
+      <c r="AR34" s="53"/>
+      <c r="AS34" s="53"/>
+      <c r="AT34" s="53"/>
+      <c r="AU34" s="53"/>
+      <c r="AV34" s="53"/>
+      <c r="AW34" s="53"/>
+    </row>
+    <row r="35" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="43">
         <f>PER</f>
         <v>1</v>
@@ -7957,74 +8603,185 @@
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
       <c r="E35" s="44"/>
-      <c r="J35" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,23,1)</f>
-        <v>Law</v>
-      </c>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],23,11)</f>
+      <c r="G35" s="53"/>
+      <c r="H35" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,24,1)</f>
+        <v>Culture</v>
+      </c>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="83"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],24,11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="Q35" s="78"/>
-      <c r="R35" s="78"/>
-      <c r="S35" s="79"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="53"/>
-    </row>
-    <row r="36" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="75"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="88" t="s">
+        <v>175</v>
+      </c>
+      <c r="T35" s="92"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+      <c r="W35" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="X35" s="92"/>
+      <c r="Y35" s="98" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z35" s="92"/>
+      <c r="AA35" s="92"/>
+      <c r="AB35" s="93"/>
+      <c r="AC35" s="53"/>
+      <c r="AD35" s="53"/>
+      <c r="AE35" s="53"/>
+      <c r="AF35" s="53"/>
+      <c r="AG35" s="53"/>
+      <c r="AH35" s="53"/>
+      <c r="AI35" s="53"/>
+      <c r="AJ35" s="53"/>
+      <c r="AK35" s="53"/>
+      <c r="AL35" s="53"/>
+      <c r="AM35" s="53"/>
+      <c r="AN35" s="53"/>
+      <c r="AO35" s="53"/>
+      <c r="AP35" s="53"/>
+      <c r="AQ35" s="53"/>
+      <c r="AR35" s="53"/>
+      <c r="AS35" s="53"/>
+      <c r="AT35" s="53"/>
+      <c r="AU35" s="53"/>
+      <c r="AV35" s="53"/>
+      <c r="AW35" s="53"/>
+    </row>
+    <row r="36" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="43"/>
       <c r="C36" s="42"/>
       <c r="D36" s="42"/>
       <c r="E36" s="44"/>
-      <c r="J36" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,24,1)</f>
-        <v>Culture</v>
-      </c>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],24,11)</f>
+      <c r="G36" s="53"/>
+      <c r="H36" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,25,1)</f>
+        <v>Concoct Poison</v>
+      </c>
+      <c r="I36" s="83"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="83"/>
+      <c r="N36" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],25,11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="Q36" s="78"/>
-      <c r="R36" s="78"/>
-      <c r="S36" s="79"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-    </row>
-    <row r="37" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O36" s="75"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="T36" s="92"/>
+      <c r="U36" s="92"/>
+      <c r="V36" s="92"/>
+      <c r="W36" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="X36" s="92"/>
+      <c r="Y36" s="98" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z36" s="92"/>
+      <c r="AA36" s="92"/>
+      <c r="AB36" s="93"/>
+      <c r="AC36" s="53"/>
+      <c r="AD36" s="53"/>
+      <c r="AE36" s="53"/>
+      <c r="AF36" s="53"/>
+      <c r="AG36" s="53"/>
+      <c r="AH36" s="53"/>
+      <c r="AI36" s="53"/>
+      <c r="AJ36" s="53"/>
+      <c r="AK36" s="53"/>
+      <c r="AL36" s="53"/>
+      <c r="AM36" s="53"/>
+      <c r="AN36" s="53"/>
+      <c r="AO36" s="53"/>
+      <c r="AP36" s="53"/>
+      <c r="AQ36" s="53"/>
+      <c r="AR36" s="53"/>
+      <c r="AS36" s="53"/>
+      <c r="AT36" s="53"/>
+      <c r="AU36" s="53"/>
+      <c r="AV36" s="53"/>
+      <c r="AW36" s="53"/>
+    </row>
+    <row r="37" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="43"/>
       <c r="C37" s="42"/>
       <c r="D37" s="42"/>
       <c r="E37" s="44"/>
-      <c r="J37" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,25,1)</f>
-        <v>Concoct Poison</v>
-      </c>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="77"/>
-      <c r="P37" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],25,11)</f>
+      <c r="G37" s="53"/>
+      <c r="H37" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,26,1)</f>
+        <v>Medicine</v>
+      </c>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="83"/>
+      <c r="N37" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],26,11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="Q37" s="78"/>
-      <c r="R37" s="78"/>
-      <c r="S37" s="79"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-    </row>
-    <row r="38" spans="2:21" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O37" s="75"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="88" t="s">
+        <v>179</v>
+      </c>
+      <c r="T37" s="92"/>
+      <c r="U37" s="92"/>
+      <c r="V37" s="92"/>
+      <c r="W37" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="X37" s="92"/>
+      <c r="Y37" s="98" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z37" s="92"/>
+      <c r="AA37" s="92"/>
+      <c r="AB37" s="93"/>
+      <c r="AC37" s="53"/>
+      <c r="AD37" s="53"/>
+      <c r="AE37" s="53"/>
+      <c r="AF37" s="53"/>
+      <c r="AG37" s="53"/>
+      <c r="AH37" s="53"/>
+      <c r="AI37" s="53"/>
+      <c r="AJ37" s="53"/>
+      <c r="AK37" s="53"/>
+      <c r="AL37" s="53"/>
+      <c r="AM37" s="53"/>
+      <c r="AN37" s="53"/>
+      <c r="AO37" s="53"/>
+      <c r="AP37" s="53"/>
+      <c r="AQ37" s="53"/>
+      <c r="AR37" s="53"/>
+      <c r="AS37" s="53"/>
+      <c r="AT37" s="53"/>
+      <c r="AU37" s="53"/>
+      <c r="AV37" s="53"/>
+      <c r="AW37" s="53"/>
+    </row>
+    <row r="38" spans="2:49" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B38" s="45"/>
       <c r="C38" s="66">
         <f>PER_TOTAL</f>
@@ -8032,107 +8789,562 @@
       </c>
       <c r="D38" s="67"/>
       <c r="E38" s="46"/>
-      <c r="J38" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,26,1)</f>
-        <v>Medicine</v>
-      </c>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="77"/>
-      <c r="O38" s="77"/>
-      <c r="P38" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],26,11)</f>
+      <c r="G38" s="53"/>
+      <c r="H38" s="82" t="str">
+        <f>INDEX(Skills!$A$1:$K$34,27,1)</f>
+        <v>Language</v>
+      </c>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="75" t="str">
+        <f>INDEX(Table2[[#Headers],[#Data]],27,11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="Q38" s="78"/>
-      <c r="R38" s="78"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
-    </row>
-    <row r="39" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O38" s="75"/>
+      <c r="P38" s="75"/>
+      <c r="Q38" s="76"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="88" t="s">
+        <v>180</v>
+      </c>
+      <c r="T38" s="92"/>
+      <c r="U38" s="92"/>
+      <c r="V38" s="92"/>
+      <c r="W38" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="X38" s="92"/>
+      <c r="Y38" s="98" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z38" s="92"/>
+      <c r="AA38" s="92"/>
+      <c r="AB38" s="93"/>
+      <c r="AC38" s="53"/>
+      <c r="AD38" s="53"/>
+      <c r="AE38" s="53"/>
+      <c r="AF38" s="53"/>
+      <c r="AG38" s="53"/>
+      <c r="AH38" s="53"/>
+      <c r="AI38" s="53"/>
+      <c r="AJ38" s="53"/>
+      <c r="AK38" s="53"/>
+      <c r="AL38" s="53"/>
+      <c r="AM38" s="53"/>
+      <c r="AN38" s="53"/>
+      <c r="AO38" s="53"/>
+      <c r="AP38" s="53"/>
+      <c r="AQ38" s="53"/>
+      <c r="AR38" s="53"/>
+      <c r="AS38" s="53"/>
+      <c r="AT38" s="53"/>
+      <c r="AU38" s="53"/>
+      <c r="AV38" s="53"/>
+      <c r="AW38" s="53"/>
+    </row>
+    <row r="39" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="41"/>
       <c r="C39" s="68"/>
       <c r="D39" s="69"/>
       <c r="E39" s="39"/>
-      <c r="J39" s="76" t="str">
-        <f>INDEX(Skills!$A$1:$K$34,27,1)</f>
-        <v>Language</v>
-      </c>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="77"/>
-      <c r="O39" s="77"/>
-      <c r="P39" s="78" t="str">
-        <f>INDEX(Table2[[#Headers],[#Data]],27,11)</f>
-        <v>1d10 + 0</v>
-      </c>
-      <c r="Q39" s="78"/>
-      <c r="R39" s="78"/>
-      <c r="S39" s="79"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
-    </row>
-    <row r="40" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J40" s="76" t="str">
+      <c r="G39" s="53"/>
+      <c r="H39" s="82" t="str">
         <f>INDEX(Skills!$A$1:$K$34,28,1)</f>
         <v>Culture</v>
       </c>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="78" t="str">
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83"/>
+      <c r="N39" s="75" t="str">
         <f>INDEX(Table2[[#Headers],[#Data]],28,11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="Q40" s="78"/>
-      <c r="R40" s="78"/>
-      <c r="S40" s="79"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
-    </row>
-    <row r="41" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J41" s="80" t="s">
+      <c r="O39" s="75"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="76"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="99"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="89"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AE39" s="53"/>
+      <c r="AF39" s="53"/>
+      <c r="AG39" s="53"/>
+      <c r="AH39" s="53"/>
+      <c r="AI39" s="53"/>
+      <c r="AJ39" s="53"/>
+      <c r="AK39" s="53"/>
+      <c r="AL39" s="53"/>
+      <c r="AM39" s="53"/>
+      <c r="AN39" s="53"/>
+      <c r="AO39" s="53"/>
+      <c r="AP39" s="53"/>
+      <c r="AQ39" s="53"/>
+      <c r="AR39" s="53"/>
+      <c r="AS39" s="53"/>
+      <c r="AT39" s="53"/>
+      <c r="AU39" s="53"/>
+      <c r="AV39" s="53"/>
+      <c r="AW39" s="53"/>
+    </row>
+    <row r="40" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G40" s="53"/>
+      <c r="H40" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
-      <c r="O41" s="81"/>
-      <c r="P41" s="81"/>
-      <c r="Q41" s="81"/>
-      <c r="R41" s="81"/>
-      <c r="S41" s="82"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="53"/>
-    </row>
-    <row r="42" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="50"/>
-      <c r="Q49" s="50"/>
-      <c r="R49" s="50"/>
-      <c r="S49" s="50"/>
-      <c r="T49" s="50"/>
-      <c r="U49" s="50"/>
-    </row>
-    <row r="50" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="79"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="T40" s="78"/>
+      <c r="U40" s="78"/>
+      <c r="V40" s="78"/>
+      <c r="W40" s="78"/>
+      <c r="X40" s="78"/>
+      <c r="Y40" s="78"/>
+      <c r="Z40" s="78"/>
+      <c r="AA40" s="78"/>
+      <c r="AB40" s="79"/>
+      <c r="AC40" s="53"/>
+      <c r="AD40" s="53"/>
+      <c r="AE40" s="53"/>
+      <c r="AF40" s="53"/>
+      <c r="AG40" s="53"/>
+      <c r="AH40" s="53"/>
+      <c r="AI40" s="53"/>
+      <c r="AJ40" s="53"/>
+      <c r="AK40" s="53"/>
+      <c r="AL40" s="53"/>
+      <c r="AM40" s="53"/>
+      <c r="AN40" s="53"/>
+      <c r="AO40" s="53"/>
+      <c r="AP40" s="53"/>
+      <c r="AQ40" s="53"/>
+      <c r="AR40" s="53"/>
+      <c r="AS40" s="53"/>
+      <c r="AT40" s="53"/>
+      <c r="AU40" s="53"/>
+      <c r="AV40" s="53"/>
+      <c r="AW40" s="53"/>
+    </row>
+    <row r="41" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="AC41" s="53"/>
+      <c r="AD41" s="53"/>
+      <c r="AE41" s="53"/>
+      <c r="AF41" s="53"/>
+      <c r="AG41" s="53"/>
+      <c r="AH41" s="53"/>
+      <c r="AI41" s="53"/>
+      <c r="AJ41" s="53"/>
+      <c r="AK41" s="53"/>
+      <c r="AL41" s="53"/>
+      <c r="AM41" s="53"/>
+      <c r="AN41" s="53"/>
+      <c r="AO41" s="53"/>
+      <c r="AP41" s="53"/>
+      <c r="AQ41" s="53"/>
+      <c r="AR41" s="53"/>
+      <c r="AS41" s="53"/>
+      <c r="AT41" s="53"/>
+      <c r="AU41" s="53"/>
+      <c r="AV41" s="53"/>
+      <c r="AW41" s="53"/>
+    </row>
+    <row r="42" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="53"/>
+      <c r="AA42" s="53"/>
+      <c r="AB42" s="53"/>
+      <c r="AC42" s="53"/>
+      <c r="AD42" s="53"/>
+      <c r="AE42" s="53"/>
+      <c r="AF42" s="53"/>
+      <c r="AG42" s="53"/>
+      <c r="AH42" s="53"/>
+      <c r="AI42" s="53"/>
+      <c r="AJ42" s="53"/>
+      <c r="AK42" s="53"/>
+      <c r="AL42" s="53"/>
+      <c r="AM42" s="53"/>
+      <c r="AN42" s="53"/>
+      <c r="AO42" s="53"/>
+      <c r="AP42" s="53"/>
+      <c r="AQ42" s="53"/>
+      <c r="AR42" s="53"/>
+      <c r="AS42" s="53"/>
+      <c r="AT42" s="53"/>
+      <c r="AU42" s="53"/>
+      <c r="AV42" s="53"/>
+      <c r="AW42" s="53"/>
+    </row>
+    <row r="43" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="53"/>
+      <c r="T43" s="53"/>
+      <c r="U43" s="53"/>
+      <c r="V43" s="53"/>
+      <c r="W43" s="53"/>
+      <c r="X43" s="53"/>
+      <c r="Y43" s="53"/>
+      <c r="Z43" s="53"/>
+      <c r="AA43" s="53"/>
+      <c r="AB43" s="53"/>
+      <c r="AC43" s="53"/>
+      <c r="AD43" s="53"/>
+      <c r="AE43" s="53"/>
+      <c r="AF43" s="53"/>
+      <c r="AG43" s="53"/>
+      <c r="AH43" s="53"/>
+      <c r="AI43" s="53"/>
+      <c r="AJ43" s="53"/>
+      <c r="AK43" s="53"/>
+      <c r="AL43" s="53"/>
+      <c r="AM43" s="53"/>
+      <c r="AN43" s="53"/>
+      <c r="AO43" s="53"/>
+      <c r="AP43" s="53"/>
+      <c r="AQ43" s="53"/>
+      <c r="AR43" s="53"/>
+      <c r="AS43" s="53"/>
+      <c r="AT43" s="53"/>
+      <c r="AU43" s="53"/>
+      <c r="AV43" s="53"/>
+      <c r="AW43" s="53"/>
+    </row>
+    <row r="44" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="53"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="53"/>
+      <c r="V44" s="53"/>
+      <c r="W44" s="53"/>
+      <c r="X44" s="53"/>
+      <c r="Y44" s="53"/>
+      <c r="Z44" s="53"/>
+      <c r="AA44" s="53"/>
+      <c r="AB44" s="53"/>
+      <c r="AC44" s="53"/>
+      <c r="AD44" s="53"/>
+      <c r="AE44" s="53"/>
+      <c r="AF44" s="53"/>
+      <c r="AG44" s="53"/>
+      <c r="AH44" s="53"/>
+      <c r="AI44" s="53"/>
+      <c r="AJ44" s="53"/>
+      <c r="AK44" s="53"/>
+      <c r="AL44" s="53"/>
+      <c r="AM44" s="53"/>
+      <c r="AN44" s="53"/>
+      <c r="AO44" s="53"/>
+      <c r="AP44" s="53"/>
+      <c r="AQ44" s="53"/>
+      <c r="AR44" s="53"/>
+      <c r="AS44" s="53"/>
+      <c r="AT44" s="53"/>
+      <c r="AU44" s="53"/>
+      <c r="AV44" s="53"/>
+      <c r="AW44" s="53"/>
+    </row>
+    <row r="45" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="53"/>
+      <c r="T45" s="53"/>
+      <c r="U45" s="53"/>
+      <c r="V45" s="53"/>
+      <c r="W45" s="53"/>
+      <c r="X45" s="53"/>
+      <c r="Y45" s="53"/>
+      <c r="Z45" s="53"/>
+      <c r="AA45" s="53"/>
+      <c r="AB45" s="53"/>
+      <c r="AC45" s="53"/>
+      <c r="AD45" s="53"/>
+      <c r="AE45" s="53"/>
+      <c r="AF45" s="53"/>
+      <c r="AG45" s="53"/>
+      <c r="AH45" s="53"/>
+      <c r="AI45" s="53"/>
+      <c r="AJ45" s="53"/>
+      <c r="AK45" s="53"/>
+      <c r="AL45" s="53"/>
+      <c r="AM45" s="53"/>
+      <c r="AN45" s="53"/>
+      <c r="AO45" s="53"/>
+      <c r="AP45" s="53"/>
+      <c r="AQ45" s="53"/>
+      <c r="AR45" s="53"/>
+      <c r="AS45" s="53"/>
+      <c r="AT45" s="53"/>
+      <c r="AU45" s="53"/>
+      <c r="AV45" s="53"/>
+      <c r="AW45" s="53"/>
+    </row>
+    <row r="46" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="53"/>
+      <c r="R46" s="53"/>
+      <c r="S46" s="53"/>
+      <c r="T46" s="53"/>
+      <c r="U46" s="53"/>
+      <c r="V46" s="53"/>
+      <c r="W46" s="53"/>
+      <c r="X46" s="53"/>
+      <c r="Y46" s="53"/>
+      <c r="Z46" s="53"/>
+      <c r="AA46" s="53"/>
+      <c r="AB46" s="53"/>
+      <c r="AC46" s="53"/>
+      <c r="AD46" s="53"/>
+      <c r="AE46" s="53"/>
+      <c r="AF46" s="53"/>
+      <c r="AG46" s="53"/>
+      <c r="AH46" s="53"/>
+      <c r="AI46" s="53"/>
+      <c r="AJ46" s="53"/>
+      <c r="AK46" s="53"/>
+      <c r="AL46" s="53"/>
+      <c r="AM46" s="53"/>
+      <c r="AN46" s="53"/>
+      <c r="AO46" s="53"/>
+      <c r="AP46" s="53"/>
+      <c r="AQ46" s="53"/>
+      <c r="AR46" s="53"/>
+      <c r="AS46" s="53"/>
+      <c r="AT46" s="53"/>
+      <c r="AU46" s="53"/>
+      <c r="AV46" s="53"/>
+      <c r="AW46" s="53"/>
+    </row>
+    <row r="47" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="53"/>
+      <c r="T47" s="53"/>
+      <c r="U47" s="53"/>
+      <c r="V47" s="53"/>
+      <c r="W47" s="53"/>
+      <c r="X47" s="53"/>
+      <c r="Y47" s="53"/>
+      <c r="Z47" s="53"/>
+      <c r="AA47" s="53"/>
+      <c r="AB47" s="53"/>
+      <c r="AC47" s="53"/>
+      <c r="AD47" s="53"/>
+      <c r="AE47" s="53"/>
+      <c r="AF47" s="53"/>
+      <c r="AG47" s="53"/>
+      <c r="AH47" s="53"/>
+      <c r="AI47" s="53"/>
+      <c r="AJ47" s="53"/>
+      <c r="AK47" s="53"/>
+      <c r="AL47" s="53"/>
+      <c r="AM47" s="53"/>
+      <c r="AN47" s="53"/>
+      <c r="AO47" s="53"/>
+      <c r="AP47" s="53"/>
+      <c r="AQ47" s="53"/>
+      <c r="AR47" s="53"/>
+      <c r="AS47" s="53"/>
+      <c r="AT47" s="53"/>
+      <c r="AU47" s="53"/>
+      <c r="AV47" s="53"/>
+      <c r="AW47" s="53"/>
+    </row>
+    <row r="48" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="53"/>
+      <c r="V48" s="53"/>
+      <c r="W48" s="53"/>
+      <c r="X48" s="53"/>
+      <c r="Y48" s="53"/>
+      <c r="Z48" s="53"/>
+      <c r="AA48" s="53"/>
+      <c r="AB48" s="53"/>
+      <c r="AC48" s="53"/>
+      <c r="AD48" s="53"/>
+      <c r="AE48" s="53"/>
+      <c r="AF48" s="53"/>
+      <c r="AG48" s="53"/>
+      <c r="AH48" s="53"/>
+      <c r="AI48" s="53"/>
+      <c r="AJ48" s="53"/>
+      <c r="AK48" s="53"/>
+      <c r="AL48" s="53"/>
+      <c r="AM48" s="53"/>
+      <c r="AN48" s="53"/>
+      <c r="AO48" s="53"/>
+      <c r="AP48" s="53"/>
+      <c r="AQ48" s="53"/>
+      <c r="AR48" s="53"/>
+      <c r="AS48" s="53"/>
+      <c r="AT48" s="53"/>
+      <c r="AU48" s="53"/>
+      <c r="AV48" s="53"/>
+      <c r="AW48" s="53"/>
+    </row>
+    <row r="49" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="94"/>
+      <c r="K49" s="94"/>
+      <c r="L49" s="94"/>
+      <c r="M49" s="94"/>
+      <c r="N49" s="94"/>
+      <c r="O49" s="94"/>
+      <c r="P49" s="94"/>
+      <c r="Q49" s="94"/>
+      <c r="R49" s="94"/>
+      <c r="S49" s="94"/>
+      <c r="T49" s="94"/>
+      <c r="U49" s="94"/>
+      <c r="V49" s="53"/>
+      <c r="W49" s="53"/>
+      <c r="X49" s="53"/>
+      <c r="Y49" s="53"/>
+      <c r="Z49" s="53"/>
+      <c r="AA49" s="53"/>
+      <c r="AB49" s="53"/>
+      <c r="AC49" s="53"/>
+      <c r="AD49" s="53"/>
+      <c r="AE49" s="53"/>
+      <c r="AF49" s="53"/>
+      <c r="AG49" s="53"/>
+      <c r="AH49" s="53"/>
+      <c r="AI49" s="53"/>
+      <c r="AJ49" s="53"/>
+      <c r="AK49" s="53"/>
+      <c r="AL49" s="53"/>
+      <c r="AM49" s="53"/>
+      <c r="AN49" s="53"/>
+      <c r="AO49" s="53"/>
+      <c r="AP49" s="53"/>
+      <c r="AQ49" s="53"/>
+      <c r="AR49" s="53"/>
+      <c r="AS49" s="53"/>
+      <c r="AT49" s="53"/>
+      <c r="AU49" s="53"/>
+      <c r="AV49" s="53"/>
+      <c r="AW49" s="53"/>
+    </row>
+    <row r="50" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="50"/>
       <c r="C50" s="50"/>
       <c r="D50" s="50"/>
@@ -8144,20 +9356,20 @@
       <c r="V50" s="50"/>
       <c r="W50" s="50"/>
     </row>
-    <row r="51" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="2:23" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8386,32 +9598,10 @@
     <row r="290" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="291" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="J41:S41"/>
-    <mergeCell ref="J35:O35"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J39:O39"/>
-    <mergeCell ref="J40:O40"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="J33:O33"/>
-    <mergeCell ref="J34:O34"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="J25:O25"/>
-    <mergeCell ref="J26:O26"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J21:O21"/>
-    <mergeCell ref="J22:O22"/>
+  <mergeCells count="37">
+    <mergeCell ref="S28:AB28"/>
+    <mergeCell ref="S40:AB40"/>
+    <mergeCell ref="H40:Q40"/>
     <mergeCell ref="AB6:AE6"/>
     <mergeCell ref="AB7:AE9"/>
     <mergeCell ref="AS2:AV5"/>
@@ -8434,9 +9624,6 @@
     <mergeCell ref="B35:E37"/>
     <mergeCell ref="C38:D39"/>
     <mergeCell ref="B2:O4"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J16:O16"/>
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="B7:E9"/>
     <mergeCell ref="B13:E13"/>
@@ -8452,9 +9639,6 @@
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="P15" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -8494,48 +9678,48 @@
         <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -8561,7 +9745,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2">
         <v>18</v>
@@ -8591,7 +9775,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2">
         <v>26</v>
@@ -8621,7 +9805,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2">
         <v>20</v>
@@ -9357,41 +10541,41 @@
         <v>58</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>52</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>165</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>161</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M1" s="9"/>
       <c r="O1" s="9" t="s">
         <v>165</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q1" s="9" t="s">
         <v>161</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="S1" s="9" t="s">
         <v>21</v>
@@ -9466,7 +10650,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J3" s="8">
         <v>1</v>
@@ -9613,7 +10797,7 @@
         <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J6" s="8">
         <v>0</v>
@@ -9625,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P6" s="8">
         <v>0</v>
@@ -9821,7 +11005,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17" s="5">
         <f>VLOOKUP(XP,A2:B15,2,TRUE)</f>
@@ -9842,27 +11026,41 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D079C8F-49C8-9148-A284-24D0B13C28B9}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -9893,7 +11091,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I1" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
@@ -9903,7 +11101,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>183</v>
@@ -9919,13 +11117,13 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="P2" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -9963,7 +11161,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C4" s="14"/>
       <c r="E4" s="2"/>
@@ -9993,7 +11191,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C5" s="17"/>
       <c r="E5" s="2"/>
@@ -10004,7 +11202,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="13">
         <f>SUM(D6:E6)</f>
@@ -10031,10 +11229,10 @@
         <v>63</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N6" s="18" t="s">
         <v>49</v>
@@ -10044,7 +11242,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="16">
         <f>SUM(D7,F7)</f>
@@ -10090,7 +11288,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" s="13">
         <f>SUM(D8:E8)</f>
@@ -10111,7 +11309,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" s="16">
         <f>FEAT_ARMOR</f>
@@ -10122,7 +11320,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="I9" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K9" s="20">
         <f>L4-N7</f>
@@ -10133,7 +11331,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B10" s="13">
         <f>FEAT_AURA</f>
@@ -10453,7 +11651,7 @@
         <v>45</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>46</v>
@@ -10470,7 +11668,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>36</v>
@@ -10769,42 +11967,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:E6">
-    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="38" priority="8" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F6">
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="1d10">
+    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="1d10">
       <formula>NOT(ISERROR(SEARCH("1d10",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:L6 H2:L3 I4:L4">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10826,10 +12024,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B03D6B-2585-4B4C-9976-E5F4DD267D5F}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -10842,7 +12040,7 @@
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -10876,8 +12074,14 @@
       <c r="K1" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -10917,7 +12121,7 @@
         <v>1d10 + 0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -10956,7 +12160,7 @@
         <v>1d10 + 0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -10995,7 +12199,7 @@
         <v>1d10 + 1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -11034,7 +12238,7 @@
         <v>1d10 + 0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -11073,7 +12277,7 @@
         <v>1d10 + 0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -11112,7 +12316,7 @@
         <v>1d10 + 0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -11150,8 +12354,21 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H8:J8)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="84"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -11189,10 +12406,23 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H9:J9)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="84"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>38</v>
@@ -11228,10 +12458,22 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H10:J10)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" s="84"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="84"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>55</v>
@@ -11267,8 +12509,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H11:J11)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" s="84"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="85"/>
+      <c r="Y11" s="84"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -11306,8 +12560,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H12:J12)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" s="84"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="85"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="85"/>
+      <c r="Y12" s="84"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -11345,8 +12611,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H13:J13)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" s="84"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="84"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -11384,8 +12662,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H14:J14)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" s="84"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="84"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -11423,8 +12713,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H15:J15)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M15" s="84"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="84"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -11462,8 +12764,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H16:J16)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16" s="84"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="85"/>
+      <c r="W16" s="85"/>
+      <c r="X16" s="85"/>
+      <c r="Y16" s="84"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -11501,8 +12815,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H17:J17)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17" s="84"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="85"/>
+      <c r="Y17" s="84"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -11540,8 +12866,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H18:J18)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18" s="84"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="85"/>
+      <c r="W18" s="85"/>
+      <c r="X18" s="85"/>
+      <c r="Y18" s="84"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -11579,8 +12917,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H19:J19)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M19" s="84"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="85"/>
+      <c r="Y19" s="84"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -11618,8 +12968,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H20:J20)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M20" s="84"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="85"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="85"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="85"/>
+      <c r="Y20" s="84"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -11657,8 +13019,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H21:J21)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M21" s="84"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="85"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="84"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -11696,8 +13070,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H22:J22)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M22" s="84"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="85"/>
+      <c r="U22" s="85"/>
+      <c r="V22" s="85"/>
+      <c r="W22" s="85"/>
+      <c r="X22" s="85"/>
+      <c r="Y22" s="84"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -11735,8 +13121,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H23:J23)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M23" s="84"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="85"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="85"/>
+      <c r="W23" s="85"/>
+      <c r="X23" s="85"/>
+      <c r="Y23" s="84"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -11774,8 +13172,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H24:J24)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M24" s="84"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="85"/>
+      <c r="U24" s="85"/>
+      <c r="V24" s="85"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="85"/>
+      <c r="Y24" s="84"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -11813,8 +13223,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H25:J25)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M25" s="84"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="85"/>
+      <c r="U25" s="85"/>
+      <c r="V25" s="85"/>
+      <c r="W25" s="85"/>
+      <c r="X25" s="85"/>
+      <c r="Y25" s="84"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -11852,8 +13274,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H26:J26)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M26" s="84"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="85"/>
+      <c r="T26" s="85"/>
+      <c r="U26" s="85"/>
+      <c r="V26" s="85"/>
+      <c r="W26" s="85"/>
+      <c r="X26" s="85"/>
+      <c r="Y26" s="84"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>171</v>
       </c>
@@ -11891,8 +13325,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H27:J27)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M27" s="84"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="85"/>
+      <c r="T27" s="85"/>
+      <c r="U27" s="85"/>
+      <c r="V27" s="85"/>
+      <c r="W27" s="85"/>
+      <c r="X27" s="85"/>
+      <c r="Y27" s="84"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -11930,8 +13376,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H28:J28)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M28" s="84"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+      <c r="T28" s="85"/>
+      <c r="U28" s="85"/>
+      <c r="V28" s="85"/>
+      <c r="W28" s="85"/>
+      <c r="X28" s="85"/>
+      <c r="Y28" s="84"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G29" s="4" t="str">
         <f>IF(C29="Yes","1d20","1d10")</f>
         <v>1d10</v>
@@ -11951,8 +13409,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H29:J29)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M29" s="84"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="85"/>
+      <c r="V29" s="85"/>
+      <c r="W29" s="85"/>
+      <c r="X29" s="85"/>
+      <c r="Y29" s="84"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G30" s="4" t="str">
         <f>IF(C30="Yes","1d20","1d10")</f>
         <v>1d10</v>
@@ -11972,8 +13442,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H30:J30)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M30" s="84"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="85"/>
+      <c r="U30" s="85"/>
+      <c r="V30" s="85"/>
+      <c r="W30" s="85"/>
+      <c r="X30" s="85"/>
+      <c r="Y30" s="84"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G31" s="4" t="str">
         <f>IF(C31="Yes","1d20","1d10")</f>
         <v>1d10</v>
@@ -11993,8 +13475,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H31:J31)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M31" s="84"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="85"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="85"/>
+      <c r="T31" s="85"/>
+      <c r="U31" s="85"/>
+      <c r="V31" s="85"/>
+      <c r="W31" s="85"/>
+      <c r="X31" s="85"/>
+      <c r="Y31" s="84"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G32" s="4" t="str">
         <f>IF(C32="Yes","1d20","1d10")</f>
         <v>1d10</v>
@@ -12014,8 +13508,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H32:J32)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M32" s="84"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="85"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="85"/>
+      <c r="U32" s="85"/>
+      <c r="V32" s="85"/>
+      <c r="W32" s="85"/>
+      <c r="X32" s="85"/>
+      <c r="Y32" s="84"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G33" s="4" t="str">
         <f>IF(C33="Yes","1d20","1d10")</f>
         <v>1d10</v>
@@ -12035,8 +13541,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H33:J33)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M33" s="84"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="85"/>
+      <c r="R33" s="85"/>
+      <c r="S33" s="85"/>
+      <c r="T33" s="85"/>
+      <c r="U33" s="85"/>
+      <c r="V33" s="85"/>
+      <c r="W33" s="85"/>
+      <c r="X33" s="85"/>
+      <c r="Y33" s="84"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G34" s="4" t="str">
         <f>IF(C34="Yes","1d20","1d10")</f>
         <v>1d10</v>
@@ -12056,8 +13574,20 @@
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H34:J34)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M34" s="84"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="85"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="85"/>
+      <c r="T34" s="85"/>
+      <c r="U34" s="85"/>
+      <c r="V34" s="85"/>
+      <c r="W34" s="85"/>
+      <c r="X34" s="85"/>
+      <c r="Y34" s="84"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
@@ -12082,25 +13612,165 @@
         <v>0</v>
       </c>
       <c r="G35" s="4"/>
+      <c r="M35" s="84"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
+      <c r="U35" s="85"/>
+      <c r="V35" s="85"/>
+      <c r="W35" s="85"/>
+      <c r="X35" s="85"/>
+      <c r="Y35" s="84"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M36" s="84"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85"/>
+      <c r="R36" s="85"/>
+      <c r="S36" s="85"/>
+      <c r="T36" s="85"/>
+      <c r="U36" s="86"/>
+      <c r="V36" s="86"/>
+      <c r="W36" s="85"/>
+      <c r="X36" s="85"/>
+      <c r="Y36" s="84"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M37" s="84"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="85"/>
+      <c r="Q37" s="85"/>
+      <c r="R37" s="85"/>
+      <c r="S37" s="85"/>
+      <c r="T37" s="85"/>
+      <c r="U37" s="86"/>
+      <c r="V37" s="86"/>
+      <c r="W37" s="85"/>
+      <c r="X37" s="85"/>
+      <c r="Y37" s="84"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M38" s="84"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="85"/>
+      <c r="R38" s="85"/>
+      <c r="S38" s="85"/>
+      <c r="T38" s="85"/>
+      <c r="U38" s="86"/>
+      <c r="V38" s="86"/>
+      <c r="W38" s="85"/>
+      <c r="X38" s="85"/>
+      <c r="Y38" s="84"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M39" s="84"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="85"/>
+      <c r="Q39" s="85"/>
+      <c r="R39" s="85"/>
+      <c r="S39" s="85"/>
+      <c r="T39" s="85"/>
+      <c r="U39" s="86"/>
+      <c r="V39" s="86"/>
+      <c r="W39" s="85"/>
+      <c r="X39" s="85"/>
+      <c r="Y39" s="84"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M40" s="84"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="85"/>
+      <c r="Q40" s="85"/>
+      <c r="R40" s="85"/>
+      <c r="S40" s="85"/>
+      <c r="T40" s="85"/>
+      <c r="U40" s="86"/>
+      <c r="V40" s="86"/>
+      <c r="W40" s="85"/>
+      <c r="X40" s="85"/>
+      <c r="Y40" s="84"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M41" s="84"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="85"/>
+      <c r="Q41" s="85"/>
+      <c r="R41" s="85"/>
+      <c r="S41" s="85"/>
+      <c r="T41" s="85"/>
+      <c r="U41" s="86"/>
+      <c r="V41" s="86"/>
+      <c r="W41" s="85"/>
+      <c r="X41" s="85"/>
+      <c r="Y41" s="84"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M42" s="84"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="85"/>
+      <c r="S42" s="85"/>
+      <c r="T42" s="85"/>
+      <c r="U42" s="86"/>
+      <c r="V42" s="86"/>
+      <c r="W42" s="85"/>
+      <c r="X42" s="85"/>
+      <c r="Y42" s="84"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M43" s="84"/>
+      <c r="N43" s="84"/>
+      <c r="O43" s="85"/>
+      <c r="P43" s="85"/>
+      <c r="Q43" s="85"/>
+      <c r="R43" s="85"/>
+      <c r="S43" s="85"/>
+      <c r="T43" s="85"/>
+      <c r="U43" s="86"/>
+      <c r="V43" s="86"/>
+      <c r="W43" s="85"/>
+      <c r="X43" s="85"/>
+      <c r="Y43" s="84"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M44" s="84"/>
+      <c r="N44" s="84"/>
+      <c r="O44" s="84"/>
+      <c r="P44" s="84"/>
+      <c r="Q44" s="84"/>
+      <c r="R44" s="84"/>
+      <c r="S44" s="84"/>
+      <c r="T44" s="84"/>
+      <c r="U44" s="84"/>
+      <c r="V44" s="84"/>
+      <c r="W44" s="84"/>
+      <c r="X44" s="84"/>
+      <c r="Y44" s="84"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:F25 C31:F34">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K25 H31:K34">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F30">
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:K30">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12121,10 +13791,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD47CD4F-A7E4-6841-ABCD-A939FFEF8EAA}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="Q8" sqref="Q8:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -12137,7 +13807,7 @@
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -12171,8 +13841,17 @@
       <c r="K1" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>177</v>
       </c>
@@ -12212,7 +13891,7 @@
         <v>1d10 + 0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>178</v>
       </c>
@@ -12251,7 +13930,7 @@
         <v>1d10 + 0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>173</v>
       </c>
@@ -12290,7 +13969,7 @@
         <v>1d10 + 0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>172</v>
       </c>
@@ -12329,7 +14008,7 @@
         <v>1d10 + 0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>174</v>
       </c>
@@ -12368,7 +14047,7 @@
         <v>1d10 + 0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>175</v>
       </c>
@@ -12406,8 +14085,17 @@
         <f>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H7:J7)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>176</v>
       </c>
@@ -12445,8 +14133,17 @@
         <f>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H8:J8)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>179</v>
       </c>
@@ -12484,8 +14181,17 @@
         <f>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H9:J9)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>180</v>
       </c>
@@ -12523,8 +14229,17 @@
         <f>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H10:J10)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G11" s="4" t="str">
         <f>IF(C11="Yes","1d20","1d10")</f>
         <v>1d10</v>
@@ -12544,8 +14259,17 @@
         <f>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H11:J11)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G12" s="4" t="str">
         <f>IF(C12="Yes","1d20","1d10")</f>
         <v>1d10</v>
@@ -12565,8 +14289,17 @@
         <f>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H12:J12)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G13" s="4" t="str">
         <f>IF(C13="Yes","1d20","1d10")</f>
         <v>1d10</v>
@@ -12586,8 +14319,17 @@
         <f>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H13:J13)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G14" s="4" t="str">
         <f>IF(C14="Yes","1d20","1d10")</f>
         <v>1d10</v>
@@ -12607,8 +14349,17 @@
         <f>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H14:J14)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G15" s="4" t="str">
         <f>IF(C15="Yes","1d20","1d10")</f>
         <v>1d10</v>
@@ -12628,8 +14379,17 @@
         <f>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H15:J15)</f>
         <v>1d10 + 0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G16" s="4" t="str">
         <f>IF(C16="Yes","1d20","1d10")</f>
         <v>1d10</v>
@@ -12649,6 +14409,15 @@
         <f>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H16:J16)</f>
         <v>1d10 + 0</v>
       </c>
+      <c r="O16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -12678,12 +14447,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:F16">
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K16">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12704,10 +14473,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D8EBD6-9BE4-5C49-B401-A7498992A36D}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -12717,47 +14486,53 @@
     <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="44" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="44" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -12797,12 +14572,12 @@
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -12842,12 +14617,12 @@
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -12872,8 +14647,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2">
-        <f>ROUND(Table9[[#This Row],[Total
-Rank]]*Table9[[#This Row],[Factor]]/100, 0)</f>
+        <f>ROUND(Table9[[#This Row],[TotalRank]]*Table9[[#This Row],[Factor]]/100, 0)</f>
         <v>0</v>
       </c>
       <c r="K4" s="2">
@@ -12885,12 +14659,12 @@
         <v>0</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -12913,12 +14687,11 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2">
-        <f xml:space="preserve"> Table9[[#This Row],[Factor]] * Table9[[#This Row],[Total
-Rank]]</f>
+        <f xml:space="preserve"> Table9[[#This Row],[Factor]] * Table9[[#This Row],[TotalRank]]</f>
         <v>0</v>
       </c>
       <c r="K5" s="2" t="str">
@@ -12930,12 +14703,12 @@
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -12959,11 +14732,10 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J6" s="2">
-        <f>ROUND(Table9[[#This Row],[Total
-Rank]] * Table9[[#This Row],[Factor]], 0)</f>
+        <f>ROUND(Table9[[#This Row],[TotalRank]] * Table9[[#This Row],[Factor]], 0)</f>
         <v>0</v>
       </c>
       <c r="K6" s="2" t="str">
@@ -12975,12 +14747,12 @@
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -13003,12 +14775,11 @@
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2">
-        <f xml:space="preserve"> Table9[[#This Row],[Factor]] * Table9[[#This Row],[Total
-Rank]]</f>
+        <f xml:space="preserve"> Table9[[#This Row],[Factor]] * Table9[[#This Row],[TotalRank]]</f>
         <v>0</v>
       </c>
       <c r="K7" s="2" t="str">
@@ -13020,12 +14791,12 @@
         <v>0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -13053,8 +14824,7 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
-        <f>Table9[[#This Row],[Total
-Rank]] * Table9[[#This Row],[Factor]]</f>
+        <f>Table9[[#This Row],[TotalRank]] * Table9[[#This Row],[Factor]]</f>
         <v>0</v>
       </c>
       <c r="K8" s="2" t="str">
@@ -13066,12 +14836,12 @@
         <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -13098,11 +14868,10 @@
         <v>+</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J9" s="2">
-        <f>Table9[[#This Row],[Total
-Rank]] * Table9[[#This Row],[Factor]]</f>
+        <f>Table9[[#This Row],[TotalRank]] * Table9[[#This Row],[Factor]]</f>
         <v>-2</v>
       </c>
       <c r="K9" s="2" t="str">
@@ -13114,12 +14883,12 @@
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -13143,11 +14912,10 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J10" s="2">
-        <f>ROUND(Table9[[#This Row],[Total
-Rank]] * Table9[[#This Row],[Factor]], 0)</f>
+        <f>ROUND(Table9[[#This Row],[TotalRank]] * Table9[[#This Row],[Factor]], 0)</f>
         <v>0</v>
       </c>
       <c r="K10" s="2" t="str">
@@ -13159,12 +14927,12 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -13192,8 +14960,7 @@
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2">
-        <f>Table9[[#This Row],[Total
-Rank]] * Table9[[#This Row],[Factor]]</f>
+        <f>Table9[[#This Row],[TotalRank]] * Table9[[#This Row],[Factor]]</f>
         <v>2</v>
       </c>
       <c r="K11" s="2" t="str">
@@ -13205,12 +14972,12 @@
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -13238,8 +15005,7 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2">
-        <f>Table9[[#This Row],[Total
-Rank]] * Table9[[#This Row],[Factor]]</f>
+        <f>Table9[[#This Row],[TotalRank]] * Table9[[#This Row],[Factor]]</f>
         <v>0</v>
       </c>
       <c r="K12" s="2" t="str">
@@ -13251,12 +15017,12 @@
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -13290,12 +15056,12 @@
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -13311,8 +15077,8 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <f>SUM(Table9[[#This Row],[Rank]:[Special]]) * Table9[[#This Row],[Factor]]</f>
-        <v>-1</v>
+        <f>SUM(Table9[[#This Row],[Rank]:[Special]])</f>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
         <v>-1</v>
@@ -13320,8 +15086,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2">
-        <f>Table9[[#This Row],[Total
-Rank]]</f>
+        <f>Table9[[#This Row],[TotalRank]] * Table9[[#This Row],[Factor]]</f>
         <v>-1</v>
       </c>
       <c r="K14" s="2" t="str">
@@ -13333,7 +15098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>0</v>
       </c>
@@ -13367,7 +15132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>0</v>
       </c>
@@ -13401,7 +15166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>0</v>
       </c>
@@ -13435,7 +15200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>0</v>
       </c>
@@ -13469,7 +15234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>0</v>
       </c>
@@ -13501,6 +15266,118 @@
       <c r="L19" s="2">
         <f>IFERROR(VLOOKUP(Table9[[#This Row],[Rank]],RANK_LOOKUP,2,FALSE),0)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O28" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -13518,8 +15395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3A9BA2-7C8F-B247-ADDB-A1B3542BA0A5}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -13561,49 +15438,49 @@
     </row>
     <row r="2" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I2" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>155</v>
-      </c>
       <c r="L2" s="25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P2" s="26" t="s">
         <v>161</v>
@@ -13624,12 +15501,12 @@
         <v>39</v>
       </c>
       <c r="V2" s="26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
@@ -13692,10 +15569,10 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>
@@ -13755,15 +15632,15 @@
         <v>0</v>
       </c>
       <c r="V4" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
@@ -13823,15 +15700,15 @@
         <v>0</v>
       </c>
       <c r="V5" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>28</v>
@@ -13891,15 +15768,15 @@
         <v>0</v>
       </c>
       <c r="V6" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
@@ -13959,15 +15836,15 @@
         <v>0</v>
       </c>
       <c r="V7" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>28</v>
@@ -14027,15 +15904,15 @@
         <v>0</v>
       </c>
       <c r="V8" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>28</v>
@@ -14095,12 +15972,12 @@
         <v>0</v>
       </c>
       <c r="V9" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>28</v>
@@ -14163,7 +16040,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>28</v>
@@ -14226,7 +16103,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
@@ -14289,7 +16166,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
@@ -14352,7 +16229,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
@@ -14415,7 +16292,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
@@ -14478,7 +16355,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
@@ -14541,7 +16418,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
@@ -14604,7 +16481,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
@@ -14667,7 +16544,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>29</v>
@@ -14730,7 +16607,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>29</v>
@@ -14793,7 +16670,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>29</v>
@@ -14940,7 +16817,7 @@
         <v>165</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>161</v>
@@ -14954,10 +16831,10 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C25" s="2">
         <f>VLOOKUP($B$25,ARMOR_TYPE,2,FALSE)</f>
@@ -15022,7 +16899,7 @@
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="C1:P1"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C21" xr:uid="{DA8093F0-6190-5846-8F73-9A105F0DCE86}">
       <formula1>Yes_No</formula1>
     </dataValidation>
@@ -15033,7 +16910,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7019BB2C-0302-2546-851E-E0D674281FA0}">
           <x14:formula1>
             <xm:f>'Lookup Data'!$I$2:$I$6</xm:f>
@@ -15054,26 +16931,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B68C3C-3C12-4D4F-9D52-B8CC523665F7}">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="1" customWidth="1"/>
     <col min="6" max="16" width="12.5" style="1" customWidth="1"/>
     <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C1" s="33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
@@ -15100,97 +16977,100 @@
       <c r="V1" s="33"/>
       <c r="W1" s="33"/>
     </row>
-    <row r="2" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>110</v>
+      <c r="G2" s="31" t="s">
+        <v>109</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>111</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M2" s="25" t="s">
         <v>155</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="P2" s="25" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="R2" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="S2" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="T2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="U2" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="V2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="W2" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="26" t="s">
+      <c r="X2" s="26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>4</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
         <v>0</v>
       </c>
       <c r="H3" s="2">
@@ -15226,10 +17106,10 @@
       <c r="R3" s="2">
         <v>0</v>
       </c>
-      <c r="S3" s="30">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2">
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="30">
         <v>0</v>
       </c>
       <c r="U3" s="2">
@@ -15241,18 +17121,19 @@
       <c r="W3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="2"/>
+      <c r="G4" s="4">
         <v>0</v>
       </c>
       <c r="H4" s="2">
@@ -15288,10 +17169,10 @@
       <c r="R4" s="2">
         <v>0</v>
       </c>
-      <c r="S4" s="30">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="30">
         <v>0</v>
       </c>
       <c r="U4" s="2">
@@ -15303,18 +17184,19 @@
       <c r="W4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="2"/>
+      <c r="G5" s="4">
         <v>0</v>
       </c>
       <c r="H5" s="2">
@@ -15350,10 +17232,10 @@
       <c r="R5" s="2">
         <v>0</v>
       </c>
-      <c r="S5" s="30">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2">
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="30">
         <v>0</v>
       </c>
       <c r="U5" s="2">
@@ -15365,18 +17247,19 @@
       <c r="W5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="2"/>
+      <c r="G6" s="4">
         <v>0</v>
       </c>
       <c r="H6" s="2">
@@ -15412,10 +17295,10 @@
       <c r="R6" s="2">
         <v>0</v>
       </c>
-      <c r="S6" s="30">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2">
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="30">
         <v>0</v>
       </c>
       <c r="U6" s="2">
@@ -15427,18 +17310,19 @@
       <c r="W6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="2"/>
+      <c r="G7" s="4">
         <v>0</v>
       </c>
       <c r="H7" s="2">
@@ -15474,10 +17358,10 @@
       <c r="R7" s="2">
         <v>0</v>
       </c>
-      <c r="S7" s="30">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="30">
         <v>0</v>
       </c>
       <c r="U7" s="2">
@@ -15489,18 +17373,19 @@
       <c r="W7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="2"/>
+      <c r="G8" s="4">
         <v>0</v>
       </c>
       <c r="H8" s="2">
@@ -15536,10 +17421,10 @@
       <c r="R8" s="2">
         <v>0</v>
       </c>
-      <c r="S8" s="30">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2">
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="30">
         <v>0</v>
       </c>
       <c r="U8" s="2">
@@ -15551,18 +17436,19 @@
       <c r="W8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="2"/>
+      <c r="G9" s="4">
         <v>0</v>
       </c>
       <c r="H9" s="2">
@@ -15598,10 +17484,10 @@
       <c r="R9" s="2">
         <v>0</v>
       </c>
-      <c r="S9" s="30">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="30">
         <v>0</v>
       </c>
       <c r="U9" s="2">
@@ -15613,18 +17499,19 @@
       <c r="W9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="2"/>
+      <c r="G10" s="4">
         <v>0</v>
       </c>
       <c r="H10" s="2">
@@ -15660,10 +17547,10 @@
       <c r="R10" s="2">
         <v>0</v>
       </c>
-      <c r="S10" s="30">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2">
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="30">
         <v>0</v>
       </c>
       <c r="U10" s="2">
@@ -15675,18 +17562,19 @@
       <c r="W10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="F11" s="2"/>
+      <c r="G11" s="4">
         <v>0</v>
       </c>
       <c r="H11" s="2">
@@ -15722,10 +17610,10 @@
       <c r="R11" s="2">
         <v>0</v>
       </c>
-      <c r="S11" s="30">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2">
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="30">
         <v>0</v>
       </c>
       <c r="U11" s="2">
@@ -15737,18 +17625,19 @@
       <c r="W11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F12" s="2"/>
+      <c r="G12" s="4">
         <v>0</v>
       </c>
       <c r="H12" s="2">
@@ -15784,10 +17673,10 @@
       <c r="R12" s="2">
         <v>0</v>
       </c>
-      <c r="S12" s="30">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2">
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="30">
         <v>0</v>
       </c>
       <c r="U12" s="2">
@@ -15799,18 +17688,19 @@
       <c r="W12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F13" s="2"/>
+      <c r="G13" s="4">
         <v>0</v>
       </c>
       <c r="H13" s="2">
@@ -15846,10 +17736,10 @@
       <c r="R13" s="2">
         <v>0</v>
       </c>
-      <c r="S13" s="30">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2">
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="30">
         <v>0</v>
       </c>
       <c r="U13" s="2">
@@ -15861,18 +17751,19 @@
       <c r="W13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="F14" s="2"/>
+      <c r="G14" s="4">
         <v>0</v>
       </c>
       <c r="H14" s="2">
@@ -15908,10 +17799,10 @@
       <c r="R14" s="2">
         <v>0</v>
       </c>
-      <c r="S14" s="30">
-        <v>0</v>
-      </c>
-      <c r="T14" s="2">
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="30">
         <v>0</v>
       </c>
       <c r="U14" s="2">
@@ -15923,18 +17814,19 @@
       <c r="W14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F15" s="2"/>
+      <c r="G15" s="4">
         <v>0</v>
       </c>
       <c r="H15" s="2">
@@ -15970,10 +17862,10 @@
       <c r="R15" s="2">
         <v>0</v>
       </c>
-      <c r="S15" s="30">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2">
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="30">
         <v>0</v>
       </c>
       <c r="U15" s="2">
@@ -15985,18 +17877,19 @@
       <c r="W15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F16" s="2"/>
+      <c r="G16" s="4">
         <v>0</v>
       </c>
       <c r="H16" s="2">
@@ -16032,10 +17925,10 @@
       <c r="R16" s="2">
         <v>0</v>
       </c>
-      <c r="S16" s="30">
-        <v>0</v>
-      </c>
-      <c r="T16" s="2">
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="30">
         <v>0</v>
       </c>
       <c r="U16" s="2">
@@ -16047,18 +17940,19 @@
       <c r="W16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="F17" s="2"/>
+      <c r="G17" s="4">
         <v>0</v>
       </c>
       <c r="H17" s="2">
@@ -16094,10 +17988,10 @@
       <c r="R17" s="2">
         <v>0</v>
       </c>
-      <c r="S17" s="30">
-        <v>0</v>
-      </c>
-      <c r="T17" s="2">
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="30">
         <v>0</v>
       </c>
       <c r="U17" s="2">
@@ -16109,18 +18003,19 @@
       <c r="W17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="F18" s="2"/>
+      <c r="G18" s="4">
         <v>0</v>
       </c>
       <c r="H18" s="2">
@@ -16156,10 +18051,10 @@
       <c r="R18" s="2">
         <v>0</v>
       </c>
-      <c r="S18" s="30">
-        <v>0</v>
-      </c>
-      <c r="T18" s="2">
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="30">
         <v>0</v>
       </c>
       <c r="U18" s="2">
@@ -16171,18 +18066,19 @@
       <c r="W18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="F19" s="2"/>
+      <c r="G19" s="4">
         <v>0</v>
       </c>
       <c r="H19" s="2">
@@ -16218,10 +18114,10 @@
       <c r="R19" s="2">
         <v>0</v>
       </c>
-      <c r="S19" s="30">
-        <v>0</v>
-      </c>
-      <c r="T19" s="2">
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="30">
         <v>0</v>
       </c>
       <c r="U19" s="2">
@@ -16233,18 +18129,19 @@
       <c r="W19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="F20" s="2"/>
+      <c r="G20" s="4">
         <v>0</v>
       </c>
       <c r="H20" s="2">
@@ -16280,10 +18177,10 @@
       <c r="R20" s="2">
         <v>0</v>
       </c>
-      <c r="S20" s="30">
-        <v>0</v>
-      </c>
-      <c r="T20" s="2">
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="30">
         <v>0</v>
       </c>
       <c r="U20" s="2">
@@ -16295,18 +18192,19 @@
       <c r="W20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="F21" s="2"/>
+      <c r="G21" s="4">
         <v>0</v>
       </c>
       <c r="H21" s="2">
@@ -16342,10 +18240,10 @@
       <c r="R21" s="2">
         <v>0</v>
       </c>
-      <c r="S21" s="30">
-        <v>0</v>
-      </c>
-      <c r="T21" s="2">
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="30">
         <v>0</v>
       </c>
       <c r="U21" s="2">
@@ -16357,18 +18255,18 @@
       <c r="W21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="4">
+      <c r="F22" s="2"/>
+      <c r="G22" s="4">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[DMG])</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <f>SUMIF(Table1218[Enabled],"Yes",Table1218[Stamina])</f>
         <v>0</v>
       </c>
       <c r="H22" s="2">
@@ -16376,87 +18274,91 @@
         <v>0</v>
       </c>
       <c r="I22" s="2">
+        <f>SUMIF(Table1218[Enabled],"Yes",Table1218[Stamina])</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[Crit DMG])</f>
         <v>0</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[Splash])</f>
         <v>0</v>
       </c>
-      <c r="K22" s="2">
+      <c r="L22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[Splash 
 DMG])</f>
         <v>0</v>
       </c>
-      <c r="L22" s="2">
+      <c r="M22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[Exprt.])</f>
         <v>0</v>
       </c>
-      <c r="M22" s="2">
+      <c r="N22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[Mvmt.])</f>
         <v>0</v>
       </c>
-      <c r="N22" s="2">
+      <c r="O22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[Extra 
 Attack])</f>
         <v>0</v>
       </c>
-      <c r="O22" s="2">
+      <c r="P22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[Armor])</f>
         <v>0</v>
       </c>
-      <c r="P22" s="2">
+      <c r="Q22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[Aura])</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="R22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[Directed Strike])</f>
         <v>0</v>
       </c>
-      <c r="R22" s="2">
+      <c r="S22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[INI])</f>
         <v>0</v>
       </c>
-      <c r="S22" s="30">
+      <c r="T22" s="30">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[STR])</f>
         <v>0</v>
       </c>
-      <c r="T22" s="2">
+      <c r="U22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[AGI])</f>
         <v>0</v>
       </c>
-      <c r="U22" s="2">
+      <c r="V22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[INU])</f>
         <v>0</v>
       </c>
-      <c r="V22" s="2">
+      <c r="W22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[CHA])</f>
         <v>0</v>
       </c>
-      <c r="W22" s="2">
+      <c r="X22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[PER])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -16479,7 +18381,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF1B8D70-C0F3-454A-BDD0-9B35D923BDE6}">
           <x14:formula1>
             <xm:f>'Lookup Data'!$O$2:$O$6</xm:f>
@@ -16491,6 +18393,12 @@
             <xm:f>'Lookup Data'!$I$2:$I$6</xm:f>
           </x14:formula1>
           <xm:sqref>B25</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E30884F0-2457-A74E-8EEA-F9B5B7C41B9A}">
+          <x14:formula1>
+            <xm:f>'Drop Downs'!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16531,45 +18439,45 @@
         <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -16605,7 +18513,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -16645,7 +18553,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2">
         <v>15</v>
@@ -16685,7 +18593,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2">
         <v>10</v>
@@ -16725,7 +18633,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2">
         <v>12</v>
@@ -16765,7 +18673,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -16805,7 +18713,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2">
         <v>10</v>
@@ -16845,7 +18753,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2">
         <v>10</v>
@@ -16885,7 +18793,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2">
         <v>12</v>
@@ -16925,7 +18833,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2">
         <v>20</v>
@@ -16965,7 +18873,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B12" s="2">
         <v>15</v>
@@ -17005,7 +18913,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>

--- a/Character Sheet.xlsx
+++ b/Character Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baudin/Projects/aria-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C012DB-4E09-C84A-9B94-576384836B35}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F9DD57-BB58-3646-8365-2E5FB6E42098}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38200" windowHeight="23540" activeTab="7" xr2:uid="{47C10E70-C8A1-594D-875F-C0FED4FAA393}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38200" windowHeight="23540" activeTab="12" xr2:uid="{47C10E70-C8A1-594D-875F-C0FED4FAA393}"/>
   </bookViews>
   <sheets>
     <sheet name="Character Sheet" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Classes" sheetId="6" r:id="rId10"/>
     <sheet name="Lookup Data" sheetId="9" r:id="rId11"/>
     <sheet name="Drop Downs" sheetId="3" r:id="rId12"/>
+    <sheet name="Spells" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Feats!$A$1:$L$14</definedName>
@@ -51,10 +52,12 @@
     <definedName name="ARMOR_TYPE">Table13[#All]</definedName>
     <definedName name="CHA">Statistics!$N$5</definedName>
     <definedName name="CHA_TOTAL">Statistics!$M$5</definedName>
+    <definedName name="CHARACTER_AP">'Character Info'!$B$12</definedName>
     <definedName name="CHARACTER_ARMOR">'Character Info'!$B$9</definedName>
     <definedName name="CHARACTER_AURA">'Character Info'!$B$10</definedName>
     <definedName name="CHARACTER_EXPERTISE">'Character Info'!$B$6</definedName>
     <definedName name="CHARACTER_HP">'Character Info'!$B$7</definedName>
+    <definedName name="CHARACTER_INI">'Character Info'!$B$11</definedName>
     <definedName name="CHARACTER_LEVEL">'Character Info'!$B$3</definedName>
     <definedName name="CHARACTER_MOVEMENT">'Character Info'!$B$8</definedName>
     <definedName name="CHARACTER_NAME">'Character Info'!$B$2</definedName>
@@ -113,14 +116,16 @@
     <definedName name="EQ_STAMINA" localSheetId="7">Table1218[[#Totals],[Stamina]]</definedName>
     <definedName name="EQ_STAMINA">Table12[[#Totals],[Stamina]]</definedName>
     <definedName name="EXPERTISE">'Character Info'!$B$6</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">'Character Sheet'!$Z$4:$AT$4</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">'Character Sheet'!$AE$16:$BD$16</definedName>
     <definedName name="_xlnm.Extract" localSheetId="5">Feats!$N$25:$O$25</definedName>
     <definedName name="_xlnm.Extract" localSheetId="4">Resistances!$O$7:$Q$7</definedName>
     <definedName name="_xlnm.Extract" localSheetId="3">Skills!$N$9:$O$9</definedName>
+    <definedName name="FEAT_AP">Feats!$K$15</definedName>
     <definedName name="FEAT_ARMOR">Feats!$J$11</definedName>
     <definedName name="FEAT_AURA">Feats!$J$12</definedName>
     <definedName name="FEAT_DMG">Feats!$K$2</definedName>
     <definedName name="FEAT_EXPT">Feats!$J$8</definedName>
+    <definedName name="FEAT_INI">Feats!$K$14</definedName>
     <definedName name="FEAT_MOVEMENT">Feats!$J$9</definedName>
     <definedName name="FEATS">Feats!$A$2:$L$19</definedName>
     <definedName name="HP">'Character Info'!$B$7</definedName>
@@ -145,6 +150,7 @@
     <definedName name="RANK_LOOKUP" localSheetId="4">Table10[]</definedName>
     <definedName name="RANK_LOOKUP" localSheetId="7">Table10[]</definedName>
     <definedName name="RANK_LOOKUP">Table10[]</definedName>
+    <definedName name="RESISTANCES">Resistances!$A$1:$K$10</definedName>
     <definedName name="SHIELD_TYPE" localSheetId="7">Table1315[#All]</definedName>
     <definedName name="SHIELD_TYPE">Table1315[#All]</definedName>
     <definedName name="SPASH" localSheetId="4">Table12[[#Totals],[Splash]]</definedName>
@@ -170,7 +176,7 @@
     <definedName name="WEAPON_EXPERTISE">Table1218[[#Totals],[Exprt.]]</definedName>
     <definedName name="WEAPON_EXTRAATTACK">Table1218[[#Totals],[Extra 
 Attack]]</definedName>
-    <definedName name="WEAPON_INI">Table1218[[#Totals],[INI]]</definedName>
+    <definedName name="WEAPON_INI">Table1218[[#Totals],[INI2]]</definedName>
     <definedName name="WEAPON_INU">Table1218[[#Totals],[INU]]</definedName>
     <definedName name="WEAPON_MOVEMENT">Table1218[[#Totals],[Mvmt.]]</definedName>
     <definedName name="WEAPON_PER">Table1218[[#Totals],[PER]]</definedName>
@@ -199,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="229">
   <si>
     <t>Weapon Skill</t>
   </si>
@@ -595,9 +601,6 @@
   </si>
   <si>
     <t>Increase your skill when you are an expert</t>
-  </si>
-  <si>
-    <t>Increase your base movement speed</t>
   </si>
   <si>
     <t>Chance to roll for another attack</t>
@@ -818,27 +821,6 @@
     <t>PROFESSION</t>
   </si>
   <si>
-    <t>1d10 + 0</t>
-  </si>
-  <si>
-    <t>+0</t>
-  </si>
-  <si>
-    <t>+0d4</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>+-2ft</t>
-  </si>
-  <si>
-    <t>+2</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
     <t>TotalRank</t>
   </si>
   <si>
@@ -849,6 +831,69 @@
   </si>
   <si>
     <t>Magic</t>
+  </si>
+  <si>
+    <t>Initiative</t>
+  </si>
+  <si>
+    <t>Action Points</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Increase your initiative and decrease your role.</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Increase your base movement speed, the number of feet per 10 INI</t>
+  </si>
+  <si>
+    <t>Custom 1</t>
+  </si>
+  <si>
+    <t>Custom 2</t>
+  </si>
+  <si>
+    <t>Custom 3</t>
+  </si>
+  <si>
+    <t>Custom 4</t>
+  </si>
+  <si>
+    <t>INI Role</t>
+  </si>
+  <si>
+    <t>INI2</t>
+  </si>
+  <si>
+    <t>2-H Warhammer</t>
+  </si>
+  <si>
+    <t>Spear</t>
+  </si>
+  <si>
+    <t>Maul (2-H)</t>
+  </si>
+  <si>
+    <t>Longsword</t>
+  </si>
+  <si>
+    <t>Greataxe</t>
+  </si>
+  <si>
+    <t>Longbow</t>
+  </si>
+  <si>
+    <t>Shortbow</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Wand</t>
   </si>
 </sst>
 </file>
@@ -907,12 +952,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Apple Chancery"/>
-      <family val="4"/>
-    </font>
-    <font>
       <sz val="28"/>
       <color theme="1"/>
       <name val="Apple Chancery"/>
@@ -942,6 +981,12 @@
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Apple Chancery"/>
       <family val="4"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -976,7 +1021,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1320,11 +1365,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1435,13 +1500,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1450,31 +1515,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1492,13 +1557,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1507,16 +1572,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1525,40 +1590,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1568,49 +1633,399 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="270">
+  <dxfs count="274">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="4" tint="0.39994506668294322"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2025,6 +2440,25 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thick">
           <color theme="4" tint="0.39994506668294322"/>
@@ -2102,795 +2536,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thick">
-          <color theme="4" tint="0.39994506668294322"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color theme="4" tint="0.39994506668294322"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3245,372 +2894,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thick">
-          <color theme="4" tint="-0.24994659260841701"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thick">
           <color theme="4" tint="0.39994506668294322"/>
@@ -3640,6 +2923,63 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thick">
           <color theme="4" tint="0.39994506668294322"/>
@@ -3706,6 +3046,739 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="4" tint="0.39994506668294322"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color theme="4" tint="0.39994506668294322"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4058,6 +4131,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4071,12 +4145,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4089,13 +4162,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4117,27 +4189,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -4231,9 +4282,85 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thick">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="-0.24994659260841701"/>
         </left>
         <right/>
         <top/>
@@ -4333,7 +4460,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4347,11 +4473,71 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -6165,72 +6351,88 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{145CBDC0-3D41-0042-9A92-BFAA003FF86C}" name="Table11" displayName="Table11" ref="P2:R43" totalsRowCount="1" headerRowDxfId="218" dataDxfId="219">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{145CBDC0-3D41-0042-9A92-BFAA003FF86C}" name="Table11" displayName="Table11" ref="P2:R43" totalsRowCount="1" headerRowDxfId="222" dataDxfId="223">
   <autoFilter ref="P2:R42" xr:uid="{F3ABECE7-6469-3F43-890B-0963AC8035B5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{65401DCF-9801-AA4F-9D7C-14A36966F4BA}" name="Date" totalsRowLabel="Total" dataDxfId="217" totalsRowDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{D703D096-B658-604D-BDCC-2B29BF766859}" name="XP" totalsRowFunction="sum" dataDxfId="216" totalsRowDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{BE38B662-73B8-B246-A576-1733D777406D}" name="Description" dataDxfId="220" totalsRowDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{65401DCF-9801-AA4F-9D7C-14A36966F4BA}" name="Date" totalsRowLabel="Total" dataDxfId="221" totalsRowDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{D703D096-B658-604D-BDCC-2B29BF766859}" name="XP" totalsRowFunction="sum" dataDxfId="220" totalsRowDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{BE38B662-73B8-B246-A576-1733D777406D}" name="Description" dataDxfId="224" totalsRowDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{78200D4B-54DE-294C-A2EC-E7A9132DE4A6}" name="Table6" displayName="Table6" ref="A1:C15" totalsRowShown="0" headerRowDxfId="243">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{78200D4B-54DE-294C-A2EC-E7A9132DE4A6}" name="Table6" displayName="Table6" ref="A1:C15" totalsRowShown="0" headerRowDxfId="247">
   <autoFilter ref="A1:C15" xr:uid="{155EBD5E-3DA9-7C4C-98B7-91D73ABBCBEA}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AE3CEFB8-A81B-1945-B935-54D9C303AE90}" name="XP" dataDxfId="138"/>
-    <tableColumn id="2" xr3:uid="{BC117F6B-7A72-794E-A7A9-35C1983CB4DB}" name="Level" dataDxfId="139"/>
-    <tableColumn id="3" xr3:uid="{B8412833-42B8-AC4F-8B3F-0E354215D314}" name="Expertise" dataDxfId="140"/>
+    <tableColumn id="1" xr3:uid="{AE3CEFB8-A81B-1945-B935-54D9C303AE90}" name="XP" dataDxfId="153"/>
+    <tableColumn id="2" xr3:uid="{BC117F6B-7A72-794E-A7A9-35C1983CB4DB}" name="Level" dataDxfId="154"/>
+    <tableColumn id="3" xr3:uid="{B8412833-42B8-AC4F-8B3F-0E354215D314}" name="Expertise" dataDxfId="155"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{26ECF4A8-7727-1C46-A7B9-8B557DBD00C1}" name="Table10" displayName="Table10" ref="E1:G14" totalsRowShown="0" headerRowDxfId="236" dataDxfId="235">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{26ECF4A8-7727-1C46-A7B9-8B557DBD00C1}" name="Table10" displayName="Table10" ref="E1:G14" totalsRowShown="0" headerRowDxfId="240" dataDxfId="239">
   <autoFilter ref="E1:G14" xr:uid="{5644FF1C-D713-604E-8E6F-FA601D66BB9F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3666EECD-8766-9142-ADF8-3E0E7512115A}" name="Rank" dataDxfId="239"/>
-    <tableColumn id="2" xr3:uid="{73A0B26C-75CB-ED4F-882C-B1AFE5834235}" name="XP" dataDxfId="238">
+    <tableColumn id="1" xr3:uid="{3666EECD-8766-9142-ADF8-3E0E7512115A}" name="Rank" dataDxfId="243"/>
+    <tableColumn id="2" xr3:uid="{73A0B26C-75CB-ED4F-882C-B1AFE5834235}" name="XP" dataDxfId="242">
       <calculatedColumnFormula>F1+G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{51D4A3E4-3DB9-124B-945D-53E6771F1494}" name="XP_ADD" dataDxfId="237"/>
+    <tableColumn id="3" xr3:uid="{51D4A3E4-3DB9-124B-945D-53E6771F1494}" name="XP_ADD" dataDxfId="241"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4895560C-F7FE-264B-9757-BE94C044D54A}" name="Table13" displayName="Table13" ref="I1:L6" totalsRowShown="0" headerRowDxfId="172">
-  <autoFilter ref="I1:L6" xr:uid="{8133F681-167D-F049-9826-3312B39E818C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4895560C-F7FE-264B-9757-BE94C044D54A}" name="Table13" displayName="Table13" ref="I1:L10" totalsRowShown="0" headerRowDxfId="176">
+  <autoFilter ref="I1:L10" xr:uid="{8133F681-167D-F049-9826-3312B39E818C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{48A52C97-1904-CD46-80EA-064E09AAF69B}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{38C00C01-3C20-6D47-A5EB-F3A7BEAEC051}" name="Armor" dataDxfId="173"/>
-    <tableColumn id="3" xr3:uid="{EE898554-2F74-C149-B88C-AF12B4508BF3}" name="INI" dataDxfId="170"/>
-    <tableColumn id="4" xr3:uid="{F349EE49-F581-BB4C-8F32-35834A1E04BF}" name="Movement" dataDxfId="169"/>
+    <tableColumn id="2" xr3:uid="{38C00C01-3C20-6D47-A5EB-F3A7BEAEC051}" name="Armor" dataDxfId="177"/>
+    <tableColumn id="3" xr3:uid="{EE898554-2F74-C149-B88C-AF12B4508BF3}" name="INI" dataDxfId="174"/>
+    <tableColumn id="4" xr3:uid="{F349EE49-F581-BB4C-8F32-35834A1E04BF}" name="Movement" dataDxfId="173"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B7E950BC-4606-8A49-8B91-DEC3B6A9BAA8}" name="Table1315" displayName="Table1315" ref="O1:S6" totalsRowShown="0" headerRowDxfId="171">
-  <autoFilter ref="O1:S6" xr:uid="{2A1B3E48-F34C-174D-8FBD-7A506A55BF41}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B7E950BC-4606-8A49-8B91-DEC3B6A9BAA8}" name="Table1315" displayName="Table1315" ref="O1:S10" totalsRowShown="0" headerRowDxfId="175">
+  <autoFilter ref="O1:S10" xr:uid="{2A1B3E48-F34C-174D-8FBD-7A506A55BF41}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{94233833-88FD-1A4A-B618-9CFA4BB779D8}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{65FF8683-7DAD-9541-BA3F-72C23BBAA524}" name="Armor" dataDxfId="144"/>
-    <tableColumn id="4" xr3:uid="{0071B3F4-3F31-4840-9341-10D8AB7C1EFB}" name="INI" dataDxfId="143"/>
-    <tableColumn id="5" xr3:uid="{0770FF4B-C599-B144-8E09-19F1C8E836A2}" name="Movement" dataDxfId="142"/>
-    <tableColumn id="6" xr3:uid="{E5FDFDB6-BBF2-DC42-8D85-B230C4C6AECD}" name="Dodge" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{65FF8683-7DAD-9541-BA3F-72C23BBAA524}" name="Armor" dataDxfId="159"/>
+    <tableColumn id="4" xr3:uid="{0071B3F4-3F31-4840-9341-10D8AB7C1EFB}" name="INI" dataDxfId="158"/>
+    <tableColumn id="5" xr3:uid="{0770FF4B-C599-B144-8E09-19F1C8E836A2}" name="Movement" dataDxfId="157"/>
+    <tableColumn id="6" xr3:uid="{E5FDFDB6-BBF2-DC42-8D85-B230C4C6AECD}" name="Dodge" dataDxfId="156"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{A3546F50-DAF2-5C48-8B21-E1774EDED48A}" name="Table18" displayName="Table18" ref="A1:G3" totalsRowCount="1">
+  <autoFilter ref="A1:G2" xr:uid="{AB73435D-1DA5-9D4D-A3C2-6FDD431734AF}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{D3222AC0-22D0-884F-9ACB-057509AFE854}" name="Name" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{599153C8-C04F-1E43-B915-4EFDDAA10575}" name="Type"/>
+    <tableColumn id="3" xr3:uid="{EDEC5936-D857-284D-9D36-956AFDD7675E}" name="Rank"/>
+    <tableColumn id="4" xr3:uid="{82D28D72-C87E-9B4A-8903-1B6710B17B31}" name="Level"/>
+    <tableColumn id="7" xr3:uid="{5BDFB085-66F9-084D-91F0-257513610F8E}" name="Enabled"/>
+    <tableColumn id="5" xr3:uid="{DEE6DAA2-9721-9744-96FC-C77D47077D88}" name="XP"/>
+    <tableColumn id="6" xr3:uid="{6625A40C-80FB-224A-BEEB-A3A7B1CB18A8}" name="Description" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77A7907B-AE9B-314A-992E-E0A4617DC74E}" name="Table1" displayName="Table1" ref="A1:O7" totalsRowCount="1" headerRowDxfId="269" dataDxfId="268">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77A7907B-AE9B-314A-992E-E0A4617DC74E}" name="Table1" displayName="Table1" ref="A1:O7" totalsRowCount="1" headerRowDxfId="273" dataDxfId="272">
   <autoFilter ref="A1:O6" xr:uid="{60B8AEF8-2C69-5B48-9C1A-DCFAB2AD983D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6249,35 +6451,35 @@
     <filterColumn colId="14" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{1782BAF0-6CF8-464E-925A-9A2A96505774}" name="Name" totalsRowLabel="Total XP" dataDxfId="267" totalsRowDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{9BCB48E4-DBE3-5942-8D75-286CC1057954}" name="Code" totalsRowFunction="custom" dataDxfId="266" totalsRowDxfId="110">
+    <tableColumn id="1" xr3:uid="{1782BAF0-6CF8-464E-925A-9A2A96505774}" name="Name" totalsRowLabel="Total XP" dataDxfId="271" totalsRowDxfId="149"/>
+    <tableColumn id="2" xr3:uid="{9BCB48E4-DBE3-5942-8D75-286CC1057954}" name="Code" totalsRowFunction="custom" dataDxfId="270" totalsRowDxfId="148">
       <totalsRowFormula>SUM(Table1[[#Totals],[Bought]:[Expert]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CA9C36A3-6157-BA4C-AA92-67A100D27609}" name="Bought" totalsRowFunction="custom" dataDxfId="265" totalsRowDxfId="109">
+    <tableColumn id="3" xr3:uid="{CA9C36A3-6157-BA4C-AA92-67A100D27609}" name="Bought" totalsRowFunction="custom" dataDxfId="269" totalsRowDxfId="147">
       <totalsRowFormula>COUNTIF(Table1[Bought], "Yes") * 2</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CA0D2A17-FBA4-5E4F-B125-4C070D8788C4}" name="Skilled" totalsRowFunction="custom" dataDxfId="264" totalsRowDxfId="108">
+    <tableColumn id="4" xr3:uid="{CA0D2A17-FBA4-5E4F-B125-4C070D8788C4}" name="Skilled" totalsRowFunction="custom" dataDxfId="268" totalsRowDxfId="146">
       <totalsRowFormula>COUNTIF(Table1[Skilled], "Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A7566064-06E8-8E44-98CD-C54733321306}" name="Expert" totalsRowFunction="custom" dataDxfId="263" totalsRowDxfId="107">
+    <tableColumn id="5" xr3:uid="{A7566064-06E8-8E44-98CD-C54733321306}" name="Expert" totalsRowFunction="custom" dataDxfId="267" totalsRowDxfId="145">
       <totalsRowFormula>COUNTIF(Table1[Expert], "Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2FBFFF7E-FF36-3B4A-B953-C82904D36913}" name="DICE" dataDxfId="262" totalsRowDxfId="106"/>
-    <tableColumn id="8" xr3:uid="{C8BCD9D1-3FE9-3647-A609-5788CD8AB7AD}" name="START" dataDxfId="261" totalsRowDxfId="105"/>
-    <tableColumn id="14" xr3:uid="{6C3C1930-198A-CA42-8563-974CFD7E82BB}" name="RACE" dataDxfId="260" totalsRowDxfId="104"/>
-    <tableColumn id="9" xr3:uid="{22F7BDEA-1AD8-5343-8765-89D3F14F6903}" name="PROF" dataDxfId="242" totalsRowDxfId="103">
+    <tableColumn id="7" xr3:uid="{2FBFFF7E-FF36-3B4A-B953-C82904D36913}" name="DICE" dataDxfId="266" totalsRowDxfId="144"/>
+    <tableColumn id="8" xr3:uid="{C8BCD9D1-3FE9-3647-A609-5788CD8AB7AD}" name="START" dataDxfId="265" totalsRowDxfId="143"/>
+    <tableColumn id="14" xr3:uid="{6C3C1930-198A-CA42-8563-974CFD7E82BB}" name="RACE" dataDxfId="264" totalsRowDxfId="142"/>
+    <tableColumn id="9" xr3:uid="{22F7BDEA-1AD8-5343-8765-89D3F14F6903}" name="PROF" dataDxfId="246" totalsRowDxfId="141">
       <calculatedColumnFormula>VLOOKUP(PROF,Table7[],Table7[[#Headers],[STR]],FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2075AAEA-B6EA-0E43-A822-11D62BB1BE24}" name="EQ." dataDxfId="259" totalsRowDxfId="102"/>
-    <tableColumn id="6" xr3:uid="{0AD5C3C3-BBF8-D24A-B215-5FCDD41C3025}" name="Weapons" dataDxfId="241" totalsRowDxfId="101"/>
-    <tableColumn id="11" xr3:uid="{97BDD625-37C1-2848-8E6B-2AB44DBA88F9}" name="BONUS" dataDxfId="258" totalsRowDxfId="100"/>
-    <tableColumn id="12" xr3:uid="{5E1E8E4D-E523-3C4D-9FE9-AB8CFD8BE3A1}" name="TOTAL" dataDxfId="257" totalsRowDxfId="99">
+    <tableColumn id="10" xr3:uid="{2075AAEA-B6EA-0E43-A822-11D62BB1BE24}" name="EQ." dataDxfId="263" totalsRowDxfId="140"/>
+    <tableColumn id="6" xr3:uid="{0AD5C3C3-BBF8-D24A-B215-5FCDD41C3025}" name="Weapons" dataDxfId="245" totalsRowDxfId="139"/>
+    <tableColumn id="11" xr3:uid="{97BDD625-37C1-2848-8E6B-2AB44DBA88F9}" name="BONUS" dataDxfId="262" totalsRowDxfId="138"/>
+    <tableColumn id="12" xr3:uid="{5E1E8E4D-E523-3C4D-9FE9-AB8CFD8BE3A1}" name="TOTAL" dataDxfId="261" totalsRowDxfId="137">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[START]:[BONUS]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{B331F653-0EE6-C649-97EB-5E84A49DCF84}" name="STAT" dataDxfId="256" totalsRowDxfId="98">
+    <tableColumn id="13" xr3:uid="{B331F653-0EE6-C649-97EB-5E84A49DCF84}" name="STAT" dataDxfId="260" totalsRowDxfId="136">
       <calculatedColumnFormula>ROUNDUP(Table1[[#This Row],[TOTAL]]/10, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{E9A47421-916C-7F48-A22E-F14FB2F5F313}" name="Roll" dataDxfId="137" totalsRowDxfId="97">
+    <tableColumn id="15" xr3:uid="{E9A47421-916C-7F48-A22E-F14FB2F5F313}" name="Roll" dataDxfId="152" totalsRowDxfId="135">
       <calculatedColumnFormula>Table1[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; IF(Table1[[#This Row],[Skilled]] = "Yes",LVL,0) + IF(Table1[[#This Row],[Expert]]="Yes",EXPERTISE,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6286,35 +6488,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95EE0547-B330-BF4F-8608-1382B945C7E0}" name="Table2" displayName="Table2" ref="A1:K35" totalsRowCount="1" headerRowDxfId="255" dataDxfId="254">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95EE0547-B330-BF4F-8608-1382B945C7E0}" name="Table2" displayName="Table2" ref="A1:K35" totalsRowCount="1" headerRowDxfId="259" dataDxfId="258">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{488891F9-A380-104B-B93D-C02458C8FA29}" name="Name" totalsRowLabel="Total" dataDxfId="253" totalsRowDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{93A5AD0F-341D-E245-AF40-3EAD21FC48A0}" name="Statistic" totalsRowFunction="custom" dataDxfId="252" totalsRowDxfId="48">
+    <tableColumn id="1" xr3:uid="{488891F9-A380-104B-B93D-C02458C8FA29}" name="Name" totalsRowLabel="Total" dataDxfId="257" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{93A5AD0F-341D-E245-AF40-3EAD21FC48A0}" name="Statistic" totalsRowFunction="custom" dataDxfId="256" totalsRowDxfId="23">
       <totalsRowFormula>SUM(Table2[[#Totals],[Bought]:[Expert]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FE35E503-2EA7-A343-99C7-C5C5899FC054}" name="Bought" totalsRowFunction="custom" dataDxfId="251" totalsRowDxfId="47">
+    <tableColumn id="3" xr3:uid="{FE35E503-2EA7-A343-99C7-C5C5899FC054}" name="Bought" totalsRowFunction="custom" dataDxfId="255" totalsRowDxfId="22">
       <totalsRowFormula>COUNTIF(Table2[Bought],"Yes") * 2</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{98DF01DF-054B-914B-974E-8AF998FF4E53}" name="Skilled" totalsRowFunction="custom" dataDxfId="250" totalsRowDxfId="46">
+    <tableColumn id="4" xr3:uid="{98DF01DF-054B-914B-974E-8AF998FF4E53}" name="Skilled" totalsRowFunction="custom" dataDxfId="254" totalsRowDxfId="21">
       <totalsRowFormula>COUNTIF(Table2[Skilled],"Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C62BCE48-B5FF-6A47-AA15-86C6BDEC45D6}" name="Professional" totalsRowFunction="custom" dataDxfId="249" totalsRowDxfId="45">
+    <tableColumn id="5" xr3:uid="{C62BCE48-B5FF-6A47-AA15-86C6BDEC45D6}" name="Professional" totalsRowFunction="custom" dataDxfId="253" totalsRowDxfId="20">
       <totalsRowFormula>COUNTIF(Table2[Professional],"Yes") * 4</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D9F29455-4DAB-6A40-8A17-0CA575126A74}" name="Expert" totalsRowFunction="custom" dataDxfId="248" totalsRowDxfId="44">
+    <tableColumn id="6" xr3:uid="{D9F29455-4DAB-6A40-8A17-0CA575126A74}" name="Expert" totalsRowFunction="custom" dataDxfId="252" totalsRowDxfId="19">
       <totalsRowFormula>COUNTIF(Table2[Skilled],"Yes") * 5</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D32EF9E9-A539-8B41-871A-B89EA355F651}" name="DICE" dataDxfId="247" totalsRowDxfId="43">
+    <tableColumn id="8" xr3:uid="{D32EF9E9-A539-8B41-871A-B89EA355F651}" name="DICE" dataDxfId="251" totalsRowDxfId="18">
       <calculatedColumnFormula>IF(C2="Yes","1d20","1d10")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C1A4C07D-E510-A944-A562-B1C910EB2898}" name="STAT" dataDxfId="240" totalsRowDxfId="42">
+    <tableColumn id="9" xr3:uid="{C1A4C07D-E510-A944-A562-B1C910EB2898}" name="STAT" dataDxfId="244" totalsRowDxfId="17">
       <calculatedColumnFormula>IF(Table2[[#This Row],[Skilled]] = "YES",VLOOKUP(Table2[[#This Row],[Statistic]],Table1[[Code]:[STAT]],13,FALSE), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0B24A7B2-5A09-214A-A140-1714C5D361A4}" name="LEVEL" dataDxfId="244" totalsRowDxfId="41">
+    <tableColumn id="10" xr3:uid="{0B24A7B2-5A09-214A-A140-1714C5D361A4}" name="LEVEL" dataDxfId="248" totalsRowDxfId="16">
       <calculatedColumnFormula>IF(Table2[[#This Row],[Professional]]="Yes",LVL,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{356CD671-6933-4E45-8BBD-9402E92B4106}" name="EXP." dataDxfId="246" totalsRowDxfId="40"/>
-    <tableColumn id="12" xr3:uid="{28D63D3F-7CDE-BD4A-8D01-F7FC776D2F9A}" name="TOTAL" dataDxfId="245" totalsRowDxfId="39">
+    <tableColumn id="11" xr3:uid="{356CD671-6933-4E45-8BBD-9402E92B4106}" name="EXP." dataDxfId="250" totalsRowDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{28D63D3F-7CDE-BD4A-8D01-F7FC776D2F9A}" name="TOTAL" dataDxfId="249" totalsRowDxfId="14">
       <calculatedColumnFormula>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H2:J2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6323,35 +6525,35 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3AD258F9-46CB-0748-BE8B-849C3A884EB8}" name="Table217" displayName="Table217" ref="A1:K17" totalsRowCount="1" headerRowDxfId="168" dataDxfId="167">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3AD258F9-46CB-0748-BE8B-849C3A884EB8}" name="Table217" displayName="Table217" ref="A1:K17" totalsRowCount="1" headerRowDxfId="172" dataDxfId="171">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{87BB9924-DBC9-8B4C-98A3-1C64069A7F16}" name="Name" totalsRowLabel="Total" dataDxfId="166" totalsRowDxfId="155"/>
-    <tableColumn id="2" xr3:uid="{C7B0EDCD-3736-3443-8494-C77B335F22CF}" name="Statistic" totalsRowFunction="custom" dataDxfId="165" totalsRowDxfId="154">
+    <tableColumn id="1" xr3:uid="{87BB9924-DBC9-8B4C-98A3-1C64069A7F16}" name="Name" totalsRowLabel="Total" dataDxfId="170" totalsRowDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{C7B0EDCD-3736-3443-8494-C77B335F22CF}" name="Statistic" totalsRowFunction="custom" dataDxfId="169" totalsRowDxfId="89">
       <totalsRowFormula>SUM(Table217[[#Totals],[Bought]:[Expert]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DB3431C6-D27C-1F4F-A527-26C5173FD0AF}" name="Bought" totalsRowFunction="custom" dataDxfId="164" totalsRowDxfId="153">
+    <tableColumn id="3" xr3:uid="{DB3431C6-D27C-1F4F-A527-26C5173FD0AF}" name="Bought" totalsRowFunction="custom" dataDxfId="168" totalsRowDxfId="88">
       <totalsRowFormula>COUNTIF(Table217[Bought],"Yes") * 2</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16801E44-9587-1F43-A05D-A6A621B7D92E}" name="Skilled" totalsRowFunction="custom" dataDxfId="163" totalsRowDxfId="152">
+    <tableColumn id="4" xr3:uid="{16801E44-9587-1F43-A05D-A6A621B7D92E}" name="Skilled" totalsRowFunction="custom" dataDxfId="167" totalsRowDxfId="87">
       <totalsRowFormula>COUNTIF(Table217[Skilled],"Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{831CD727-7203-A442-90B2-7454C8FF3483}" name="Professional" totalsRowFunction="custom" dataDxfId="162" totalsRowDxfId="151">
+    <tableColumn id="5" xr3:uid="{831CD727-7203-A442-90B2-7454C8FF3483}" name="Professional" totalsRowFunction="custom" dataDxfId="166" totalsRowDxfId="86">
       <totalsRowFormula>COUNTIF(Table217[Professional],"Yes") * 4</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{29019F01-4B37-FD41-BF61-39E9F80E0220}" name="Expert" totalsRowFunction="custom" dataDxfId="161" totalsRowDxfId="150">
+    <tableColumn id="6" xr3:uid="{29019F01-4B37-FD41-BF61-39E9F80E0220}" name="Expert" totalsRowFunction="custom" dataDxfId="165" totalsRowDxfId="85">
       <totalsRowFormula>COUNTIF(Table217[Skilled],"Yes") * 5</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9DA99A80-D4A2-7245-9FF6-F208EE342709}" name="DICE" dataDxfId="160" totalsRowDxfId="149">
+    <tableColumn id="8" xr3:uid="{9DA99A80-D4A2-7245-9FF6-F208EE342709}" name="DICE" dataDxfId="164" totalsRowDxfId="84">
       <calculatedColumnFormula>IF(C2="Yes","1d20","1d10")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C3CB34DA-A904-9C4B-8C33-222761B6D7D2}" name="STAT" dataDxfId="159" totalsRowDxfId="148">
+    <tableColumn id="9" xr3:uid="{C3CB34DA-A904-9C4B-8C33-222761B6D7D2}" name="STAT" dataDxfId="163" totalsRowDxfId="83">
       <calculatedColumnFormula>IF(Table217[[#This Row],[Skilled]] = "YES",VLOOKUP(Table217[[#This Row],[Statistic]],Table1[[Code]:[STAT]],13,FALSE), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{AA0D7124-EB80-8D45-8B3A-B710D5C942D2}" name="LEVEL" dataDxfId="158" totalsRowDxfId="147">
+    <tableColumn id="10" xr3:uid="{AA0D7124-EB80-8D45-8B3A-B710D5C942D2}" name="LEVEL" dataDxfId="162" totalsRowDxfId="82">
       <calculatedColumnFormula>IF(Table217[[#This Row],[Professional]]="Yes",LVL,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6DA8214E-CFCE-1F48-9C1E-1466DBBCA419}" name="EXP." dataDxfId="157" totalsRowDxfId="146"/>
-    <tableColumn id="12" xr3:uid="{44A80818-EE79-AD41-B43E-D9EA1EB5457F}" name="TOTAL" dataDxfId="156" totalsRowDxfId="145">
+    <tableColumn id="11" xr3:uid="{6DA8214E-CFCE-1F48-9C1E-1466DBBCA419}" name="EXP." dataDxfId="161" totalsRowDxfId="81"/>
+    <tableColumn id="12" xr3:uid="{44A80818-EE79-AD41-B43E-D9EA1EB5457F}" name="TOTAL" dataDxfId="160" totalsRowDxfId="80">
       <calculatedColumnFormula>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H2:J2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6360,24 +6562,24 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9BF8CF78-37C6-3445-BBF5-327B62B15019}" name="Table9" displayName="Table9" ref="A1:L19" totalsRowShown="0" headerRowDxfId="223" dataDxfId="222">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9BF8CF78-37C6-3445-BBF5-327B62B15019}" name="Table9" displayName="Table9" ref="A1:L19" totalsRowShown="0" headerRowDxfId="227" dataDxfId="226">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{AAE218F1-975D-6E4D-A78F-7D9CFE3F2D85}" name="Name" dataDxfId="234"/>
-    <tableColumn id="2" xr3:uid="{D6530EC6-244B-1342-B158-F1BF3AB28116}" name="Rank" dataDxfId="233"/>
-    <tableColumn id="3" xr3:uid="{06E3316B-0582-394A-BC3E-83FCA17E3605}" name="Weapon" dataDxfId="232"/>
-    <tableColumn id="12" xr3:uid="{DFE40438-CA22-3D44-8C0F-517F5D131F5B}" name="Equip." dataDxfId="221"/>
-    <tableColumn id="4" xr3:uid="{D4781ED7-4593-8541-BEFE-6294607C35A6}" name="Special" dataDxfId="231"/>
-    <tableColumn id="10" xr3:uid="{F3DF0F91-E598-724D-9337-DE5DFBDAB49E}" name="TotalRank" dataDxfId="230">
+    <tableColumn id="1" xr3:uid="{AAE218F1-975D-6E4D-A78F-7D9CFE3F2D85}" name="Name" dataDxfId="238"/>
+    <tableColumn id="2" xr3:uid="{D6530EC6-244B-1342-B158-F1BF3AB28116}" name="Rank" dataDxfId="237"/>
+    <tableColumn id="3" xr3:uid="{06E3316B-0582-394A-BC3E-83FCA17E3605}" name="Weapon" dataDxfId="236"/>
+    <tableColumn id="12" xr3:uid="{DFE40438-CA22-3D44-8C0F-517F5D131F5B}" name="Equip." dataDxfId="225"/>
+    <tableColumn id="4" xr3:uid="{D4781ED7-4593-8541-BEFE-6294607C35A6}" name="Special" dataDxfId="235"/>
+    <tableColumn id="10" xr3:uid="{F3DF0F91-E598-724D-9337-DE5DFBDAB49E}" name="TotalRank" dataDxfId="234">
       <calculatedColumnFormula>SUM(Table9[[#This Row],[Rank]:[Special]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0D510646-E339-4D49-AC64-0E9893C8F3DB}" name="Factor" dataDxfId="229"/>
-    <tableColumn id="6" xr3:uid="{7B2CF3F3-396A-4840-8DAE-8804AB543E30}" name="Prefix" dataDxfId="228"/>
-    <tableColumn id="7" xr3:uid="{83E2A74F-B858-6946-B767-CA721DD0DE12}" name="Postfix" dataDxfId="227"/>
-    <tableColumn id="11" xr3:uid="{ADBF929F-A437-7A42-B5EE-CA1C4C9D4880}" name="CALC" dataDxfId="226"/>
-    <tableColumn id="8" xr3:uid="{0BF9FD32-BE0B-AC4D-B2C3-0AE1CD340401}" name="Result" dataDxfId="225">
+    <tableColumn id="5" xr3:uid="{0D510646-E339-4D49-AC64-0E9893C8F3DB}" name="Factor" dataDxfId="233"/>
+    <tableColumn id="6" xr3:uid="{7B2CF3F3-396A-4840-8DAE-8804AB543E30}" name="Prefix" dataDxfId="232"/>
+    <tableColumn id="7" xr3:uid="{83E2A74F-B858-6946-B767-CA721DD0DE12}" name="Postfix" dataDxfId="231"/>
+    <tableColumn id="11" xr3:uid="{ADBF929F-A437-7A42-B5EE-CA1C4C9D4880}" name="CALC" dataDxfId="230"/>
+    <tableColumn id="8" xr3:uid="{0BF9FD32-BE0B-AC4D-B2C3-0AE1CD340401}" name="Result" dataDxfId="229">
       <calculatedColumnFormula>Table9[[#This Row],[Prefix]] &amp; SUM(Table9[[#This Row],[Rank]:[Special]])*Table9[[#This Row],[Factor]] &amp; Table9[[#This Row],[Postfix]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0D1C4892-DA2B-BC49-8BD4-B5FF578B67AD}" name="XP" dataDxfId="224">
+    <tableColumn id="9" xr3:uid="{0D1C4892-DA2B-BC49-8BD4-B5FF578B67AD}" name="XP" dataDxfId="228">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table9[[#This Row],[Rank]],RANK_LOOKUP,2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6386,139 +6588,143 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AE27B7B0-F0E3-E243-8EFB-88A5ADED5F80}" name="Table12" displayName="Table12" ref="A2:V22" totalsRowCount="1" headerRowDxfId="174" dataDxfId="175">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AE27B7B0-F0E3-E243-8EFB-88A5ADED5F80}" name="Table12" displayName="Table12" ref="A2:V22" totalsRowCount="1" headerRowDxfId="178" dataDxfId="179">
   <autoFilter ref="A2:V21" xr:uid="{B162921F-791F-624A-81ED-6E2D19AD3439}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{D6AFC6F4-56C5-B94E-AAD7-C07A92ACC04B}" name="Location" totalsRowLabel="Total" dataDxfId="96" totalsRowDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{6EC0F666-8D61-D644-BCAC-A4117F1781F2}" name="Name" dataDxfId="95" totalsRowDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{FDC3F4BD-A2FD-6648-8EE1-D8B4F6108857}" name="Enabled" dataDxfId="94" totalsRowDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{6BD01D3C-E517-274F-87F1-974D9398BA72}" name="DMG" totalsRowFunction="custom" dataDxfId="93" totalsRowDxfId="71">
+    <tableColumn id="1" xr3:uid="{D6AFC6F4-56C5-B94E-AAD7-C07A92ACC04B}" name="Location" totalsRowLabel="Total" dataDxfId="134" totalsRowDxfId="112"/>
+    <tableColumn id="2" xr3:uid="{6EC0F666-8D61-D644-BCAC-A4117F1781F2}" name="Name" dataDxfId="133" totalsRowDxfId="111"/>
+    <tableColumn id="3" xr3:uid="{FDC3F4BD-A2FD-6648-8EE1-D8B4F6108857}" name="Enabled" dataDxfId="132" totalsRowDxfId="110"/>
+    <tableColumn id="4" xr3:uid="{6BD01D3C-E517-274F-87F1-974D9398BA72}" name="DMG" totalsRowFunction="custom" dataDxfId="131" totalsRowDxfId="109">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1E15D738-D79A-244C-851E-E57C038AF8E0}" name="Stamina" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="70">
+    <tableColumn id="5" xr3:uid="{1E15D738-D79A-244C-851E-E57C038AF8E0}" name="Stamina" totalsRowFunction="custom" dataDxfId="130" totalsRowDxfId="108">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Stamina])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4356B910-7F96-084F-A9BD-24B81A1D65C2}" name="Crit" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="69">
+    <tableColumn id="6" xr3:uid="{4356B910-7F96-084F-A9BD-24B81A1D65C2}" name="Crit" totalsRowFunction="custom" dataDxfId="129" totalsRowDxfId="107">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Stamina])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{34D53967-FE59-F548-9D59-EBF5A5FF3B80}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="90" totalsRowDxfId="68">
+    <tableColumn id="7" xr3:uid="{34D53967-FE59-F548-9D59-EBF5A5FF3B80}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="128" totalsRowDxfId="106">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Crit DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D37EF853-D2F7-214A-83D0-086F59F00DC8}" name="Splash" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="67">
+    <tableColumn id="8" xr3:uid="{D37EF853-D2F7-214A-83D0-086F59F00DC8}" name="Splash" totalsRowFunction="custom" dataDxfId="127" totalsRowDxfId="105">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Splash])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5DE5E55B-8076-214A-88F0-165C9D5589AB}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="66">
+    <tableColumn id="9" xr3:uid="{5DE5E55B-8076-214A-88F0-165C9D5589AB}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="126" totalsRowDxfId="104">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Splash 
 DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1CB3B9C9-B073-D24E-A036-62CB1C097282}" name="Exprt." totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="65">
+    <tableColumn id="10" xr3:uid="{1CB3B9C9-B073-D24E-A036-62CB1C097282}" name="Exprt." totalsRowFunction="custom" dataDxfId="125" totalsRowDxfId="103">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Exprt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{80F0809C-2100-2247-9ADB-01576F8CA19B}" name="Mvmt." totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="64">
+    <tableColumn id="11" xr3:uid="{80F0809C-2100-2247-9ADB-01576F8CA19B}" name="Mvmt." totalsRowFunction="custom" dataDxfId="124" totalsRowDxfId="102">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Mvmt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{100B3365-5937-EA45-886B-E3DFD195C5B2}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="63">
+    <tableColumn id="12" xr3:uid="{100B3365-5937-EA45-886B-E3DFD195C5B2}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="101">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Extra 
 Attack])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{5594E278-21E8-A14C-ADBC-E8B9C800F93B}" name="Armor" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="62">
+    <tableColumn id="13" xr3:uid="{5594E278-21E8-A14C-ADBC-E8B9C800F93B}" name="Armor" totalsRowFunction="custom" dataDxfId="122" totalsRowDxfId="100">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Armor])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{CB23327D-EFF8-A342-A9DE-65E1B7BC4BE3}" name="Aura" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="61">
+    <tableColumn id="14" xr3:uid="{CB23327D-EFF8-A342-A9DE-65E1B7BC4BE3}" name="Aura" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="99">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Aura])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B0438D6C-EBB6-7D45-9116-94CBEFB8D439}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="60">
+    <tableColumn id="15" xr3:uid="{B0438D6C-EBB6-7D45-9116-94CBEFB8D439}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="120" totalsRowDxfId="98">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Directed Strike])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{0C0196AE-E23B-644F-8625-5FFF406E7239}" name="INI" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="59">
+    <tableColumn id="16" xr3:uid="{0C0196AE-E23B-644F-8625-5FFF406E7239}" name="INI" totalsRowFunction="custom" dataDxfId="119" totalsRowDxfId="97">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[INI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{0CE5E91F-F441-3541-ACBF-9B6E8F3D32BE}" name="STR" totalsRowFunction="custom" dataDxfId="80" totalsRowDxfId="58">
+    <tableColumn id="17" xr3:uid="{0CE5E91F-F441-3541-ACBF-9B6E8F3D32BE}" name="STR" totalsRowFunction="custom" dataDxfId="118" totalsRowDxfId="96">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[STR])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{CE0B6C3F-7775-4E44-8CAD-EB5E7ED373D8}" name="AGI" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="57">
+    <tableColumn id="18" xr3:uid="{CE0B6C3F-7775-4E44-8CAD-EB5E7ED373D8}" name="AGI" totalsRowFunction="custom" dataDxfId="117" totalsRowDxfId="95">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[AGI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{DD3C9C3F-31EB-7F48-83CE-9607AADE61CE}" name="INU" totalsRowFunction="custom" dataDxfId="78" totalsRowDxfId="56">
+    <tableColumn id="19" xr3:uid="{DD3C9C3F-31EB-7F48-83CE-9607AADE61CE}" name="INU" totalsRowFunction="custom" dataDxfId="116" totalsRowDxfId="94">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[INU])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{93C1F38D-CC0D-9F4E-AFB2-B3B60FA2E230}" name="CHA" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="55">
+    <tableColumn id="20" xr3:uid="{93C1F38D-CC0D-9F4E-AFB2-B3B60FA2E230}" name="CHA" totalsRowFunction="custom" dataDxfId="115" totalsRowDxfId="93">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[CHA])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{86EE74A2-267E-5244-ADE0-325523D5DAF0}" name="PER" totalsRowFunction="custom" dataDxfId="76" totalsRowDxfId="54">
+    <tableColumn id="21" xr3:uid="{86EE74A2-267E-5244-ADE0-325523D5DAF0}" name="PER" totalsRowFunction="custom" dataDxfId="114" totalsRowDxfId="92">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[PER])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{DBC245A7-FD67-824A-B01B-CDA3F14F2832}" name="Description" dataDxfId="75" totalsRowDxfId="53"/>
+    <tableColumn id="23" xr3:uid="{DBC245A7-FD67-824A-B01B-CDA3F14F2832}" name="Description" dataDxfId="113" totalsRowDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{AF77A677-2D80-6443-A05D-655858194459}" name="Table1218" displayName="Table1218" ref="A2:X22" totalsRowCount="1" headerRowDxfId="136" dataDxfId="135">
-  <autoFilter ref="A2:X21" xr:uid="{B162921F-791F-624A-81ED-6E2D19AD3439}"/>
-  <tableColumns count="24">
-    <tableColumn id="2" xr3:uid="{E56D130D-99FD-2946-944B-A51CABD832AC}" name="Name" dataDxfId="134" totalsRowDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{BC699B2A-E436-DD44-83B3-3C0AAF24FC76}" name="Enabled" dataDxfId="133" totalsRowDxfId="22"/>
-    <tableColumn id="25" xr3:uid="{DE34C382-31A8-114A-B47A-484AE873AF1F}" name="Type" dataDxfId="24" totalsRowDxfId="21"/>
-    <tableColumn id="24" xr3:uid="{8B9165EA-408B-0644-BD6C-7AF334F6ACD8}" name="#" dataDxfId="112" totalsRowDxfId="20"/>
-    <tableColumn id="23" xr3:uid="{ECE39BFF-43E4-2240-9FE3-1B3C6A2CD436}" name="Dice" dataDxfId="114" totalsRowDxfId="19"/>
-    <tableColumn id="22" xr3:uid="{E209AE0C-255B-2449-B26F-DEE2F0E8CF23}" name="Constant" dataDxfId="115" totalsRowDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{B47ADA7A-75BF-8845-B1F4-51CE35E67214}" name="DMG" totalsRowFunction="custom" dataDxfId="113" totalsRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{AF77A677-2D80-6443-A05D-655858194459}" name="Table1218" displayName="Table1218" ref="A2:Z22" totalsRowCount="1" headerRowDxfId="151" dataDxfId="150">
+  <autoFilter ref="A2:Z21" xr:uid="{B162921F-791F-624A-81ED-6E2D19AD3439}"/>
+  <tableColumns count="26">
+    <tableColumn id="2" xr3:uid="{E56D130D-99FD-2946-944B-A51CABD832AC}" name="Name" dataDxfId="76" totalsRowDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{BC699B2A-E436-DD44-83B3-3C0AAF24FC76}" name="Enabled" dataDxfId="75" totalsRowDxfId="49"/>
+    <tableColumn id="25" xr3:uid="{DE34C382-31A8-114A-B47A-484AE873AF1F}" name="Type" dataDxfId="74" totalsRowDxfId="48"/>
+    <tableColumn id="24" xr3:uid="{8B9165EA-408B-0644-BD6C-7AF334F6ACD8}" name="#" dataDxfId="73" totalsRowDxfId="47"/>
+    <tableColumn id="23" xr3:uid="{ECE39BFF-43E4-2240-9FE3-1B3C6A2CD436}" name="Dice" dataDxfId="72" totalsRowDxfId="46"/>
+    <tableColumn id="26" xr3:uid="{3AA6F904-F0B0-9449-8DDC-3027E3A4BE30}" name="Constant" dataDxfId="71" totalsRowDxfId="45"/>
+    <tableColumn id="22" xr3:uid="{E209AE0C-255B-2449-B26F-DEE2F0E8CF23}" name="INI" dataDxfId="70" totalsRowDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{B47ADA7A-75BF-8845-B1F4-51CE35E67214}" name="DMG" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="43">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A56869D3-EF92-704B-9000-BD3D1B486A75}" name="Stamina" totalsRowFunction="custom" dataDxfId="132" totalsRowDxfId="16">
+    <tableColumn id="5" xr3:uid="{A56869D3-EF92-704B-9000-BD3D1B486A75}" name="Stamina" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="42">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Stamina])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4399BDD2-0759-9445-AC6C-05B3B499C492}" name="Crit" totalsRowFunction="custom" dataDxfId="131" totalsRowDxfId="15">
+    <tableColumn id="6" xr3:uid="{4399BDD2-0759-9445-AC6C-05B3B499C492}" name="Crit" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="41">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Stamina])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D6B38714-0E9C-D649-BFE5-49596BA9BF1C}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="130" totalsRowDxfId="14">
+    <tableColumn id="7" xr3:uid="{D6B38714-0E9C-D649-BFE5-49596BA9BF1C}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="40">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Crit DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9519CA17-112B-224B-952F-51AC027496F6}" name="Splash" totalsRowFunction="custom" dataDxfId="129" totalsRowDxfId="13">
+    <tableColumn id="8" xr3:uid="{9519CA17-112B-224B-952F-51AC027496F6}" name="Splash" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="39">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Splash])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{429CA498-92FA-A74E-BC4B-6663D9D8CABA}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="128" totalsRowDxfId="12">
+    <tableColumn id="9" xr3:uid="{429CA498-92FA-A74E-BC4B-6663D9D8CABA}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="38">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Splash 
 DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{37D7FA16-18E2-6842-926B-EFE8BBF1B1DF}" name="Exprt." totalsRowFunction="custom" dataDxfId="127" totalsRowDxfId="11">
+    <tableColumn id="10" xr3:uid="{37D7FA16-18E2-6842-926B-EFE8BBF1B1DF}" name="Exprt." totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="37">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Exprt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{25A44E44-0A05-AC4D-8AB4-EE74A0BFFAED}" name="Mvmt." totalsRowFunction="custom" dataDxfId="126" totalsRowDxfId="10">
+    <tableColumn id="11" xr3:uid="{25A44E44-0A05-AC4D-8AB4-EE74A0BFFAED}" name="Mvmt." totalsRowFunction="custom" dataDxfId="62" totalsRowDxfId="36">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Mvmt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{9162589E-4452-B14F-84BF-BA8ADF153104}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="125" totalsRowDxfId="9">
+    <tableColumn id="12" xr3:uid="{9162589E-4452-B14F-84BF-BA8ADF153104}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="35">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Extra 
 Attack])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{76EB8C7B-5213-1A46-B243-DA8120143C97}" name="Armor" totalsRowFunction="custom" dataDxfId="124" totalsRowDxfId="8">
+    <tableColumn id="13" xr3:uid="{76EB8C7B-5213-1A46-B243-DA8120143C97}" name="Armor" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="34">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Armor])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{7694EA49-563E-1E43-AAAE-55BA11A1C48C}" name="Aura" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="7">
+    <tableColumn id="14" xr3:uid="{7694EA49-563E-1E43-AAAE-55BA11A1C48C}" name="Aura" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="33">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Aura])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{8C961621-41FF-2948-9B22-39E0CDEE8A7E}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="122" totalsRowDxfId="6">
+    <tableColumn id="15" xr3:uid="{8C961621-41FF-2948-9B22-39E0CDEE8A7E}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="32">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Directed Strike])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{C1A5919F-5B4B-C442-8BBB-F57C37FB2FEE}" name="INI" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="5">
-      <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[INI])</totalsRowFormula>
+    <tableColumn id="16" xr3:uid="{C1A5919F-5B4B-C442-8BBB-F57C37FB2FEE}" name="INI2" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="31">
+      <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[INI2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{93F7A8DA-DC28-864F-8239-7E93AD5F7188}" name="STR" totalsRowFunction="custom" dataDxfId="120" totalsRowDxfId="4">
+    <tableColumn id="17" xr3:uid="{93F7A8DA-DC28-864F-8239-7E93AD5F7188}" name="STR" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="30">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[STR])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{5E33A6F3-45E5-B14F-8A37-AE470CDA5006}" name="AGI" totalsRowFunction="custom" dataDxfId="119" totalsRowDxfId="3">
+    <tableColumn id="18" xr3:uid="{5E33A6F3-45E5-B14F-8A37-AE470CDA5006}" name="AGI" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="29">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[AGI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{47674090-5365-2D4F-B2B6-FA5831CE6013}" name="INU" totalsRowFunction="custom" dataDxfId="118" totalsRowDxfId="2">
+    <tableColumn id="19" xr3:uid="{47674090-5365-2D4F-B2B6-FA5831CE6013}" name="INU" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="28">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[INU])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{180A191A-7E92-F146-BDD6-AFE6A0673A36}" name="CHA" totalsRowFunction="custom" dataDxfId="117" totalsRowDxfId="1">
+    <tableColumn id="20" xr3:uid="{180A191A-7E92-F146-BDD6-AFE6A0673A36}" name="CHA" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="27">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[CHA])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{66B45B9E-7117-9F4B-9D86-B2A72231074D}" name="PER" totalsRowFunction="custom" dataDxfId="116" totalsRowDxfId="0">
+    <tableColumn id="21" xr3:uid="{66B45B9E-7117-9F4B-9D86-B2A72231074D}" name="PER" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="26">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[PER])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="27" xr3:uid="{D8540632-FC51-0D4F-8B9C-2BD5CF3D48BD}" name="Result" dataDxfId="51" totalsRowDxfId="25">
+      <calculatedColumnFormula>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] + IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) + FEAT_DMG</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6526,54 +6732,54 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2E8E73B-2220-B14A-B34D-B2A2D31C87D8}" name="Table79" displayName="Table79" ref="A1:R33" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2E8E73B-2220-B14A-B34D-B2A2D31C87D8}" name="Table79" displayName="Table79" ref="A1:R33" totalsRowShown="0" headerRowDxfId="201" dataDxfId="200">
   <autoFilter ref="A1:R33" xr:uid="{9A133D1A-1408-9A4D-B1A8-016FBFDDF397}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{8A7DFF72-A39A-0242-878A-A43522EFE24F}" name="Name" dataDxfId="215"/>
-    <tableColumn id="2" xr3:uid="{1E867DD1-2259-0F42-8DE6-24E3B57FB023}" name="STR" dataDxfId="214"/>
-    <tableColumn id="3" xr3:uid="{8B62FCC6-44AF-3745-9B75-FB2CB998E35C}" name="AGI" dataDxfId="213"/>
-    <tableColumn id="4" xr3:uid="{A2E15CA6-9E2A-1344-A6EF-BEDA148248DE}" name="INU" dataDxfId="212"/>
-    <tableColumn id="18" xr3:uid="{403E2468-C5FB-E940-8CC9-FA9C085C6CA2}" name="CHA" dataDxfId="211"/>
-    <tableColumn id="5" xr3:uid="{6997B2AE-7002-964B-8C6B-EF465FAF82EA}" name="PER" dataDxfId="210"/>
-    <tableColumn id="6" xr3:uid="{052C7C9D-EB8C-4640-8FD3-30EDB4571A40}" name="HP Factor" dataDxfId="209"/>
-    <tableColumn id="7" xr3:uid="{CB645AD0-0F06-3B43-B1B3-E6D435FC9BBC}" name="XP" dataDxfId="208"/>
-    <tableColumn id="8" xr3:uid="{187B0803-25C6-8643-B93A-30A61D579311}" name="Column2" dataDxfId="207"/>
-    <tableColumn id="9" xr3:uid="{D5FA0FDA-C465-914B-9F10-275BED958455}" name="Column3" dataDxfId="206"/>
-    <tableColumn id="10" xr3:uid="{E91B6F4A-B437-F54C-B449-1103036C5B36}" name="Column4" dataDxfId="205"/>
-    <tableColumn id="11" xr3:uid="{916C933F-3F60-A640-86EB-CA547F95B9D7}" name="Column5" dataDxfId="204"/>
-    <tableColumn id="12" xr3:uid="{C2E89ECD-3CE6-DF4A-8BED-C99396B26E38}" name="Column6" dataDxfId="203"/>
-    <tableColumn id="13" xr3:uid="{584B2452-4E2B-914C-AEF2-657C6BD496DB}" name="Column7" dataDxfId="202"/>
-    <tableColumn id="14" xr3:uid="{ACFF4731-2977-724C-BEA0-BF0E750D4D37}" name="Column8" dataDxfId="201"/>
-    <tableColumn id="15" xr3:uid="{13FA1501-6896-C04C-AC18-9E866978A015}" name="Column9" dataDxfId="200"/>
-    <tableColumn id="16" xr3:uid="{8673696E-720C-DF47-836C-C07175E535C6}" name="Column10" dataDxfId="199"/>
-    <tableColumn id="17" xr3:uid="{2177733D-A9EC-574A-81A2-DCB7E8D34927}" name="Column11" dataDxfId="198"/>
+    <tableColumn id="1" xr3:uid="{8A7DFF72-A39A-0242-878A-A43522EFE24F}" name="Name" dataDxfId="219"/>
+    <tableColumn id="2" xr3:uid="{1E867DD1-2259-0F42-8DE6-24E3B57FB023}" name="STR" dataDxfId="218"/>
+    <tableColumn id="3" xr3:uid="{8B62FCC6-44AF-3745-9B75-FB2CB998E35C}" name="AGI" dataDxfId="217"/>
+    <tableColumn id="4" xr3:uid="{A2E15CA6-9E2A-1344-A6EF-BEDA148248DE}" name="INU" dataDxfId="216"/>
+    <tableColumn id="18" xr3:uid="{403E2468-C5FB-E940-8CC9-FA9C085C6CA2}" name="CHA" dataDxfId="215"/>
+    <tableColumn id="5" xr3:uid="{6997B2AE-7002-964B-8C6B-EF465FAF82EA}" name="PER" dataDxfId="214"/>
+    <tableColumn id="6" xr3:uid="{052C7C9D-EB8C-4640-8FD3-30EDB4571A40}" name="HP Factor" dataDxfId="213"/>
+    <tableColumn id="7" xr3:uid="{CB645AD0-0F06-3B43-B1B3-E6D435FC9BBC}" name="XP" dataDxfId="212"/>
+    <tableColumn id="8" xr3:uid="{187B0803-25C6-8643-B93A-30A61D579311}" name="Column2" dataDxfId="211"/>
+    <tableColumn id="9" xr3:uid="{D5FA0FDA-C465-914B-9F10-275BED958455}" name="Column3" dataDxfId="210"/>
+    <tableColumn id="10" xr3:uid="{E91B6F4A-B437-F54C-B449-1103036C5B36}" name="Column4" dataDxfId="209"/>
+    <tableColumn id="11" xr3:uid="{916C933F-3F60-A640-86EB-CA547F95B9D7}" name="Column5" dataDxfId="208"/>
+    <tableColumn id="12" xr3:uid="{C2E89ECD-3CE6-DF4A-8BED-C99396B26E38}" name="Column6" dataDxfId="207"/>
+    <tableColumn id="13" xr3:uid="{584B2452-4E2B-914C-AEF2-657C6BD496DB}" name="Column7" dataDxfId="206"/>
+    <tableColumn id="14" xr3:uid="{ACFF4731-2977-724C-BEA0-BF0E750D4D37}" name="Column8" dataDxfId="205"/>
+    <tableColumn id="15" xr3:uid="{13FA1501-6896-C04C-AC18-9E866978A015}" name="Column9" dataDxfId="204"/>
+    <tableColumn id="16" xr3:uid="{8673696E-720C-DF47-836C-C07175E535C6}" name="Column10" dataDxfId="203"/>
+    <tableColumn id="17" xr3:uid="{2177733D-A9EC-574A-81A2-DCB7E8D34927}" name="Column11" dataDxfId="202"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{172D7A85-ACEB-9F45-BDE6-0764A63BAFE0}" name="Table7" displayName="Table7" ref="A1:R58" totalsRowShown="0" headerRowDxfId="177" dataDxfId="176">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{172D7A85-ACEB-9F45-BDE6-0764A63BAFE0}" name="Table7" displayName="Table7" ref="A1:R58" totalsRowShown="0" headerRowDxfId="181" dataDxfId="180">
   <autoFilter ref="A1:R58" xr:uid="{BA70A05F-D1C9-EC47-8CA4-A9B304C93060}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{98665492-075C-D44B-8EDA-A52F37F4C96E}" name="Name" dataDxfId="195"/>
-    <tableColumn id="2" xr3:uid="{73639F93-F9BF-204E-AEC8-CAA30EB8D6B5}" name="STR" dataDxfId="194"/>
-    <tableColumn id="3" xr3:uid="{6B9E0521-C50E-264F-9593-C1F9E4D23715}" name="AGI" dataDxfId="193"/>
-    <tableColumn id="4" xr3:uid="{44939BD3-1FFC-3E45-994F-37661A933E0C}" name="INU" dataDxfId="192"/>
-    <tableColumn id="18" xr3:uid="{556D51F8-4C69-4644-B0FC-A64BD79C53F2}" name="CHA" dataDxfId="191"/>
-    <tableColumn id="5" xr3:uid="{5BFA8BB0-66CB-0546-8525-FCA528C6BD63}" name="PER" dataDxfId="190"/>
-    <tableColumn id="6" xr3:uid="{3512D05D-3A98-B245-A95E-F240DF5C3211}" name="HP Factor" dataDxfId="189"/>
-    <tableColumn id="7" xr3:uid="{D0765DA9-8712-204F-B9A9-1B49046E2AAD}" name="XP" dataDxfId="188"/>
-    <tableColumn id="8" xr3:uid="{597A7743-384F-C14E-BB6E-C23E1C6CE1CA}" name="Column2" dataDxfId="187"/>
-    <tableColumn id="9" xr3:uid="{60EC4EF6-1D62-7949-816C-66C151F7BFBA}" name="Column3" dataDxfId="186"/>
-    <tableColumn id="10" xr3:uid="{F0B18199-5A5B-414E-8450-522D2887E3DD}" name="Column4" dataDxfId="185"/>
-    <tableColumn id="11" xr3:uid="{5A39FD33-B251-5041-8B88-5B33BFD6B2FC}" name="Column5" dataDxfId="184"/>
-    <tableColumn id="12" xr3:uid="{CF21C245-91A7-BB49-9363-D365711ABDF3}" name="Column6" dataDxfId="183"/>
-    <tableColumn id="13" xr3:uid="{B44C18CE-6E00-724D-B4CD-609ADE475EB9}" name="Column7" dataDxfId="182"/>
-    <tableColumn id="14" xr3:uid="{901CE9F9-D8E2-2E46-9384-039CDF6A0ABF}" name="Column8" dataDxfId="181"/>
-    <tableColumn id="15" xr3:uid="{964E2ED5-56C5-014E-BF41-7C68744CD8FA}" name="Column9" dataDxfId="180"/>
-    <tableColumn id="16" xr3:uid="{BDC3BBC8-C722-A94E-89BC-53601B603859}" name="Column10" dataDxfId="179"/>
-    <tableColumn id="17" xr3:uid="{6085284D-3498-D640-B82F-39D5127439B9}" name="Column11" dataDxfId="178"/>
+    <tableColumn id="1" xr3:uid="{98665492-075C-D44B-8EDA-A52F37F4C96E}" name="Name" dataDxfId="199"/>
+    <tableColumn id="2" xr3:uid="{73639F93-F9BF-204E-AEC8-CAA30EB8D6B5}" name="STR" dataDxfId="198"/>
+    <tableColumn id="3" xr3:uid="{6B9E0521-C50E-264F-9593-C1F9E4D23715}" name="AGI" dataDxfId="197"/>
+    <tableColumn id="4" xr3:uid="{44939BD3-1FFC-3E45-994F-37661A933E0C}" name="INU" dataDxfId="196"/>
+    <tableColumn id="18" xr3:uid="{556D51F8-4C69-4644-B0FC-A64BD79C53F2}" name="CHA" dataDxfId="195"/>
+    <tableColumn id="5" xr3:uid="{5BFA8BB0-66CB-0546-8525-FCA528C6BD63}" name="PER" dataDxfId="194"/>
+    <tableColumn id="6" xr3:uid="{3512D05D-3A98-B245-A95E-F240DF5C3211}" name="HP Factor" dataDxfId="193"/>
+    <tableColumn id="7" xr3:uid="{D0765DA9-8712-204F-B9A9-1B49046E2AAD}" name="XP" dataDxfId="192"/>
+    <tableColumn id="8" xr3:uid="{597A7743-384F-C14E-BB6E-C23E1C6CE1CA}" name="Column2" dataDxfId="191"/>
+    <tableColumn id="9" xr3:uid="{60EC4EF6-1D62-7949-816C-66C151F7BFBA}" name="Column3" dataDxfId="190"/>
+    <tableColumn id="10" xr3:uid="{F0B18199-5A5B-414E-8450-522D2887E3DD}" name="Column4" dataDxfId="189"/>
+    <tableColumn id="11" xr3:uid="{5A39FD33-B251-5041-8B88-5B33BFD6B2FC}" name="Column5" dataDxfId="188"/>
+    <tableColumn id="12" xr3:uid="{CF21C245-91A7-BB49-9363-D365711ABDF3}" name="Column6" dataDxfId="187"/>
+    <tableColumn id="13" xr3:uid="{B44C18CE-6E00-724D-B4CD-609ADE475EB9}" name="Column7" dataDxfId="186"/>
+    <tableColumn id="14" xr3:uid="{901CE9F9-D8E2-2E46-9384-039CDF6A0ABF}" name="Column8" dataDxfId="185"/>
+    <tableColumn id="15" xr3:uid="{964E2ED5-56C5-014E-BF41-7C68744CD8FA}" name="Column9" dataDxfId="184"/>
+    <tableColumn id="16" xr3:uid="{BDC3BBC8-C722-A94E-89BC-53601B603859}" name="Column10" dataDxfId="183"/>
+    <tableColumn id="17" xr3:uid="{6085284D-3498-D640-B82F-39D5127439B9}" name="Column11" dataDxfId="182"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6877,21 +7083,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A4D850-7FA0-814F-8986-D549CD923602}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:AW291"/>
+  <dimension ref="B1:BG291"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AN24" sqref="AN24"/>
+      <selection activeCell="AM27" sqref="AM27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="50" width="1.83203125" style="35" customWidth="1"/>
-    <col min="51" max="160" width="3.83203125" style="35" customWidth="1"/>
+    <col min="51" max="54" width="3.83203125" style="35" customWidth="1"/>
+    <col min="55" max="55" width="3.5" style="35" customWidth="1"/>
+    <col min="56" max="160" width="3.83203125" style="35" customWidth="1"/>
     <col min="161" max="16384" width="10.83203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="51" t="str">
         <f>CHARACTER_NAME</f>
         <v>Peter Pan</v>
@@ -6933,20 +7141,21 @@
       <c r="AI2" s="52"/>
       <c r="AN2" s="70">
         <f>TOTAL_XP</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="70"/>
       <c r="AP2" s="70"/>
       <c r="AQ2" s="70"/>
       <c r="AS2" s="70">
         <f>LVL</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="70"/>
       <c r="AU2" s="70"/>
       <c r="AV2" s="70"/>
-    </row>
-    <row r="3" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE2" s="83"/>
+    </row>
+    <row r="3" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
       <c r="D3" s="51"/>
@@ -6986,7 +7195,7 @@
       <c r="AU3" s="70"/>
       <c r="AV3" s="70"/>
     </row>
-    <row r="4" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
       <c r="D4" s="51"/>
@@ -7006,7 +7215,7 @@
       </c>
       <c r="Z4" s="36"/>
       <c r="AB4" s="53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AI4" s="36"/>
       <c r="AJ4" s="37"/>
@@ -7023,7 +7232,7 @@
       <c r="AU4" s="70"/>
       <c r="AV4" s="70"/>
     </row>
-    <row r="5" spans="2:49" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="39"/>
@@ -7052,52 +7261,8 @@
       <c r="AU5" s="71"/>
       <c r="AV5" s="71"/>
     </row>
-    <row r="6" spans="2:49" ht="10" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+    <row r="6" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="39"/>
-      <c r="H6" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="63"/>
-      <c r="M6" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="63"/>
-      <c r="R6" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="63"/>
-      <c r="W6" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="63"/>
-      <c r="AB6" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="63"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="37"/>
-      <c r="AK6" s="37"/>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="37"/>
       <c r="AN6" s="55" t="s">
         <v>52</v>
       </c>
@@ -7112,212 +7277,233 @@
       <c r="AU6" s="55"/>
       <c r="AV6" s="55"/>
     </row>
-    <row r="7" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="43">
-        <f>STR</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="44"/>
+    <row r="7" spans="2:57" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F7" s="39"/>
-      <c r="H7" s="56">
-        <f>CHARACTER_HP</f>
-        <v>5</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="57"/>
-      <c r="M7" s="56">
-        <f>CHARACTER_ARMOR</f>
-        <v>2</v>
-      </c>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="57"/>
-      <c r="R7" s="56">
-        <f>CHARACTER_AURA</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="57"/>
-      <c r="W7" s="56">
-        <f>CHARACTER_EXPERTISE</f>
-        <v>1</v>
-      </c>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="57"/>
-      <c r="AB7" s="56">
-        <f>CHARACTER_MOVEMENT</f>
-        <v>8</v>
-      </c>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="37"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="37"/>
-      <c r="AK7" s="37"/>
-      <c r="AL7" s="37"/>
-      <c r="AM7" s="37"/>
-      <c r="AN7" s="37"/>
-      <c r="AO7" s="37"/>
       <c r="AP7" s="37"/>
       <c r="AQ7" s="37"/>
       <c r="AR7" s="37"/>
       <c r="AS7" s="37"/>
       <c r="AT7" s="37"/>
     </row>
-    <row r="8" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="43"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="44"/>
+    <row r="8" spans="2:57" ht="10" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="39"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="57"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="57"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="57"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="57"/>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="57"/>
+      <c r="H8" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="63"/>
+      <c r="M8" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="63"/>
+      <c r="R8" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="63"/>
+      <c r="W8" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="63"/>
+      <c r="AB8" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="63"/>
       <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
+      <c r="AG8" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="63"/>
       <c r="AK8" s="37"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="37"/>
-      <c r="AN8" s="37"/>
-      <c r="AO8" s="37"/>
-      <c r="AP8" s="37"/>
-      <c r="AQ8" s="37"/>
-      <c r="AR8" s="37"/>
-      <c r="AS8" s="37"/>
-      <c r="AT8" s="37"/>
-    </row>
-    <row r="9" spans="2:49" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
+      <c r="AL8" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM8" s="62"/>
+      <c r="AN8" s="62"/>
+      <c r="AO8" s="63"/>
+      <c r="AQ8" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="AR8" s="62"/>
+      <c r="AS8" s="62"/>
+      <c r="AT8" s="63"/>
+    </row>
+    <row r="9" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="43">
+        <f>STR</f>
+        <v>1</v>
+      </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
       <c r="E9" s="44"/>
       <c r="F9" s="39"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="60"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="60"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="60"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="60"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="60"/>
+      <c r="H9" s="56">
+        <f>CHARACTER_HP</f>
+        <v>5</v>
+      </c>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="57"/>
+      <c r="M9" s="56">
+        <f>CHARACTER_ARMOR</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="57"/>
+      <c r="R9" s="56">
+        <f>CHARACTER_AURA</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="57"/>
+      <c r="W9" s="56">
+        <f>CHARACTER_EXPERTISE</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="57"/>
+      <c r="AB9" s="56">
+        <f>CHARACTER_MOVEMENT</f>
+        <v>10</v>
+      </c>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="57"/>
       <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
+      <c r="AG9" s="56">
+        <f>CHARACTER_INI</f>
+        <v>20</v>
+      </c>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="57"/>
       <c r="AK9" s="37"/>
-      <c r="AL9" s="37"/>
-      <c r="AM9" s="37"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="37"/>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="37"/>
-      <c r="AS9" s="37"/>
-      <c r="AT9" s="37"/>
-    </row>
-    <row r="10" spans="2:49" ht="10" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="64"/>
-      <c r="C10" s="66">
+      <c r="AL9" s="56" t="str">
+        <f>FEAT_INI</f>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="40"/>
+      <c r="AN9" s="40"/>
+      <c r="AO9" s="57"/>
+      <c r="AQ9" s="56">
+        <f>CHARACTER_AP</f>
+        <v>3</v>
+      </c>
+      <c r="AR9" s="40"/>
+      <c r="AS9" s="40"/>
+      <c r="AT9" s="57"/>
+    </row>
+    <row r="10" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="43"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="39"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="57"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="57"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="57"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="57"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="40"/>
+      <c r="AI10" s="40"/>
+      <c r="AJ10" s="57"/>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="40"/>
+      <c r="AN10" s="40"/>
+      <c r="AO10" s="57"/>
+      <c r="AP10" s="37"/>
+      <c r="AQ10" s="56"/>
+      <c r="AR10" s="40"/>
+      <c r="AS10" s="40"/>
+      <c r="AT10" s="57"/>
+    </row>
+    <row r="11" spans="2:57" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="43"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="39"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="60"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="60"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="60"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="59"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="58"/>
+      <c r="AM11" s="59"/>
+      <c r="AN11" s="59"/>
+      <c r="AO11" s="60"/>
+      <c r="AP11" s="37"/>
+      <c r="AQ11" s="58"/>
+      <c r="AR11" s="59"/>
+      <c r="AS11" s="59"/>
+      <c r="AT11" s="60"/>
+    </row>
+    <row r="12" spans="2:57" ht="10" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="64"/>
+      <c r="C12" s="66">
         <f>STR_TOTAL</f>
         <v>5</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="39"/>
-      <c r="Z10" s="36"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="37"/>
-      <c r="AK10" s="37"/>
-      <c r="AL10" s="37"/>
-      <c r="AM10" s="37"/>
-      <c r="AN10" s="37"/>
-      <c r="AO10" s="37"/>
-      <c r="AP10" s="37"/>
-      <c r="AQ10" s="37"/>
-      <c r="AR10" s="37"/>
-      <c r="AS10" s="37"/>
-      <c r="AT10" s="37"/>
-    </row>
-    <row r="11" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="41"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="Z11" s="36"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="37"/>
-      <c r="AM11" s="37"/>
-      <c r="AN11" s="37"/>
-      <c r="AO11" s="37"/>
-      <c r="AP11" s="37"/>
-      <c r="AQ11" s="37"/>
-      <c r="AR11" s="37"/>
-      <c r="AS11" s="37"/>
-      <c r="AT11" s="37"/>
-    </row>
-    <row r="12" spans="2:49" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="65"/>
       <c r="F12" s="39"/>
       <c r="G12" s="53"/>
       <c r="H12" s="53"/>
@@ -7345,10 +7531,6 @@
       <c r="AD12" s="72"/>
       <c r="AE12" s="72"/>
       <c r="AF12" s="72"/>
-      <c r="AG12" s="72"/>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="72"/>
-      <c r="AJ12" s="72"/>
       <c r="AK12" s="72"/>
       <c r="AL12" s="72"/>
       <c r="AM12" s="72"/>
@@ -7357,19 +7539,13 @@
       <c r="AP12" s="72"/>
       <c r="AQ12" s="72"/>
       <c r="AR12" s="72"/>
-      <c r="AS12" s="72"/>
-      <c r="AT12" s="72"/>
-      <c r="AU12" s="53"/>
-      <c r="AV12" s="53"/>
       <c r="AW12" s="53"/>
     </row>
-    <row r="13" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
+    <row r="13" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="41"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="39"/>
       <c r="G13" s="53"/>
       <c r="H13" s="80" t="str">
@@ -7397,32 +7573,41 @@
       <c r="V13" s="73"/>
       <c r="W13" s="73"/>
       <c r="X13" s="73"/>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="81" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA13" s="90"/>
-      <c r="AB13" s="91"/>
+      <c r="Y13" s="95" t="str">
+        <f>INDEX(FEATS,ROW(A1),11)</f>
+        <v>+0</v>
+      </c>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="90"/>
       <c r="AC13" s="53"/>
-      <c r="AN13" s="72"/>
-      <c r="AO13" s="72"/>
-      <c r="AP13" s="72"/>
-      <c r="AQ13" s="72"/>
-      <c r="AR13" s="72"/>
-      <c r="AS13" s="72"/>
-      <c r="AT13" s="72"/>
-      <c r="AU13" s="53"/>
-      <c r="AV13" s="53"/>
-      <c r="AW13" s="53"/>
-    </row>
-    <row r="14" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="43">
-        <f>AGI</f>
-        <v>1</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="44"/>
+      <c r="AE13" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF13" s="114"/>
+      <c r="AG13" s="114"/>
+      <c r="AH13" s="114"/>
+      <c r="AI13" s="114"/>
+      <c r="AJ13" s="114"/>
+      <c r="AK13" s="114"/>
+      <c r="AL13" s="114"/>
+      <c r="AM13" s="114"/>
+      <c r="AN13" s="114"/>
+      <c r="AO13" s="114"/>
+      <c r="AP13" s="114"/>
+      <c r="AQ13" s="114"/>
+      <c r="AR13" s="114"/>
+      <c r="AS13" s="114"/>
+      <c r="AT13" s="114"/>
+      <c r="AU13" s="114"/>
+      <c r="AV13" s="114"/>
+      <c r="AW13" s="114"/>
+    </row>
+    <row r="14" spans="2:57" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="39"/>
       <c r="G14" s="53"/>
       <c r="H14" s="82" t="str">
@@ -7450,29 +7635,40 @@
       <c r="V14" s="75"/>
       <c r="W14" s="75"/>
       <c r="X14" s="75"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="83" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA14" s="92"/>
-      <c r="AB14" s="93"/>
+      <c r="Y14" s="94" t="str">
+        <f>INDEX(FEATS,ROW(A2),11)</f>
+        <v>+0</v>
+      </c>
+      <c r="AA14" s="91"/>
+      <c r="AB14" s="92"/>
       <c r="AC14" s="53"/>
-      <c r="AN14" s="72"/>
-      <c r="AO14" s="72"/>
-      <c r="AP14" s="72"/>
-      <c r="AQ14" s="72"/>
-      <c r="AR14" s="72"/>
-      <c r="AS14" s="72"/>
-      <c r="AT14" s="72"/>
-      <c r="AU14" s="53"/>
-      <c r="AV14" s="53"/>
-      <c r="AW14" s="53"/>
-    </row>
-    <row r="15" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="43"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="44"/>
+      <c r="AE14" s="115"/>
+      <c r="AF14" s="115"/>
+      <c r="AG14" s="115"/>
+      <c r="AH14" s="115"/>
+      <c r="AI14" s="115"/>
+      <c r="AJ14" s="115"/>
+      <c r="AK14" s="115"/>
+      <c r="AL14" s="115"/>
+      <c r="AM14" s="115"/>
+      <c r="AN14" s="115"/>
+      <c r="AO14" s="115"/>
+      <c r="AP14" s="115"/>
+      <c r="AQ14" s="115"/>
+      <c r="AR14" s="115"/>
+      <c r="AS14" s="115"/>
+      <c r="AT14" s="115"/>
+      <c r="AU14" s="115"/>
+      <c r="AV14" s="115"/>
+      <c r="AW14" s="115"/>
+    </row>
+    <row r="15" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="39"/>
       <c r="G15" s="53"/>
       <c r="H15" s="82" t="str">
@@ -7486,7 +7682,7 @@
       <c r="M15" s="83"/>
       <c r="N15" s="75" t="str">
         <f>INDEX(Table2[[#Headers],[#Data]],4,11)</f>
-        <v>1d10 + 1</v>
+        <v>1d10 + 0</v>
       </c>
       <c r="O15" s="75"/>
       <c r="P15" s="75"/>
@@ -7500,13 +7696,22 @@
       <c r="V15" s="75"/>
       <c r="W15" s="75"/>
       <c r="X15" s="75"/>
-      <c r="Y15" s="75"/>
-      <c r="Z15" s="83">
+      <c r="Y15" s="94" t="str">
+        <f>INDEX(FEATS,3,11)</f>
         <v>20</v>
       </c>
-      <c r="AA15" s="92"/>
-      <c r="AB15" s="93"/>
+      <c r="AA15" s="91"/>
+      <c r="AB15" s="92"/>
       <c r="AC15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="53"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="53"/>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="53"/>
       <c r="AN15" s="72"/>
       <c r="AO15" s="72"/>
       <c r="AP15" s="72"/>
@@ -7518,8 +7723,11 @@
       <c r="AV15" s="53"/>
       <c r="AW15" s="53"/>
     </row>
-    <row r="16" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="43"/>
+    <row r="16" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="43">
+        <f>AGI</f>
+        <v>1</v>
+      </c>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
       <c r="E16" s="44"/>
@@ -7550,32 +7758,48 @@
       <c r="V16" s="75"/>
       <c r="W16" s="75"/>
       <c r="X16" s="75"/>
-      <c r="Y16" s="75"/>
-      <c r="Z16" s="83" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA16" s="92"/>
-      <c r="AB16" s="93"/>
+      <c r="Y16" s="94" t="str">
+        <f>INDEX(FEATS,ROW(A4),11)</f>
+        <v>+0d4</v>
+      </c>
+      <c r="AA16" s="91"/>
+      <c r="AB16" s="92"/>
       <c r="AC16" s="53"/>
-      <c r="AN16" s="72"/>
-      <c r="AO16" s="72"/>
-      <c r="AP16" s="72"/>
-      <c r="AQ16" s="72"/>
-      <c r="AR16" s="72"/>
-      <c r="AS16" s="72"/>
-      <c r="AT16" s="72"/>
-      <c r="AU16" s="53"/>
-      <c r="AV16" s="53"/>
-      <c r="AW16" s="53"/>
-    </row>
-    <row r="17" spans="2:49" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="45"/>
-      <c r="C17" s="66">
-        <f>AGI_TOTAL</f>
-        <v>5</v>
-      </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="46"/>
+      <c r="AE16" s="117" t="str">
+        <f>Weapons!Z3</f>
+        <v>Dagger: 1d4+1</v>
+      </c>
+      <c r="AF16" s="117"/>
+      <c r="AG16" s="117"/>
+      <c r="AH16" s="117"/>
+      <c r="AI16" s="117"/>
+      <c r="AJ16" s="117"/>
+      <c r="AK16" s="117"/>
+      <c r="AL16" s="117"/>
+      <c r="AM16" s="117"/>
+      <c r="AN16" s="117"/>
+      <c r="AO16" s="117"/>
+      <c r="AP16" s="117"/>
+      <c r="AQ16" s="117"/>
+      <c r="AR16" s="117"/>
+      <c r="AS16" s="117"/>
+      <c r="AT16" s="117"/>
+      <c r="AU16" s="117"/>
+      <c r="AV16" s="117"/>
+      <c r="AW16" s="117"/>
+      <c r="AX16" s="116"/>
+      <c r="AY16" s="116"/>
+      <c r="AZ16" s="116"/>
+      <c r="BA16" s="116"/>
+      <c r="BB16" s="116"/>
+      <c r="BC16" s="116"/>
+      <c r="BD16" s="25"/>
+    </row>
+    <row r="17" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="43"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="39"/>
       <c r="G17" s="53"/>
       <c r="H17" s="82" t="str">
@@ -7603,29 +7827,45 @@
       <c r="V17" s="75"/>
       <c r="W17" s="75"/>
       <c r="X17" s="75"/>
-      <c r="Y17" s="75"/>
-      <c r="Z17" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA17" s="92"/>
-      <c r="AB17" s="93"/>
+      <c r="Y17" s="94" t="str">
+        <f>INDEX(FEATS,ROW(A5),11)</f>
+        <v>0%</v>
+      </c>
+      <c r="AA17" s="91"/>
+      <c r="AB17" s="92"/>
       <c r="AC17" s="53"/>
-      <c r="AN17" s="72"/>
-      <c r="AO17" s="72"/>
-      <c r="AP17" s="72"/>
-      <c r="AQ17" s="72"/>
-      <c r="AR17" s="72"/>
-      <c r="AS17" s="72"/>
-      <c r="AT17" s="72"/>
-      <c r="AU17" s="53"/>
-      <c r="AV17" s="53"/>
-      <c r="AW17" s="53"/>
-    </row>
-    <row r="18" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="41"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="39"/>
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="85"/>
+      <c r="AG17" s="85"/>
+      <c r="AH17" s="85"/>
+      <c r="AI17" s="85"/>
+      <c r="AJ17" s="85"/>
+      <c r="AK17" s="85"/>
+      <c r="AL17" s="85"/>
+      <c r="AM17" s="85"/>
+      <c r="AN17" s="85"/>
+      <c r="AO17" s="85"/>
+      <c r="AP17" s="85"/>
+      <c r="AQ17" s="85"/>
+      <c r="AR17" s="85"/>
+      <c r="AS17" s="85"/>
+      <c r="AT17" s="85"/>
+      <c r="AU17" s="85"/>
+      <c r="AV17" s="85"/>
+      <c r="AW17" s="85"/>
+      <c r="AX17" s="85"/>
+      <c r="AY17" s="85"/>
+      <c r="AZ17" s="85"/>
+      <c r="BA17" s="85"/>
+      <c r="BB17" s="85"/>
+      <c r="BC17" s="85"/>
+      <c r="BD17" s="113"/>
+    </row>
+    <row r="18" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="43"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="39"/>
       <c r="G18" s="53"/>
       <c r="H18" s="82" t="str">
@@ -7653,29 +7893,47 @@
       <c r="V18" s="75"/>
       <c r="W18" s="75"/>
       <c r="X18" s="75"/>
-      <c r="Y18" s="75"/>
-      <c r="Z18" s="83" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA18" s="92"/>
-      <c r="AB18" s="93"/>
+      <c r="Y18" s="94" t="str">
+        <f>INDEX(FEATS,ROW(A6),11)</f>
+        <v>+0d4</v>
+      </c>
+      <c r="AA18" s="91"/>
+      <c r="AB18" s="92"/>
       <c r="AC18" s="53"/>
-      <c r="AN18" s="72"/>
-      <c r="AO18" s="72"/>
-      <c r="AP18" s="72"/>
-      <c r="AQ18" s="72"/>
-      <c r="AR18" s="72"/>
-      <c r="AS18" s="72"/>
-      <c r="AT18" s="72"/>
-      <c r="AU18" s="53"/>
-      <c r="AV18" s="53"/>
-      <c r="AW18" s="53"/>
-    </row>
-    <row r="19" spans="2:49" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="75"/>
+      <c r="AG18" s="75"/>
+      <c r="AH18" s="75"/>
+      <c r="AI18" s="75"/>
+      <c r="AJ18" s="75"/>
+      <c r="AK18" s="75"/>
+      <c r="AL18" s="75"/>
+      <c r="AM18" s="75"/>
+      <c r="AN18" s="75"/>
+      <c r="AO18" s="75"/>
+      <c r="AP18" s="75"/>
+      <c r="AQ18" s="91"/>
+      <c r="AR18" s="91"/>
+      <c r="AS18" s="91"/>
+      <c r="AT18" s="91"/>
+      <c r="AU18" s="75"/>
+      <c r="AV18" s="75"/>
+      <c r="AW18" s="75"/>
+      <c r="AX18" s="39"/>
+      <c r="AY18" s="39"/>
+      <c r="AZ18" s="39"/>
+      <c r="BA18" s="39"/>
+      <c r="BB18" s="39"/>
+      <c r="BC18" s="39"/>
+    </row>
+    <row r="19" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="45"/>
+      <c r="C19" s="66">
+        <f>AGI_TOTAL</f>
+        <v>5</v>
+      </c>
+      <c r="D19" s="67"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="39"/>
       <c r="G19" s="53"/>
       <c r="H19" s="82" t="str">
@@ -7703,16 +7961,25 @@
       <c r="V19" s="75"/>
       <c r="W19" s="75"/>
       <c r="X19" s="75"/>
-      <c r="Y19" s="75"/>
-      <c r="Z19" s="83" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA19" s="92"/>
-      <c r="AB19" s="93"/>
+      <c r="Y19" s="94" t="str">
+        <f>INDEX(FEATS,ROW(A7),11)</f>
+        <v>+0</v>
+      </c>
+      <c r="AA19" s="91"/>
+      <c r="AB19" s="92"/>
       <c r="AC19" s="53"/>
-      <c r="AN19" s="72"/>
-      <c r="AO19" s="72"/>
-      <c r="AP19" s="72"/>
+      <c r="AE19" s="53"/>
+      <c r="AF19" s="53"/>
+      <c r="AG19" s="53"/>
+      <c r="AH19" s="53"/>
+      <c r="AI19" s="53"/>
+      <c r="AJ19" s="53"/>
+      <c r="AK19" s="53"/>
+      <c r="AL19" s="53"/>
+      <c r="AM19" s="53"/>
+      <c r="AN19" s="53"/>
+      <c r="AO19" s="53"/>
+      <c r="AP19" s="53"/>
       <c r="AQ19" s="72"/>
       <c r="AR19" s="72"/>
       <c r="AS19" s="72"/>
@@ -7721,13 +7988,11 @@
       <c r="AV19" s="53"/>
       <c r="AW19" s="53"/>
     </row>
-    <row r="20" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
+    <row r="20" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="41"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="39"/>
       <c r="G20" s="53"/>
       <c r="H20" s="82" t="str">
@@ -7755,16 +8020,25 @@
       <c r="V20" s="75"/>
       <c r="W20" s="75"/>
       <c r="X20" s="75"/>
-      <c r="Y20" s="75"/>
-      <c r="Z20" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA20" s="92"/>
-      <c r="AB20" s="93"/>
+      <c r="Y20" s="94" t="str">
+        <f>INDEX(FEATS,ROW(A8),11)</f>
+        <v>0ft</v>
+      </c>
+      <c r="AA20" s="91"/>
+      <c r="AB20" s="92"/>
       <c r="AC20" s="53"/>
-      <c r="AN20" s="72"/>
-      <c r="AO20" s="72"/>
-      <c r="AP20" s="72"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="53"/>
+      <c r="AH20" s="53"/>
+      <c r="AI20" s="53"/>
+      <c r="AJ20" s="53"/>
+      <c r="AK20" s="53"/>
+      <c r="AL20" s="53"/>
+      <c r="AM20" s="53"/>
+      <c r="AN20" s="53"/>
+      <c r="AO20" s="53"/>
+      <c r="AP20" s="53"/>
       <c r="AQ20" s="72"/>
       <c r="AR20" s="72"/>
       <c r="AS20" s="72"/>
@@ -7773,14 +8047,11 @@
       <c r="AV20" s="53"/>
       <c r="AW20" s="53"/>
     </row>
-    <row r="21" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="43">
-        <f>INU</f>
-        <v>1</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="44"/>
+    <row r="21" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="39"/>
       <c r="G21" s="53"/>
       <c r="H21" s="82" t="str">
@@ -7808,13 +8079,22 @@
       <c r="V21" s="75"/>
       <c r="W21" s="75"/>
       <c r="X21" s="75"/>
-      <c r="Y21" s="75"/>
-      <c r="Z21" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA21" s="92"/>
-      <c r="AB21" s="93"/>
+      <c r="Y21" s="94" t="str">
+        <f>INDEX(FEATS,ROW(A9),11)</f>
+        <v>0%</v>
+      </c>
+      <c r="AA21" s="91"/>
+      <c r="AB21" s="92"/>
       <c r="AC21" s="53"/>
+      <c r="AE21" s="53"/>
+      <c r="AF21" s="53"/>
+      <c r="AG21" s="53"/>
+      <c r="AH21" s="53"/>
+      <c r="AI21" s="53"/>
+      <c r="AJ21" s="53"/>
+      <c r="AK21" s="53"/>
+      <c r="AL21" s="53"/>
+      <c r="AM21" s="53"/>
       <c r="AN21" s="72"/>
       <c r="AO21" s="72"/>
       <c r="AP21" s="72"/>
@@ -7825,12 +8105,21 @@
       <c r="AU21" s="53"/>
       <c r="AV21" s="53"/>
       <c r="AW21" s="53"/>
-    </row>
-    <row r="22" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="43"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="44"/>
+      <c r="BA21" s="39"/>
+      <c r="BB21" s="39"/>
+      <c r="BC21" s="39"/>
+      <c r="BD21" s="39"/>
+      <c r="BE21" s="39"/>
+      <c r="BF21" s="39"/>
+      <c r="BG21" s="39"/>
+    </row>
+    <row r="22" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
       <c r="F22" s="39"/>
       <c r="G22" s="53"/>
       <c r="H22" s="82" t="str">
@@ -7858,13 +8147,22 @@
       <c r="V22" s="75"/>
       <c r="W22" s="75"/>
       <c r="X22" s="75"/>
-      <c r="Y22" s="75"/>
-      <c r="Z22" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA22" s="92"/>
-      <c r="AB22" s="93"/>
+      <c r="Y22" s="94" t="str">
+        <f>INDEX(FEATS,ROW(A10),11)</f>
+        <v>+0</v>
+      </c>
+      <c r="AA22" s="91"/>
+      <c r="AB22" s="92"/>
       <c r="AC22" s="53"/>
+      <c r="AE22" s="53"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="53"/>
+      <c r="AJ22" s="53"/>
+      <c r="AK22" s="53"/>
+      <c r="AL22" s="53"/>
+      <c r="AM22" s="53"/>
       <c r="AN22" s="72"/>
       <c r="AO22" s="72"/>
       <c r="AP22" s="72"/>
@@ -7875,9 +8173,19 @@
       <c r="AU22" s="53"/>
       <c r="AV22" s="53"/>
       <c r="AW22" s="53"/>
-    </row>
-    <row r="23" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="43"/>
+      <c r="BA22" s="39"/>
+      <c r="BB22" s="39"/>
+      <c r="BC22" s="39"/>
+      <c r="BD22" s="39"/>
+      <c r="BE22" s="39"/>
+      <c r="BF22" s="39"/>
+      <c r="BG22" s="39"/>
+    </row>
+    <row r="23" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="43">
+        <f>INU</f>
+        <v>1</v>
+      </c>
       <c r="C23" s="42"/>
       <c r="D23" s="42"/>
       <c r="E23" s="44"/>
@@ -7908,9 +8216,9 @@
       <c r="V23" s="75"/>
       <c r="W23" s="75"/>
       <c r="X23" s="75"/>
-      <c r="Y23" s="75"/>
-      <c r="Z23" s="83" t="s">
-        <v>206</v>
+      <c r="Y23" s="94" t="str">
+        <f>INDEX(FEATS,ROW(A11),11)</f>
+        <v>+0</v>
       </c>
       <c r="AA23" s="75"/>
       <c r="AB23" s="76"/>
@@ -7935,15 +8243,19 @@
       <c r="AU23" s="53"/>
       <c r="AV23" s="53"/>
       <c r="AW23" s="53"/>
-    </row>
-    <row r="24" spans="2:49" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="45"/>
-      <c r="C24" s="66">
-        <f>INU_TOTAL</f>
-        <v>5</v>
-      </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="46"/>
+      <c r="BA23" s="39"/>
+      <c r="BB23" s="39"/>
+      <c r="BC23" s="39"/>
+      <c r="BD23" s="39"/>
+      <c r="BE23" s="39"/>
+      <c r="BF23" s="39"/>
+      <c r="BG23" s="39"/>
+    </row>
+    <row r="24" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="43"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="39"/>
       <c r="G24" s="53"/>
       <c r="H24" s="82" t="str">
@@ -7964,15 +8276,15 @@
       <c r="Q24" s="76"/>
       <c r="R24" s="53"/>
       <c r="S24" s="88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T24" s="75"/>
       <c r="U24" s="75"/>
       <c r="V24" s="75"/>
       <c r="W24" s="75"/>
       <c r="X24" s="75"/>
-      <c r="Y24" s="75"/>
-      <c r="Z24" s="83">
+      <c r="Y24" s="94">
+        <f>INDEX(FEATS,ROW(A12),11)</f>
         <v>0</v>
       </c>
       <c r="AA24" s="75"/>
@@ -7998,12 +8310,19 @@
       <c r="AU24" s="53"/>
       <c r="AV24" s="53"/>
       <c r="AW24" s="53"/>
-    </row>
-    <row r="25" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="41"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="39"/>
+      <c r="BA24" s="39"/>
+      <c r="BB24" s="39"/>
+      <c r="BC24" s="39"/>
+      <c r="BD24" s="39"/>
+      <c r="BE24" s="39"/>
+      <c r="BF24" s="39"/>
+      <c r="BG24" s="39"/>
+    </row>
+    <row r="25" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="43"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="44"/>
       <c r="F25" s="39"/>
       <c r="G25" s="53"/>
       <c r="H25" s="82" t="str">
@@ -8024,16 +8343,16 @@
       <c r="Q25" s="76"/>
       <c r="R25" s="53"/>
       <c r="S25" s="88" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T25" s="75"/>
       <c r="U25" s="75"/>
       <c r="V25" s="75"/>
       <c r="W25" s="75"/>
       <c r="X25" s="75"/>
-      <c r="Y25" s="75"/>
-      <c r="Z25" s="83" t="s">
-        <v>211</v>
+      <c r="Y25" s="94" t="str">
+        <f>INDEX(FEATS,ROW(A13),11)</f>
+        <v>0</v>
       </c>
       <c r="AA25" s="75"/>
       <c r="AB25" s="76"/>
@@ -8058,12 +8377,22 @@
       <c r="AU25" s="53"/>
       <c r="AV25" s="53"/>
       <c r="AW25" s="53"/>
-    </row>
-    <row r="26" spans="2:49" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
+      <c r="BA25" s="39"/>
+      <c r="BB25" s="39"/>
+      <c r="BC25" s="39"/>
+      <c r="BD25" s="39"/>
+      <c r="BE25" s="39"/>
+      <c r="BF25" s="39"/>
+      <c r="BG25" s="39"/>
+    </row>
+    <row r="26" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="45"/>
+      <c r="C26" s="66">
+        <f>INU_TOTAL</f>
+        <v>5</v>
+      </c>
+      <c r="D26" s="67"/>
+      <c r="E26" s="46"/>
       <c r="F26" s="39"/>
       <c r="G26" s="53"/>
       <c r="H26" s="82" t="str">
@@ -8083,16 +8412,21 @@
       <c r="P26" s="75"/>
       <c r="Q26" s="76"/>
       <c r="R26" s="53"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="39"/>
-      <c r="AB26" s="89"/>
+      <c r="S26" s="93" t="s">
+        <v>212</v>
+      </c>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="94">
+        <f>INDEX(FEATS,ROW(A14),11)</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="76"/>
       <c r="AC26" s="53"/>
       <c r="AD26" s="53"/>
       <c r="AE26" s="53"/>
@@ -8114,14 +8448,19 @@
       <c r="AU26" s="53"/>
       <c r="AV26" s="53"/>
       <c r="AW26" s="53"/>
-    </row>
-    <row r="27" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
+      <c r="BA26" s="39"/>
+      <c r="BB26" s="39"/>
+      <c r="BC26" s="107"/>
+      <c r="BD26" s="39"/>
+      <c r="BE26" s="39"/>
+      <c r="BF26" s="39"/>
+      <c r="BG26" s="39"/>
+    </row>
+    <row r="27" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="41"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="39"/>
       <c r="F27" s="39"/>
       <c r="G27" s="53"/>
       <c r="H27" s="82" t="str">
@@ -8141,7 +8480,7 @@
       <c r="P27" s="75"/>
       <c r="Q27" s="76"/>
       <c r="R27" s="53"/>
-      <c r="S27" s="100"/>
+      <c r="S27" s="93"/>
       <c r="T27" s="75"/>
       <c r="U27" s="75"/>
       <c r="V27" s="75"/>
@@ -8172,15 +8511,19 @@
       <c r="AU27" s="53"/>
       <c r="AV27" s="53"/>
       <c r="AW27" s="53"/>
-    </row>
-    <row r="28" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="43">
-        <f>CHA</f>
-        <v>1</v>
-      </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="44"/>
+      <c r="BA27" s="39"/>
+      <c r="BB27" s="39"/>
+      <c r="BC27" s="39"/>
+      <c r="BD27" s="107"/>
+      <c r="BE27" s="39"/>
+      <c r="BF27" s="39"/>
+      <c r="BG27" s="39"/>
+    </row>
+    <row r="28" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="53"/>
       <c r="H28" s="82" t="str">
@@ -8233,12 +8576,21 @@
       <c r="AU28" s="53"/>
       <c r="AV28" s="53"/>
       <c r="AW28" s="53"/>
-    </row>
-    <row r="29" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="43"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="44"/>
+      <c r="BA28" s="39"/>
+      <c r="BB28" s="39"/>
+      <c r="BC28" s="39"/>
+      <c r="BD28" s="39"/>
+      <c r="BE28" s="39"/>
+      <c r="BF28" s="39"/>
+      <c r="BG28" s="39"/>
+    </row>
+    <row r="29" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
       <c r="G29" s="53"/>
       <c r="H29" s="82" t="str">
         <f>INDEX(Skills!$A$1:$K$34,18,1)</f>
@@ -8263,7 +8615,7 @@
       <c r="V29" s="53"/>
       <c r="W29" s="53"/>
       <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
+      <c r="Y29" s="110"/>
       <c r="Z29" s="53"/>
       <c r="AA29" s="53"/>
       <c r="AB29" s="53"/>
@@ -8288,9 +8640,19 @@
       <c r="AU29" s="53"/>
       <c r="AV29" s="53"/>
       <c r="AW29" s="53"/>
-    </row>
-    <row r="30" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="43"/>
+      <c r="BA29" s="39"/>
+      <c r="BB29" s="39"/>
+      <c r="BC29" s="39"/>
+      <c r="BD29" s="39"/>
+      <c r="BE29" s="39"/>
+      <c r="BF29" s="39"/>
+      <c r="BG29" s="39"/>
+    </row>
+    <row r="30" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="43">
+        <f>CHA</f>
+        <v>1</v>
+      </c>
       <c r="C30" s="42"/>
       <c r="D30" s="42"/>
       <c r="E30" s="44"/>
@@ -8312,22 +8674,23 @@
       <c r="P30" s="75"/>
       <c r="Q30" s="76"/>
       <c r="R30" s="53"/>
-      <c r="S30" s="87" t="s">
-        <v>177</v>
-      </c>
-      <c r="T30" s="90"/>
-      <c r="U30" s="90"/>
-      <c r="V30" s="90"/>
-      <c r="W30" s="95" t="s">
+      <c r="S30" s="96" t="s">
+        <v>176</v>
+      </c>
+      <c r="T30" s="97"/>
+      <c r="U30" s="97"/>
+      <c r="V30" s="97"/>
+      <c r="W30" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="X30" s="90"/>
-      <c r="Y30" s="96" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z30" s="90"/>
-      <c r="AA30" s="90"/>
-      <c r="AB30" s="91"/>
+      <c r="X30" s="97"/>
+      <c r="Y30" s="109" t="str">
+        <f>INDEX(RESISTANCES,ROW(A2),11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Z30" s="97"/>
+      <c r="AA30" s="97"/>
+      <c r="AB30" s="99"/>
       <c r="AC30" s="53"/>
       <c r="AD30" s="53"/>
       <c r="AE30" s="53"/>
@@ -8349,15 +8712,19 @@
       <c r="AU30" s="53"/>
       <c r="AV30" s="53"/>
       <c r="AW30" s="53"/>
-    </row>
-    <row r="31" spans="2:49" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="45"/>
-      <c r="C31" s="66">
-        <f>CHA_TOTAL</f>
-        <v>5</v>
-      </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="46"/>
+      <c r="BA30" s="39"/>
+      <c r="BB30" s="39"/>
+      <c r="BC30" s="107"/>
+      <c r="BD30" s="39"/>
+      <c r="BE30" s="39"/>
+      <c r="BF30" s="39"/>
+      <c r="BG30" s="39"/>
+    </row>
+    <row r="31" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="43"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="44"/>
       <c r="G31" s="53"/>
       <c r="H31" s="82" t="str">
         <f>INDEX(Skills!$A$1:$K$34,20,1)</f>
@@ -8376,22 +8743,23 @@
       <c r="P31" s="75"/>
       <c r="Q31" s="76"/>
       <c r="R31" s="53"/>
-      <c r="S31" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="T31" s="92"/>
-      <c r="U31" s="92"/>
-      <c r="V31" s="92"/>
-      <c r="W31" s="97" t="s">
+      <c r="S31" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="T31" s="101"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="X31" s="92"/>
-      <c r="Y31" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="92"/>
-      <c r="AB31" s="93"/>
+      <c r="X31" s="101"/>
+      <c r="Y31" s="109" t="str">
+        <f>INDEX(RESISTANCES,ROW(A3),11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Z31" s="101"/>
+      <c r="AA31" s="101"/>
+      <c r="AB31" s="103"/>
       <c r="AC31" s="53"/>
       <c r="AD31" s="53"/>
       <c r="AE31" s="53"/>
@@ -8413,12 +8781,19 @@
       <c r="AU31" s="53"/>
       <c r="AV31" s="53"/>
       <c r="AW31" s="53"/>
-    </row>
-    <row r="32" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="41"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="39"/>
+      <c r="BA31" s="39"/>
+      <c r="BB31" s="39"/>
+      <c r="BC31" s="39"/>
+      <c r="BD31" s="39"/>
+      <c r="BE31" s="39"/>
+      <c r="BF31" s="39"/>
+      <c r="BG31" s="39"/>
+    </row>
+    <row r="32" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="43"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="44"/>
       <c r="G32" s="53"/>
       <c r="H32" s="82" t="str">
         <f>INDEX(Skills!$A$1:$K$34,21,1)</f>
@@ -8437,22 +8812,23 @@
       <c r="P32" s="75"/>
       <c r="Q32" s="76"/>
       <c r="R32" s="53"/>
-      <c r="S32" s="88" t="s">
-        <v>173</v>
-      </c>
-      <c r="T32" s="92"/>
-      <c r="U32" s="92"/>
-      <c r="V32" s="92"/>
-      <c r="W32" s="97" t="s">
+      <c r="S32" s="100" t="s">
+        <v>172</v>
+      </c>
+      <c r="T32" s="101"/>
+      <c r="U32" s="101"/>
+      <c r="V32" s="101"/>
+      <c r="W32" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="X32" s="92"/>
-      <c r="Y32" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z32" s="92"/>
-      <c r="AA32" s="92"/>
-      <c r="AB32" s="93"/>
+      <c r="X32" s="101"/>
+      <c r="Y32" s="109" t="str">
+        <f>INDEX(RESISTANCES,ROW(A4),11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Z32" s="101"/>
+      <c r="AA32" s="101"/>
+      <c r="AB32" s="103"/>
       <c r="AC32" s="53"/>
       <c r="AD32" s="53"/>
       <c r="AE32" s="53"/>
@@ -8474,8 +8850,22 @@
       <c r="AU32" s="53"/>
       <c r="AV32" s="53"/>
       <c r="AW32" s="53"/>
-    </row>
-    <row r="33" spans="2:49" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="BA32" s="39"/>
+      <c r="BB32" s="39"/>
+      <c r="BC32" s="39"/>
+      <c r="BD32" s="39"/>
+      <c r="BE32" s="39"/>
+      <c r="BF32" s="39"/>
+      <c r="BG32" s="39"/>
+    </row>
+    <row r="33" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="45"/>
+      <c r="C33" s="66">
+        <f>CHA_TOTAL</f>
+        <v>5</v>
+      </c>
+      <c r="D33" s="67"/>
+      <c r="E33" s="46"/>
       <c r="G33" s="53"/>
       <c r="H33" s="82" t="str">
         <f>INDEX(Skills!$A$1:$K$34,22,1)</f>
@@ -8494,22 +8884,23 @@
       <c r="P33" s="75"/>
       <c r="Q33" s="76"/>
       <c r="R33" s="53"/>
-      <c r="S33" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
-      <c r="V33" s="92"/>
-      <c r="W33" s="97" t="s">
+      <c r="S33" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="T33" s="101"/>
+      <c r="U33" s="101"/>
+      <c r="V33" s="101"/>
+      <c r="W33" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="X33" s="92"/>
-      <c r="Y33" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z33" s="92"/>
-      <c r="AA33" s="92"/>
-      <c r="AB33" s="93"/>
+      <c r="X33" s="101"/>
+      <c r="Y33" s="109" t="str">
+        <f>INDEX(RESISTANCES,ROW(A5),11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Z33" s="101"/>
+      <c r="AA33" s="101"/>
+      <c r="AB33" s="103"/>
       <c r="AC33" s="53"/>
       <c r="AD33" s="53"/>
       <c r="AE33" s="53"/>
@@ -8531,14 +8922,19 @@
       <c r="AU33" s="53"/>
       <c r="AV33" s="53"/>
       <c r="AW33" s="53"/>
-    </row>
-    <row r="34" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
+      <c r="BA33" s="39"/>
+      <c r="BB33" s="39"/>
+      <c r="BC33" s="39"/>
+      <c r="BD33" s="39"/>
+      <c r="BE33" s="39"/>
+      <c r="BF33" s="39"/>
+      <c r="BG33" s="39"/>
+    </row>
+    <row r="34" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="41"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="39"/>
       <c r="G34" s="53"/>
       <c r="H34" s="82" t="str">
         <f>INDEX(Skills!$A$1:$K$34,23,1)</f>
@@ -8557,22 +8953,23 @@
       <c r="P34" s="75"/>
       <c r="Q34" s="76"/>
       <c r="R34" s="53"/>
-      <c r="S34" s="88" t="s">
-        <v>174</v>
-      </c>
-      <c r="T34" s="92"/>
-      <c r="U34" s="92"/>
-      <c r="V34" s="92"/>
-      <c r="W34" s="97" t="s">
+      <c r="S34" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="T34" s="101"/>
+      <c r="U34" s="101"/>
+      <c r="V34" s="101"/>
+      <c r="W34" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="X34" s="92"/>
-      <c r="Y34" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z34" s="92"/>
-      <c r="AA34" s="92"/>
-      <c r="AB34" s="93"/>
+      <c r="X34" s="101"/>
+      <c r="Y34" s="109" t="str">
+        <f>INDEX(RESISTANCES,ROW(A6),11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Z34" s="101"/>
+      <c r="AA34" s="101"/>
+      <c r="AB34" s="103"/>
       <c r="AC34" s="53"/>
       <c r="AD34" s="53"/>
       <c r="AE34" s="53"/>
@@ -8594,15 +8991,15 @@
       <c r="AU34" s="53"/>
       <c r="AV34" s="53"/>
       <c r="AW34" s="53"/>
-    </row>
-    <row r="35" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="43">
-        <f>PER</f>
-        <v>1</v>
-      </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="44"/>
+      <c r="BA34" s="39"/>
+      <c r="BB34" s="39"/>
+      <c r="BC34" s="39"/>
+      <c r="BD34" s="39"/>
+      <c r="BE34" s="39"/>
+      <c r="BF34" s="39"/>
+      <c r="BG34" s="39"/>
+    </row>
+    <row r="35" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="G35" s="53"/>
       <c r="H35" s="82" t="str">
         <f>INDEX(Skills!$A$1:$K$34,24,1)</f>
@@ -8621,22 +9018,23 @@
       <c r="P35" s="75"/>
       <c r="Q35" s="76"/>
       <c r="R35" s="53"/>
-      <c r="S35" s="88" t="s">
-        <v>175</v>
-      </c>
-      <c r="T35" s="92"/>
-      <c r="U35" s="92"/>
-      <c r="V35" s="92"/>
-      <c r="W35" s="97" t="s">
+      <c r="S35" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="T35" s="101"/>
+      <c r="U35" s="101"/>
+      <c r="V35" s="101"/>
+      <c r="W35" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="X35" s="92"/>
-      <c r="Y35" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z35" s="92"/>
-      <c r="AA35" s="92"/>
-      <c r="AB35" s="93"/>
+      <c r="X35" s="101"/>
+      <c r="Y35" s="109" t="str">
+        <f>INDEX(RESISTANCES,ROW(A7),11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Z35" s="101"/>
+      <c r="AA35" s="101"/>
+      <c r="AB35" s="103"/>
       <c r="AC35" s="53"/>
       <c r="AD35" s="53"/>
       <c r="AE35" s="53"/>
@@ -8658,12 +9056,21 @@
       <c r="AU35" s="53"/>
       <c r="AV35" s="53"/>
       <c r="AW35" s="53"/>
-    </row>
-    <row r="36" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="43"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="44"/>
+      <c r="BA35" s="39"/>
+      <c r="BB35" s="39"/>
+      <c r="BC35" s="39"/>
+      <c r="BD35" s="39"/>
+      <c r="BE35" s="39"/>
+      <c r="BF35" s="39"/>
+      <c r="BG35" s="39"/>
+    </row>
+    <row r="36" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="49"/>
       <c r="G36" s="53"/>
       <c r="H36" s="82" t="str">
         <f>INDEX(Skills!$A$1:$K$34,25,1)</f>
@@ -8682,22 +9089,23 @@
       <c r="P36" s="75"/>
       <c r="Q36" s="76"/>
       <c r="R36" s="53"/>
-      <c r="S36" s="88" t="s">
-        <v>176</v>
-      </c>
-      <c r="T36" s="92"/>
-      <c r="U36" s="92"/>
-      <c r="V36" s="92"/>
-      <c r="W36" s="97" t="s">
+      <c r="S36" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="T36" s="101"/>
+      <c r="U36" s="101"/>
+      <c r="V36" s="101"/>
+      <c r="W36" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="X36" s="92"/>
-      <c r="Y36" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z36" s="92"/>
-      <c r="AA36" s="92"/>
-      <c r="AB36" s="93"/>
+      <c r="X36" s="101"/>
+      <c r="Y36" s="109" t="str">
+        <f>INDEX(RESISTANCES,ROW(A8),11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Z36" s="101"/>
+      <c r="AA36" s="101"/>
+      <c r="AB36" s="103"/>
       <c r="AC36" s="53"/>
       <c r="AD36" s="53"/>
       <c r="AE36" s="53"/>
@@ -8719,9 +9127,19 @@
       <c r="AU36" s="53"/>
       <c r="AV36" s="53"/>
       <c r="AW36" s="53"/>
-    </row>
-    <row r="37" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="43"/>
+      <c r="BA36" s="39"/>
+      <c r="BB36" s="39"/>
+      <c r="BC36" s="39"/>
+      <c r="BD36" s="39"/>
+      <c r="BE36" s="39"/>
+      <c r="BF36" s="39"/>
+      <c r="BG36" s="39"/>
+    </row>
+    <row r="37" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="43">
+        <f>PER</f>
+        <v>1</v>
+      </c>
       <c r="C37" s="42"/>
       <c r="D37" s="42"/>
       <c r="E37" s="44"/>
@@ -8743,22 +9161,23 @@
       <c r="P37" s="75"/>
       <c r="Q37" s="76"/>
       <c r="R37" s="53"/>
-      <c r="S37" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="T37" s="92"/>
-      <c r="U37" s="92"/>
-      <c r="V37" s="92"/>
-      <c r="W37" s="97" t="s">
+      <c r="S37" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="T37" s="101"/>
+      <c r="U37" s="101"/>
+      <c r="V37" s="101"/>
+      <c r="W37" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="X37" s="92"/>
-      <c r="Y37" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z37" s="92"/>
-      <c r="AA37" s="92"/>
-      <c r="AB37" s="93"/>
+      <c r="X37" s="101"/>
+      <c r="Y37" s="109" t="str">
+        <f>INDEX(RESISTANCES,ROW(A9),11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Z37" s="101"/>
+      <c r="AA37" s="101"/>
+      <c r="AB37" s="103"/>
       <c r="AC37" s="53"/>
       <c r="AD37" s="53"/>
       <c r="AE37" s="53"/>
@@ -8780,15 +9199,19 @@
       <c r="AU37" s="53"/>
       <c r="AV37" s="53"/>
       <c r="AW37" s="53"/>
-    </row>
-    <row r="38" spans="2:49" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="45"/>
-      <c r="C38" s="66">
-        <f>PER_TOTAL</f>
-        <v>5</v>
-      </c>
-      <c r="D38" s="67"/>
-      <c r="E38" s="46"/>
+      <c r="BA37" s="39"/>
+      <c r="BB37" s="39"/>
+      <c r="BC37" s="39"/>
+      <c r="BD37" s="39"/>
+      <c r="BE37" s="39"/>
+      <c r="BF37" s="39"/>
+      <c r="BG37" s="39"/>
+    </row>
+    <row r="38" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="43"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="44"/>
       <c r="G38" s="53"/>
       <c r="H38" s="82" t="str">
         <f>INDEX(Skills!$A$1:$K$34,27,1)</f>
@@ -8807,22 +9230,23 @@
       <c r="P38" s="75"/>
       <c r="Q38" s="76"/>
       <c r="R38" s="53"/>
-      <c r="S38" s="88" t="s">
-        <v>180</v>
-      </c>
-      <c r="T38" s="92"/>
-      <c r="U38" s="92"/>
-      <c r="V38" s="92"/>
-      <c r="W38" s="97" t="s">
+      <c r="S38" s="100" t="s">
+        <v>179</v>
+      </c>
+      <c r="T38" s="101"/>
+      <c r="U38" s="101"/>
+      <c r="V38" s="101"/>
+      <c r="W38" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="X38" s="92"/>
-      <c r="Y38" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z38" s="92"/>
-      <c r="AA38" s="92"/>
-      <c r="AB38" s="93"/>
+      <c r="X38" s="101"/>
+      <c r="Y38" s="109" t="str">
+        <f>INDEX(RESISTANCES,ROW(A10),11)</f>
+        <v>1d10 + 0</v>
+      </c>
+      <c r="Z38" s="101"/>
+      <c r="AA38" s="101"/>
+      <c r="AB38" s="103"/>
       <c r="AC38" s="53"/>
       <c r="AD38" s="53"/>
       <c r="AE38" s="53"/>
@@ -8844,12 +9268,19 @@
       <c r="AU38" s="53"/>
       <c r="AV38" s="53"/>
       <c r="AW38" s="53"/>
-    </row>
-    <row r="39" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="41"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="39"/>
+      <c r="BA38" s="39"/>
+      <c r="BB38" s="39"/>
+      <c r="BC38" s="39"/>
+      <c r="BD38" s="39"/>
+      <c r="BE38" s="39"/>
+      <c r="BF38" s="39"/>
+      <c r="BG38" s="39"/>
+    </row>
+    <row r="39" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="43"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="44"/>
       <c r="G39" s="53"/>
       <c r="H39" s="82" t="str">
         <f>INDEX(Skills!$A$1:$K$34,28,1)</f>
@@ -8868,16 +9299,16 @@
       <c r="P39" s="75"/>
       <c r="Q39" s="76"/>
       <c r="R39" s="53"/>
-      <c r="S39" s="99"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39"/>
-      <c r="Z39" s="39"/>
-      <c r="AA39" s="39"/>
-      <c r="AB39" s="89"/>
+      <c r="S39" s="104"/>
+      <c r="T39" s="105"/>
+      <c r="U39" s="105"/>
+      <c r="V39" s="105"/>
+      <c r="W39" s="105"/>
+      <c r="X39" s="105"/>
+      <c r="Y39" s="105"/>
+      <c r="Z39" s="105"/>
+      <c r="AA39" s="105"/>
+      <c r="AB39" s="106"/>
       <c r="AC39" s="53"/>
       <c r="AD39" s="53"/>
       <c r="AE39" s="53"/>
@@ -8899,8 +9330,22 @@
       <c r="AU39" s="53"/>
       <c r="AV39" s="53"/>
       <c r="AW39" s="53"/>
-    </row>
-    <row r="40" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BA39" s="39"/>
+      <c r="BB39" s="39"/>
+      <c r="BC39" s="39"/>
+      <c r="BD39" s="39"/>
+      <c r="BE39" s="39"/>
+      <c r="BF39" s="39"/>
+      <c r="BG39" s="39"/>
+    </row>
+    <row r="40" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="45"/>
+      <c r="C40" s="66">
+        <f>PER_TOTAL</f>
+        <v>5</v>
+      </c>
+      <c r="D40" s="67"/>
+      <c r="E40" s="46"/>
       <c r="G40" s="53"/>
       <c r="H40" s="77" t="s">
         <v>62</v>
@@ -8948,8 +9393,19 @@
       <c r="AU40" s="53"/>
       <c r="AV40" s="53"/>
       <c r="AW40" s="53"/>
-    </row>
-    <row r="41" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BA40" s="39"/>
+      <c r="BB40" s="39"/>
+      <c r="BC40" s="39"/>
+      <c r="BD40" s="39"/>
+      <c r="BE40" s="39"/>
+      <c r="BF40" s="39"/>
+      <c r="BG40" s="39"/>
+    </row>
+    <row r="41" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="41"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="39"/>
       <c r="G41" s="53"/>
       <c r="H41" s="53"/>
       <c r="I41" s="53"/>
@@ -8969,10 +9425,6 @@
       <c r="AG41" s="53"/>
       <c r="AH41" s="53"/>
       <c r="AI41" s="53"/>
-      <c r="AJ41" s="53"/>
-      <c r="AK41" s="53"/>
-      <c r="AL41" s="53"/>
-      <c r="AM41" s="53"/>
       <c r="AN41" s="53"/>
       <c r="AO41" s="53"/>
       <c r="AP41" s="53"/>
@@ -8983,8 +9435,15 @@
       <c r="AU41" s="53"/>
       <c r="AV41" s="53"/>
       <c r="AW41" s="53"/>
-    </row>
-    <row r="42" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BA41" s="39"/>
+      <c r="BB41" s="39"/>
+      <c r="BC41" s="39"/>
+      <c r="BD41" s="39"/>
+      <c r="BE41" s="39"/>
+      <c r="BF41" s="39"/>
+      <c r="BG41" s="39"/>
+    </row>
+    <row r="42" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G42" s="53"/>
       <c r="H42" s="53"/>
       <c r="I42" s="53"/>
@@ -9014,10 +9473,6 @@
       <c r="AG42" s="53"/>
       <c r="AH42" s="53"/>
       <c r="AI42" s="53"/>
-      <c r="AJ42" s="53"/>
-      <c r="AK42" s="53"/>
-      <c r="AL42" s="53"/>
-      <c r="AM42" s="53"/>
       <c r="AN42" s="53"/>
       <c r="AO42" s="53"/>
       <c r="AP42" s="53"/>
@@ -9028,8 +9483,15 @@
       <c r="AU42" s="53"/>
       <c r="AV42" s="53"/>
       <c r="AW42" s="53"/>
-    </row>
-    <row r="43" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BA42" s="39"/>
+      <c r="BB42" s="39"/>
+      <c r="BC42" s="39"/>
+      <c r="BD42" s="39"/>
+      <c r="BE42" s="39"/>
+      <c r="BF42" s="39"/>
+      <c r="BG42" s="39"/>
+    </row>
+    <row r="43" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G43" s="53"/>
       <c r="H43" s="53"/>
       <c r="I43" s="53"/>
@@ -9059,10 +9521,6 @@
       <c r="AG43" s="53"/>
       <c r="AH43" s="53"/>
       <c r="AI43" s="53"/>
-      <c r="AJ43" s="53"/>
-      <c r="AK43" s="53"/>
-      <c r="AL43" s="53"/>
-      <c r="AM43" s="53"/>
       <c r="AN43" s="53"/>
       <c r="AO43" s="53"/>
       <c r="AP43" s="53"/>
@@ -9073,225 +9531,42 @@
       <c r="AU43" s="53"/>
       <c r="AV43" s="53"/>
       <c r="AW43" s="53"/>
-    </row>
-    <row r="44" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="53"/>
-      <c r="T44" s="53"/>
-      <c r="U44" s="53"/>
-      <c r="V44" s="53"/>
-      <c r="W44" s="53"/>
-      <c r="X44" s="53"/>
-      <c r="Y44" s="53"/>
-      <c r="Z44" s="53"/>
-      <c r="AA44" s="53"/>
-      <c r="AB44" s="53"/>
-      <c r="AC44" s="53"/>
-      <c r="AD44" s="53"/>
-      <c r="AE44" s="53"/>
-      <c r="AF44" s="53"/>
-      <c r="AG44" s="53"/>
-      <c r="AH44" s="53"/>
-      <c r="AI44" s="53"/>
-      <c r="AJ44" s="53"/>
-      <c r="AK44" s="53"/>
-      <c r="AL44" s="53"/>
-      <c r="AM44" s="53"/>
-      <c r="AN44" s="53"/>
-      <c r="AO44" s="53"/>
-      <c r="AP44" s="53"/>
-      <c r="AQ44" s="53"/>
-      <c r="AR44" s="53"/>
-      <c r="AS44" s="53"/>
+      <c r="BA43" s="39"/>
+      <c r="BB43" s="39"/>
+      <c r="BC43" s="39"/>
+      <c r="BD43" s="39"/>
+      <c r="BE43" s="39"/>
+      <c r="BF43" s="39"/>
+      <c r="BG43" s="39"/>
+    </row>
+    <row r="44" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT44" s="53"/>
       <c r="AU44" s="53"/>
       <c r="AV44" s="53"/>
       <c r="AW44" s="53"/>
     </row>
-    <row r="45" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="53"/>
-      <c r="W45" s="53"/>
-      <c r="X45" s="53"/>
-      <c r="Y45" s="53"/>
-      <c r="Z45" s="53"/>
-      <c r="AA45" s="53"/>
-      <c r="AB45" s="53"/>
-      <c r="AC45" s="53"/>
-      <c r="AD45" s="53"/>
-      <c r="AE45" s="53"/>
-      <c r="AF45" s="53"/>
-      <c r="AG45" s="53"/>
-      <c r="AH45" s="53"/>
-      <c r="AI45" s="53"/>
-      <c r="AJ45" s="53"/>
-      <c r="AK45" s="53"/>
-      <c r="AL45" s="53"/>
-      <c r="AM45" s="53"/>
-      <c r="AN45" s="53"/>
-      <c r="AO45" s="53"/>
-      <c r="AP45" s="53"/>
-      <c r="AQ45" s="53"/>
-      <c r="AR45" s="53"/>
-      <c r="AS45" s="53"/>
+    <row r="45" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT45" s="53"/>
       <c r="AU45" s="53"/>
       <c r="AV45" s="53"/>
       <c r="AW45" s="53"/>
     </row>
-    <row r="46" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53"/>
-      <c r="R46" s="53"/>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="53"/>
-      <c r="V46" s="53"/>
-      <c r="W46" s="53"/>
-      <c r="X46" s="53"/>
-      <c r="Y46" s="53"/>
-      <c r="Z46" s="53"/>
-      <c r="AA46" s="53"/>
-      <c r="AB46" s="53"/>
-      <c r="AC46" s="53"/>
-      <c r="AD46" s="53"/>
-      <c r="AE46" s="53"/>
-      <c r="AF46" s="53"/>
-      <c r="AG46" s="53"/>
-      <c r="AH46" s="53"/>
-      <c r="AI46" s="53"/>
-      <c r="AJ46" s="53"/>
-      <c r="AK46" s="53"/>
-      <c r="AL46" s="53"/>
-      <c r="AM46" s="53"/>
-      <c r="AN46" s="53"/>
-      <c r="AO46" s="53"/>
-      <c r="AP46" s="53"/>
-      <c r="AQ46" s="53"/>
-      <c r="AR46" s="53"/>
-      <c r="AS46" s="53"/>
+    <row r="46" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT46" s="53"/>
       <c r="AU46" s="53"/>
       <c r="AV46" s="53"/>
       <c r="AW46" s="53"/>
     </row>
-    <row r="47" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="53"/>
-      <c r="V47" s="53"/>
-      <c r="W47" s="53"/>
-      <c r="X47" s="53"/>
-      <c r="Y47" s="53"/>
-      <c r="Z47" s="53"/>
-      <c r="AA47" s="53"/>
-      <c r="AB47" s="53"/>
-      <c r="AC47" s="53"/>
-      <c r="AD47" s="53"/>
-      <c r="AE47" s="53"/>
-      <c r="AF47" s="53"/>
-      <c r="AG47" s="53"/>
-      <c r="AH47" s="53"/>
-      <c r="AI47" s="53"/>
-      <c r="AJ47" s="53"/>
-      <c r="AK47" s="53"/>
-      <c r="AL47" s="53"/>
-      <c r="AM47" s="53"/>
-      <c r="AN47" s="53"/>
-      <c r="AO47" s="53"/>
-      <c r="AP47" s="53"/>
-      <c r="AQ47" s="53"/>
-      <c r="AR47" s="53"/>
-      <c r="AS47" s="53"/>
+    <row r="47" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT47" s="53"/>
       <c r="AU47" s="53"/>
       <c r="AV47" s="53"/>
       <c r="AW47" s="53"/>
     </row>
-    <row r="48" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G48" s="53"/>
       <c r="H48" s="53"/>
       <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="53"/>
-      <c r="S48" s="53"/>
-      <c r="T48" s="53"/>
-      <c r="U48" s="53"/>
-      <c r="V48" s="53"/>
-      <c r="W48" s="53"/>
-      <c r="X48" s="53"/>
-      <c r="Y48" s="53"/>
-      <c r="Z48" s="53"/>
-      <c r="AA48" s="53"/>
-      <c r="AB48" s="53"/>
-      <c r="AC48" s="53"/>
-      <c r="AD48" s="53"/>
-      <c r="AE48" s="53"/>
-      <c r="AF48" s="53"/>
-      <c r="AG48" s="53"/>
-      <c r="AH48" s="53"/>
-      <c r="AI48" s="53"/>
-      <c r="AJ48" s="53"/>
-      <c r="AK48" s="53"/>
-      <c r="AL48" s="53"/>
-      <c r="AM48" s="53"/>
-      <c r="AN48" s="53"/>
-      <c r="AO48" s="53"/>
-      <c r="AP48" s="53"/>
-      <c r="AQ48" s="53"/>
       <c r="AR48" s="53"/>
       <c r="AS48" s="53"/>
       <c r="AT48" s="53"/>
@@ -9303,40 +9578,6 @@
       <c r="G49" s="53"/>
       <c r="H49" s="53"/>
       <c r="I49" s="53"/>
-      <c r="J49" s="94"/>
-      <c r="K49" s="94"/>
-      <c r="L49" s="94"/>
-      <c r="M49" s="94"/>
-      <c r="N49" s="94"/>
-      <c r="O49" s="94"/>
-      <c r="P49" s="94"/>
-      <c r="Q49" s="94"/>
-      <c r="R49" s="94"/>
-      <c r="S49" s="94"/>
-      <c r="T49" s="94"/>
-      <c r="U49" s="94"/>
-      <c r="V49" s="53"/>
-      <c r="W49" s="53"/>
-      <c r="X49" s="53"/>
-      <c r="Y49" s="53"/>
-      <c r="Z49" s="53"/>
-      <c r="AA49" s="53"/>
-      <c r="AB49" s="53"/>
-      <c r="AC49" s="53"/>
-      <c r="AD49" s="53"/>
-      <c r="AE49" s="53"/>
-      <c r="AF49" s="53"/>
-      <c r="AG49" s="53"/>
-      <c r="AH49" s="53"/>
-      <c r="AI49" s="53"/>
-      <c r="AJ49" s="53"/>
-      <c r="AK49" s="53"/>
-      <c r="AL49" s="53"/>
-      <c r="AM49" s="53"/>
-      <c r="AN49" s="53"/>
-      <c r="AO49" s="53"/>
-      <c r="AP49" s="53"/>
-      <c r="AQ49" s="53"/>
       <c r="AR49" s="53"/>
       <c r="AS49" s="53"/>
       <c r="AT49" s="53"/>
@@ -9598,47 +9839,58 @@
     <row r="290" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="291" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="45">
+    <mergeCell ref="AQ8:AT8"/>
+    <mergeCell ref="AQ9:AT11"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AL9:AO11"/>
+    <mergeCell ref="H9:K11"/>
+    <mergeCell ref="W9:Z11"/>
+    <mergeCell ref="R9:U11"/>
+    <mergeCell ref="M9:P11"/>
     <mergeCell ref="S28:AB28"/>
     <mergeCell ref="S40:AB40"/>
+    <mergeCell ref="AE16:AW16"/>
     <mergeCell ref="H40:Q40"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AB7:AE9"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AB9:AE11"/>
     <mergeCell ref="AS2:AV5"/>
     <mergeCell ref="AS6:AV6"/>
     <mergeCell ref="AN2:AQ5"/>
     <mergeCell ref="AN6:AQ6"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="AG9:AJ11"/>
     <mergeCell ref="S2:Z3"/>
     <mergeCell ref="AB2:AI3"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="M7:P9"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U9"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="W7:Z9"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K9"/>
-    <mergeCell ref="B28:E30"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E37"/>
-    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="B30:E32"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E39"/>
+    <mergeCell ref="C40:D41"/>
     <mergeCell ref="B2:O4"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="B7:E9"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E16"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="B9:E11"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E18"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="AE13:AW14"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E23"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E25"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="B29:E29"/>
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="Y15" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -9719,7 +9971,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -9835,7 +10087,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -9865,7 +10117,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -9895,7 +10147,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" s="2">
         <v>15</v>
@@ -9925,7 +10177,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" s="2">
         <v>17</v>
@@ -9955,7 +10207,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B10" s="2">
         <v>6</v>
@@ -9985,7 +10237,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
@@ -10015,7 +10267,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -10045,7 +10297,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -10075,7 +10327,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B14" s="2">
         <v>13</v>
@@ -10105,7 +10357,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B15" s="2">
         <v>8</v>
@@ -10135,7 +10387,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B16" s="2">
         <v>10</v>
@@ -10165,7 +10417,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17" s="2">
         <v>20</v>
@@ -10195,7 +10447,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" s="2">
         <v>8</v>
@@ -10225,7 +10477,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B19" s="2">
         <v>10</v>
@@ -10255,7 +10507,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -10524,7 +10776,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10553,26 +10805,26 @@
         <v>110</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>121</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>118</v>
       </c>
       <c r="M1" s="9"/>
       <c r="O1" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P1" s="9" t="s">
         <v>121</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R1" s="9" t="s">
         <v>118</v>
@@ -10601,7 +10853,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J2" s="8">
         <v>0</v>
@@ -10614,7 +10866,7 @@
       </c>
       <c r="M2" s="8"/>
       <c r="O2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P2" s="8">
         <v>1</v>
@@ -10650,26 +10902,26 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J3" s="8">
         <v>1</v>
       </c>
       <c r="K3" s="8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L3" s="8">
         <v>-1</v>
       </c>
       <c r="M3" s="8"/>
       <c r="O3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P3" s="8">
         <v>1</v>
       </c>
       <c r="Q3" s="8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R3" s="8">
         <v>-1</v>
@@ -10699,26 +10951,26 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J4" s="8">
         <v>2</v>
       </c>
       <c r="K4" s="8">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="L4" s="8">
         <v>-3</v>
       </c>
       <c r="M4" s="8"/>
       <c r="O4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P4" s="8">
         <v>2</v>
       </c>
       <c r="Q4" s="8">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R4" s="8">
         <v>-2</v>
@@ -10748,26 +11000,26 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J5" s="8">
         <v>3</v>
       </c>
       <c r="K5" s="8">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="L5" s="8">
         <v>-5</v>
       </c>
       <c r="M5" s="8"/>
       <c r="O5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P5" s="8">
         <v>3</v>
       </c>
       <c r="Q5" s="8">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="R5" s="8">
         <v>-3</v>
@@ -10797,7 +11049,7 @@
         <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="J6" s="8">
         <v>0</v>
@@ -10809,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="P6" s="8">
         <v>0</v>
@@ -10844,6 +11096,33 @@
       <c r="G7" s="8">
         <v>8</v>
       </c>
+      <c r="I7" t="s">
+        <v>215</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
@@ -10865,6 +11144,33 @@
       <c r="G8" s="8">
         <v>9</v>
       </c>
+      <c r="I8" t="s">
+        <v>216</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>216</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
@@ -10886,6 +11192,33 @@
       <c r="G9" s="8">
         <v>10</v>
       </c>
+      <c r="I9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>217</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
@@ -10907,6 +11240,33 @@
       <c r="G10" s="8">
         <v>11</v>
       </c>
+      <c r="I10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>138</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>0</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0</v>
+      </c>
+      <c r="S10" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
@@ -11009,7 +11369,7 @@
       </c>
       <c r="B17" s="5">
         <f>VLOOKUP(XP,A2:B15,2,TRUE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11039,7 +11399,7 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -11047,7 +11407,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -11055,16 +11415,79 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DB37AD-94EE-E94F-9E74-B69BC6F6A7CE}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="164" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3">
+        <f>SUBTOTAL(103,Table18[Description])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{52772F77-4A68-664D-9F55-A66C2BB8070D}">
+      <formula1>Yes_No</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -11073,7 +11496,7 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -11101,10 +11524,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C2" s="14"/>
       <c r="E2" s="2"/>
@@ -11117,13 +11540,13 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="P2" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -11132,7 +11555,7 @@
       </c>
       <c r="B3" s="16">
         <f>VLOOKUP(TOTAL_XP,XP_LEVEL,2,TRUE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="7"/>
@@ -11152,16 +11575,14 @@
         <v>49</v>
       </c>
       <c r="P3" s="21"/>
-      <c r="Q3" s="22">
-        <v>23</v>
-      </c>
+      <c r="Q3" s="22"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="14"/>
       <c r="E4" s="2"/>
@@ -11177,11 +11598,11 @@
       </c>
       <c r="K4" s="6">
         <f>TOTAL_XP_EARNED</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="L4" s="6">
         <f>SUM(I4:K4)</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="22"/>
@@ -11191,7 +11612,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="17"/>
       <c r="E5" s="2"/>
@@ -11206,12 +11627,12 @@
       </c>
       <c r="B6" s="13">
         <f>SUM(D6:E6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="2">
         <f>VLOOKUP(TOTAL_XP,XP_LEVEL,3,TRUE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <f>FEAT_EXPT</f>
@@ -11292,7 +11713,7 @@
       </c>
       <c r="B8" s="13">
         <f>SUM(D8:E8)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="2">
@@ -11300,7 +11721,7 @@
       </c>
       <c r="E8" s="2">
         <f>FEAT_MOVEMENT</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -11313,7 +11734,7 @@
       </c>
       <c r="B9" s="16">
         <f>FEAT_ARMOR</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="17"/>
       <c r="E9" s="2"/>
@@ -11324,7 +11745,7 @@
       </c>
       <c r="K9" s="20">
         <f>L4-N7</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="22"/>
@@ -11345,20 +11766,42 @@
       <c r="Q10" s="22"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="16">
+        <f>D11+E11</f>
+        <v>20</v>
+      </c>
       <c r="C11" s="17"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="2">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f>FEAT_INI</f>
+        <v>0</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="22"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="13">
+        <f>D12+E12</f>
+        <v>3</v>
+      </c>
       <c r="C12" s="14"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <f>FEAT_AP</f>
+        <v>0</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="P12" s="21"/>
@@ -11544,7 +11987,7 @@
       </c>
       <c r="Q43" s="10">
         <f>SUBTOTAL(109,Table11[XP])</f>
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11663,7 +12106,7 @@
         <v>40</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -11967,42 +12410,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:E6">
-    <cfRule type="containsText" dxfId="38" priority="8" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F6">
-    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="1d10">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="1d10">
       <formula>NOT(ISERROR(SEARCH("1d10",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:L6 H2:L3 I4:L4">
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12027,7 +12470,7 @@
   <dimension ref="A1:Y44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -12074,12 +12517,6 @@
       <c r="K1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -12196,7 +12633,7 @@
       </c>
       <c r="K4" s="2" t="str">
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H4:J4) + ARMOR_DODGE</f>
-        <v>1d10 + 1</v>
+        <v>1d10 + 0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13289,7 +13726,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>38</v>
@@ -13755,22 +14192,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:F25 C31:F34">
-    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K25 H31:K34">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F30">
-    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:K30">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13794,7 +14231,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8:Q16"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -13841,19 +14278,10 @@
       <c r="K1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>37</v>
@@ -13886,14 +14314,14 @@
         <f>IF(Table217[[#This Row],[Expert]]="Yes", EXPERTISE, 0)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="str">
+      <c r="K2" s="108" t="str">
         <f>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H2:J2)</f>
         <v>1d10 + 0</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
@@ -13932,7 +14360,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>55</v>
@@ -13971,7 +14399,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>36</v>
@@ -14010,7 +14438,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>39</v>
@@ -14049,7 +14477,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>36</v>
@@ -14085,19 +14513,10 @@
         <f>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H7:J7)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>36</v>
@@ -14133,19 +14552,12 @@
         <f>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H8:J8)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>39</v>
@@ -14181,19 +14593,12 @@
         <f>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H9:J9)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>38</v>
@@ -14229,15 +14634,8 @@
         <f>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H10:J10)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G11" s="4" t="str">
@@ -14259,15 +14657,8 @@
         <f>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H11:J11)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G12" s="4" t="str">
@@ -14289,15 +14680,8 @@
         <f>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H12:J12)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G13" s="4" t="str">
@@ -14319,15 +14703,8 @@
         <f>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H13:J13)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G14" s="4" t="str">
@@ -14349,15 +14726,8 @@
         <f>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H14:J14)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G15" s="4" t="str">
@@ -14379,15 +14749,8 @@
         <f>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H15:J15)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G16" s="4" t="str">
@@ -14409,15 +14772,8 @@
         <f>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H16:J16)</f>
         <v>1d10 + 0</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -14447,12 +14803,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:F16">
-    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K16">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14476,7 +14832,7 @@
   <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -14503,7 +14859,7 @@
         <v>124</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>103</v>
@@ -14650,8 +15006,8 @@
         <f>ROUND(Table9[[#This Row],[TotalRank]]*Table9[[#This Row],[Factor]]/100, 0)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="2">
-        <f>20 - Table9[[#This Row],[CALC]]</f>
+      <c r="K4" s="2" t="str">
+        <f>20 - Table9[[#This Row],[CALC]] &amp; ""</f>
         <v>20</v>
       </c>
       <c r="L4" s="2">
@@ -14851,39 +15207,36 @@
       </c>
       <c r="D9" s="2">
         <f>EQ_MOVEMENT + ARMOR_MOVEMENT</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="2">
         <f>SUM(Table9[[#This Row],[Rank]:[Special]])</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
         <v>2</v>
       </c>
-      <c r="H9" s="2" t="str">
-        <f>CHAR(43)</f>
-        <v>+</v>
-      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
         <v>119</v>
       </c>
       <c r="J9" s="2">
         <f>Table9[[#This Row],[TotalRank]] * Table9[[#This Row],[Factor]]</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2" t="str">
-        <f>Table9[[#This Row],[Prefix]] &amp; Table9[[#This Row],[CALC]]&amp; Table9[[#This Row],[Postfix]]</f>
-        <v>+-2ft</v>
+        <f>IF(Table9[[#This Row],[CALC]] &gt; 0,"+","") &amp; Table9[[#This Row],[CALC]]&amp; Table9[[#This Row],[Postfix]]</f>
+        <v>0ft</v>
       </c>
       <c r="L9" s="2">
         <f>IFERROR(VLOOKUP(Table9[[#This Row],[Rank]],RANK_LOOKUP,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>132</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -14927,7 +15280,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -14942,14 +15295,14 @@
       </c>
       <c r="D11" s="2">
         <f>EQ_ARMOR + ARMOR_ARMOR</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11" s="2">
         <f>SUM(Table9[[#This Row],[Rank]:[Special]])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -14961,18 +15314,18 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2">
         <f>Table9[[#This Row],[TotalRank]] * Table9[[#This Row],[Factor]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2" t="str">
         <f>Table9[[#This Row],[Prefix]] &amp; Table9[[#This Row],[CALC]]</f>
-        <v>+2</v>
+        <v>+0</v>
       </c>
       <c r="L11" s="2">
         <f>IFERROR(VLOOKUP(Table9[[#This Row],[Rank]],RANK_LOOKUP,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -15017,12 +15370,12 @@
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -15056,12 +15409,12 @@
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -15071,34 +15424,40 @@
       </c>
       <c r="D14" s="2">
         <f>ARMOR_INI</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
       <c r="F14" s="2">
         <f>SUM(Table9[[#This Row],[Rank]:[Special]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2">
         <f>Table9[[#This Row],[TotalRank]] * Table9[[#This Row],[Factor]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2" t="str">
         <f>Table9[[#This Row],[Prefix]] &amp; SUM(Table9[[#This Row],[Rank]:[Special]])*Table9[[#This Row],[Factor]] &amp; Table9[[#This Row],[Postfix]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
         <f>IFERROR(VLOOKUP(Table9[[#This Row],[Rank]],RANK_LOOKUP,2,FALSE),0)</f>
         <v>0</v>
       </c>
+      <c r="N14" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="B15" s="2">
         <v>0</v>
       </c>
@@ -15116,15 +15475,16 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2" t="str">
-        <f>Table9[[#This Row],[Prefix]] &amp; SUM(Table9[[#This Row],[Rank]:[Special]])*Table9[[#This Row],[Factor]] &amp; Table9[[#This Row],[Postfix]]</f>
+        <f>Table9[[#This Row],[Factor]]*Table9[[#This Row],[TotalRank]]</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <f>Table9[[#This Row],[CALC]]</f>
         <v>0</v>
       </c>
       <c r="L15" s="2">
@@ -15268,117 +15628,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>206</v>
-      </c>
+      <c r="O26" s="2"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>206</v>
-      </c>
+      <c r="O27" s="2"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="O28" s="2">
-        <v>20</v>
-      </c>
+      <c r="O28" s="2"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N29" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>207</v>
-      </c>
+      <c r="O29" s="2"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>208</v>
-      </c>
+      <c r="O30" s="2"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>207</v>
-      </c>
+      <c r="O31" s="2"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N33" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="34" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N34" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="35" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N35" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="36" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N36" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N37" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="O37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N38" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15396,7 +15683,7 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -15427,7 +15714,7 @@
       <c r="O1" s="33"/>
       <c r="P1" s="33"/>
       <c r="Q1" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R1" s="33"/>
       <c r="S1" s="33"/>
@@ -15438,13 +15725,13 @@
     </row>
     <row r="2" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>109</v>
@@ -15459,19 +15746,19 @@
         <v>114</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I2" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="L2" s="25" t="s">
         <v>157</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>158</v>
       </c>
       <c r="M2" s="25" t="s">
         <v>121</v>
@@ -15480,10 +15767,10 @@
         <v>122</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q2" s="29" t="s">
         <v>36</v>
@@ -15501,12 +15788,12 @@
         <v>39</v>
       </c>
       <c r="V2" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
@@ -15569,10 +15856,10 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>
@@ -15632,15 +15919,15 @@
         <v>0</v>
       </c>
       <c r="V4" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
@@ -15700,15 +15987,15 @@
         <v>0</v>
       </c>
       <c r="V5" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>28</v>
@@ -15768,15 +16055,15 @@
         <v>0</v>
       </c>
       <c r="V6" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
@@ -15836,15 +16123,15 @@
         <v>0</v>
       </c>
       <c r="V7" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>28</v>
@@ -15904,15 +16191,15 @@
         <v>0</v>
       </c>
       <c r="V8" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>28</v>
@@ -15972,12 +16259,12 @@
         <v>0</v>
       </c>
       <c r="V9" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>28</v>
@@ -16040,7 +16327,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>28</v>
@@ -16103,7 +16390,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
@@ -16166,7 +16453,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
@@ -16229,7 +16516,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
@@ -16292,7 +16579,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
@@ -16355,7 +16642,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
@@ -16418,7 +16705,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
@@ -16481,7 +16768,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
@@ -16544,7 +16831,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>29</v>
@@ -16607,7 +16894,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>29</v>
@@ -16670,7 +16957,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>29</v>
@@ -16814,16 +17101,16 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>21</v>
@@ -16834,19 +17121,19 @@
         <v>121</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C25" s="2">
         <f>VLOOKUP($B$25,ARMOR_TYPE,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2">
         <f>VLOOKUP($B$25,ARMOR_TYPE,3,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2">
         <f>VLOOKUP($B$25,ARMOR_TYPE,4,FALSE)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -16854,14 +17141,14 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C26" s="2">
         <f>VLOOKUP($B$26,SHIELD_TYPE,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2">
         <f>VLOOKUP($B$26,SHIELD_TYPE,3,FALSE)</f>
@@ -16873,25 +17160,29 @@
       </c>
       <c r="F26" s="2">
         <f>VLOOKUP($B$26,SHIELD_TYPE,5,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C27" s="2">
+      <c r="A27" s="111" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="111"/>
+      <c r="C27" s="112">
         <f>SUM(C25:C26)</f>
-        <v>2</v>
-      </c>
-      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="112">
         <f>SUM(D25:D26)</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="112">
         <f>SUM(E25:E26)</f>
-        <v>-1</v>
-      </c>
-      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="112">
         <f>SUM(F25:F26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16913,13 +17204,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7019BB2C-0302-2546-851E-E0D674281FA0}">
           <x14:formula1>
-            <xm:f>'Lookup Data'!$I$2:$I$6</xm:f>
+            <xm:f>'Lookup Data'!$I$2:$I$10</xm:f>
           </x14:formula1>
           <xm:sqref>B25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C3C85D2B-7D3C-6940-95C8-DA6E5ACD9743}">
           <x14:formula1>
-            <xm:f>'Lookup Data'!$O$2:$O$6</xm:f>
+            <xm:f>'Lookup Data'!$O$2:$O$10</xm:f>
           </x14:formula1>
           <xm:sqref>B26</xm:sqref>
         </x14:dataValidation>
@@ -16931,10 +17222,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B68C3C-3C12-4D4F-9D52-B8CC523665F7}">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="M2" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -16945,10 +17236,12 @@
     <col min="4" max="4" width="7.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="1" customWidth="1"/>
     <col min="6" max="16" width="12.5" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="1"/>
+    <col min="17" max="25" width="10.83203125" style="1"/>
+    <col min="26" max="26" width="49.5" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C1" s="33" t="s">
         <v>106</v>
       </c>
@@ -16970,96 +17263,105 @@
       <c r="Q1" s="33"/>
       <c r="R1" s="33"/>
       <c r="S1" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T1" s="33"/>
       <c r="U1" s="33"/>
       <c r="V1" s="33"/>
       <c r="W1" s="33"/>
     </row>
-    <row r="2" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="N2" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="K2" s="25" t="s">
+      <c r="O2" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="S2" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="L2" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="U2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="V2" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="W2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="26" t="s">
+      <c r="X2" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="Y2" s="26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z2" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -17070,10 +17372,10 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4">
         <v>0</v>
       </c>
       <c r="I3" s="2">
@@ -17109,10 +17411,10 @@
       <c r="S3" s="2">
         <v>0</v>
       </c>
-      <c r="T3" s="30">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="30">
         <v>0</v>
       </c>
       <c r="V3" s="2">
@@ -17124,19 +17426,40 @@
       <c r="X3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="113" t="str">
+        <f>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] + IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) + FEAT_DMG</f>
+        <v>Dagger: 1d4+1</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="C4" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="2">
@@ -17172,10 +17495,10 @@
       <c r="S4" s="2">
         <v>0</v>
       </c>
-      <c r="T4" s="30">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="30">
         <v>0</v>
       </c>
       <c r="V4" s="2">
@@ -17187,19 +17510,37 @@
       <c r="X4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="113" t="str">
+        <f>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] + IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) + FEAT_DMG</f>
+        <v>2-H Warhammer: 1d12+2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="C5" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4">
         <v>0</v>
       </c>
       <c r="I5" s="2">
@@ -17235,10 +17576,10 @@
       <c r="S5" s="2">
         <v>0</v>
       </c>
-      <c r="T5" s="30">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2">
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="30">
         <v>0</v>
       </c>
       <c r="V5" s="2">
@@ -17250,19 +17591,37 @@
       <c r="X5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="113" t="str">
+        <f>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] + IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) + FEAT_DMG</f>
+        <v>Greataxe: 1d12+1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="C6" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>14</v>
+      </c>
+      <c r="H6" s="4">
         <v>0</v>
       </c>
       <c r="I6" s="2">
@@ -17298,10 +17657,10 @@
       <c r="S6" s="2">
         <v>0</v>
       </c>
-      <c r="T6" s="30">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2">
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="30">
         <v>0</v>
       </c>
       <c r="V6" s="2">
@@ -17313,19 +17672,37 @@
       <c r="X6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="113" t="str">
+        <f>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] + IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) + FEAT_DMG</f>
+        <v>Longsword: 1d8+1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="C7" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4">
         <v>0</v>
       </c>
       <c r="I7" s="2">
@@ -17361,10 +17738,10 @@
       <c r="S7" s="2">
         <v>0</v>
       </c>
-      <c r="T7" s="30">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="30">
         <v>0</v>
       </c>
       <c r="V7" s="2">
@@ -17376,19 +17753,37 @@
       <c r="X7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="113" t="str">
+        <f>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] + IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) + FEAT_DMG</f>
+        <v>Spear: 1d6+1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="C8" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>18</v>
+      </c>
+      <c r="H8" s="4">
         <v>0</v>
       </c>
       <c r="I8" s="2">
@@ -17424,10 +17819,10 @@
       <c r="S8" s="2">
         <v>0</v>
       </c>
-      <c r="T8" s="30">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2">
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="30">
         <v>0</v>
       </c>
       <c r="V8" s="2">
@@ -17439,19 +17834,37 @@
       <c r="X8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="113" t="str">
+        <f>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] + IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) + FEAT_DMG</f>
+        <v>Maul (2-H): 2d6+1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="C9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>16</v>
+      </c>
+      <c r="H9" s="4">
         <v>0</v>
       </c>
       <c r="I9" s="2">
@@ -17487,10 +17900,10 @@
       <c r="S9" s="2">
         <v>0</v>
       </c>
-      <c r="T9" s="30">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2">
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="30">
         <v>0</v>
       </c>
       <c r="V9" s="2">
@@ -17502,19 +17915,37 @@
       <c r="X9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="113" t="str">
+        <f>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] + IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) + FEAT_DMG</f>
+        <v>Longbow: 1d8+1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="C10" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>12</v>
+      </c>
+      <c r="H10" s="4">
         <v>0</v>
       </c>
       <c r="I10" s="2">
@@ -17550,10 +17981,10 @@
       <c r="S10" s="2">
         <v>0</v>
       </c>
-      <c r="T10" s="30">
-        <v>0</v>
-      </c>
-      <c r="U10" s="2">
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="30">
         <v>0</v>
       </c>
       <c r="V10" s="2">
@@ -17565,19 +17996,37 @@
       <c r="X10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="113" t="str">
+        <f>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] + IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) + FEAT_DMG</f>
+        <v>Shortbow: 1d4+1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="C11" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4">
         <v>0</v>
       </c>
       <c r="I11" s="2">
@@ -17613,10 +18062,10 @@
       <c r="S11" s="2">
         <v>0</v>
       </c>
-      <c r="T11" s="30">
-        <v>0</v>
-      </c>
-      <c r="U11" s="2">
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="30">
         <v>0</v>
       </c>
       <c r="V11" s="2">
@@ -17628,19 +18077,37 @@
       <c r="X11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="113" t="str">
+        <f>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] + IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) + FEAT_DMG</f>
+        <v>Source: 1d4+1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="C12" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4">
         <v>0</v>
       </c>
       <c r="I12" s="2">
@@ -17676,10 +18143,10 @@
       <c r="S12" s="2">
         <v>0</v>
       </c>
-      <c r="T12" s="30">
-        <v>0</v>
-      </c>
-      <c r="U12" s="2">
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="30">
         <v>0</v>
       </c>
       <c r="V12" s="2">
@@ -17691,8 +18158,15 @@
       <c r="X12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="113" t="str">
+        <f>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] + IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) + FEAT_DMG</f>
+        <v>Wand: 1d12+2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
@@ -17700,10 +18174,8 @@
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="G13" s="2"/>
+      <c r="H13" s="4">
         <v>0</v>
       </c>
       <c r="I13" s="2">
@@ -17739,10 +18211,10 @@
       <c r="S13" s="2">
         <v>0</v>
       </c>
-      <c r="T13" s="30">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2">
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="30">
         <v>0</v>
       </c>
       <c r="V13" s="2">
@@ -17754,8 +18226,15 @@
       <c r="X13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="113" t="str">
+        <f>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] + IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) + FEAT_DMG</f>
+        <v>: d+0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
@@ -17763,10 +18242,8 @@
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G14" s="2"/>
+      <c r="H14" s="4">
         <v>0</v>
       </c>
       <c r="I14" s="2">
@@ -17802,10 +18279,10 @@
       <c r="S14" s="2">
         <v>0</v>
       </c>
-      <c r="T14" s="30">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="30">
         <v>0</v>
       </c>
       <c r="V14" s="2">
@@ -17817,8 +18294,15 @@
       <c r="X14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="113" t="str">
+        <f>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] + IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) + FEAT_DMG</f>
+        <v>: d+0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
@@ -17826,10 +18310,8 @@
       <c r="D15" s="4"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="G15" s="2"/>
+      <c r="H15" s="4">
         <v>0</v>
       </c>
       <c r="I15" s="2">
@@ -17865,10 +18347,10 @@
       <c r="S15" s="2">
         <v>0</v>
       </c>
-      <c r="T15" s="30">
-        <v>0</v>
-      </c>
-      <c r="U15" s="2">
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="30">
         <v>0</v>
       </c>
       <c r="V15" s="2">
@@ -17880,8 +18362,15 @@
       <c r="X15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="113" t="str">
+        <f>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] + IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) + FEAT_DMG</f>
+        <v>: d+0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
@@ -17889,10 +18378,8 @@
       <c r="D16" s="4"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="G16" s="2"/>
+      <c r="H16" s="4">
         <v>0</v>
       </c>
       <c r="I16" s="2">
@@ -17928,10 +18415,10 @@
       <c r="S16" s="2">
         <v>0</v>
       </c>
-      <c r="T16" s="30">
-        <v>0</v>
-      </c>
-      <c r="U16" s="2">
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="30">
         <v>0</v>
       </c>
       <c r="V16" s="2">
@@ -17943,8 +18430,15 @@
       <c r="X16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="113" t="str">
+        <f>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] + IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) + FEAT_DMG</f>
+        <v>: d+0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
@@ -17952,10 +18446,8 @@
       <c r="D17" s="4"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G17" s="2"/>
+      <c r="H17" s="4">
         <v>0</v>
       </c>
       <c r="I17" s="2">
@@ -17991,10 +18483,10 @@
       <c r="S17" s="2">
         <v>0</v>
       </c>
-      <c r="T17" s="30">
-        <v>0</v>
-      </c>
-      <c r="U17" s="2">
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="30">
         <v>0</v>
       </c>
       <c r="V17" s="2">
@@ -18006,8 +18498,15 @@
       <c r="X17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="113" t="str">
+        <f>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] + IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) + FEAT_DMG</f>
+        <v>: d+0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
@@ -18015,10 +18514,8 @@
       <c r="D18" s="4"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="G18" s="2"/>
+      <c r="H18" s="4">
         <v>0</v>
       </c>
       <c r="I18" s="2">
@@ -18054,10 +18551,10 @@
       <c r="S18" s="2">
         <v>0</v>
       </c>
-      <c r="T18" s="30">
-        <v>0</v>
-      </c>
-      <c r="U18" s="2">
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="30">
         <v>0</v>
       </c>
       <c r="V18" s="2">
@@ -18069,8 +18566,15 @@
       <c r="X18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="113" t="str">
+        <f>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] + IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) + FEAT_DMG</f>
+        <v>: d+0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
@@ -18078,10 +18582,8 @@
       <c r="D19" s="4"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G19" s="2"/>
+      <c r="H19" s="4">
         <v>0</v>
       </c>
       <c r="I19" s="2">
@@ -18117,10 +18619,10 @@
       <c r="S19" s="2">
         <v>0</v>
       </c>
-      <c r="T19" s="30">
-        <v>0</v>
-      </c>
-      <c r="U19" s="2">
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="30">
         <v>0</v>
       </c>
       <c r="V19" s="2">
@@ -18132,8 +18634,15 @@
       <c r="X19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="113" t="str">
+        <f>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] + IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) + FEAT_DMG</f>
+        <v>: d+0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
@@ -18141,10 +18650,8 @@
       <c r="D20" s="4"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="G20" s="2"/>
+      <c r="H20" s="4">
         <v>0</v>
       </c>
       <c r="I20" s="2">
@@ -18180,10 +18687,10 @@
       <c r="S20" s="2">
         <v>0</v>
       </c>
-      <c r="T20" s="30">
-        <v>0</v>
-      </c>
-      <c r="U20" s="2">
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="30">
         <v>0</v>
       </c>
       <c r="V20" s="2">
@@ -18195,8 +18702,15 @@
       <c r="X20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="113" t="str">
+        <f>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] + IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) + FEAT_DMG</f>
+        <v>: d+0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
@@ -18204,10 +18718,8 @@
       <c r="D21" s="4"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="G21" s="2"/>
+      <c r="H21" s="4">
         <v>0</v>
       </c>
       <c r="I21" s="2">
@@ -18243,10 +18755,10 @@
       <c r="S21" s="2">
         <v>0</v>
       </c>
-      <c r="T21" s="30">
-        <v>0</v>
-      </c>
-      <c r="U21" s="2">
+      <c r="T21" s="2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="30">
         <v>0</v>
       </c>
       <c r="V21" s="2">
@@ -18258,19 +18770,23 @@
       <c r="X21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="113" t="str">
+        <f>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] + IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) + FEAT_DMG</f>
+        <v>: d+0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="4"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="4">
+      <c r="G22" s="2"/>
+      <c r="H22" s="4">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[DMG])</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <f>SUMIF(Table1218[Enabled],"Yes",Table1218[Stamina])</f>
         <v>0</v>
       </c>
       <c r="I22" s="2">
@@ -18278,87 +18794,92 @@
         <v>0</v>
       </c>
       <c r="J22" s="2">
+        <f>SUMIF(Table1218[Enabled],"Yes",Table1218[Stamina])</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[Crit DMG])</f>
         <v>0</v>
       </c>
-      <c r="K22" s="2">
+      <c r="L22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[Splash])</f>
         <v>0</v>
       </c>
-      <c r="L22" s="2">
+      <c r="M22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[Splash 
 DMG])</f>
         <v>0</v>
       </c>
-      <c r="M22" s="2">
+      <c r="N22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[Exprt.])</f>
         <v>0</v>
       </c>
-      <c r="N22" s="2">
+      <c r="O22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[Mvmt.])</f>
         <v>0</v>
       </c>
-      <c r="O22" s="2">
+      <c r="P22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[Extra 
 Attack])</f>
         <v>0</v>
       </c>
-      <c r="P22" s="2">
+      <c r="Q22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[Armor])</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="R22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[Aura])</f>
         <v>0</v>
       </c>
-      <c r="R22" s="2">
+      <c r="S22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[Directed Strike])</f>
         <v>0</v>
       </c>
-      <c r="S22" s="2">
-        <f>SUMIF(Table1218[Enabled],"Yes",Table1218[INI])</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="30">
+      <c r="T22" s="2">
+        <f>SUMIF(Table1218[Enabled],"Yes",Table1218[INI2])</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="30">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[STR])</f>
         <v>0</v>
       </c>
-      <c r="U22" s="2">
+      <c r="V22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[AGI])</f>
         <v>0</v>
       </c>
-      <c r="V22" s="2">
+      <c r="W22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[INU])</f>
         <v>0</v>
       </c>
-      <c r="W22" s="2">
+      <c r="X22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[CHA])</f>
         <v>0</v>
       </c>
-      <c r="X22" s="2">
+      <c r="Y22" s="2">
         <f>SUMIF(Table1218[Enabled],"Yes",Table1218[PER])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z22" s="2"/>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -18382,23 +18903,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF1B8D70-C0F3-454A-BDD0-9B35D923BDE6}">
-          <x14:formula1>
-            <xm:f>'Lookup Data'!$O$2:$O$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B26</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FD53FCE3-A6D0-6244-968A-D829A51CF0C0}">
-          <x14:formula1>
-            <xm:f>'Lookup Data'!$I$2:$I$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B25</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E30884F0-2457-A74E-8EEA-F9B5B7C41B9A}">
           <x14:formula1>
             <xm:f>'Drop Downs'!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FD53FCE3-A6D0-6244-968A-D829A51CF0C0}">
+          <x14:formula1>
+            <xm:f>'Lookup Data'!$I$2:$I$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>B25</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF1B8D70-C0F3-454A-BDD0-9B35D923BDE6}">
+          <x14:formula1>
+            <xm:f>'Lookup Data'!$O$2:$O$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>B26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18477,7 +18998,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>

--- a/Character Sheet.xlsx
+++ b/Character Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baudin/Projects/aria-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067F789B-1AA2-9B4C-A669-CC935BBE4BD6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A190C2-1FF7-3342-AF50-989FFFE81272}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38200" windowHeight="23540" activeTab="8" xr2:uid="{47C10E70-C8A1-594D-875F-C0FED4FAA393}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38200" windowHeight="23540" activeTab="1" xr2:uid="{47C10E70-C8A1-594D-875F-C0FED4FAA393}"/>
   </bookViews>
   <sheets>
     <sheet name="Character Sheet" sheetId="1" r:id="rId1"/>
@@ -123,10 +123,14 @@
     <definedName name="FEAT_AP">Feats!$K$15</definedName>
     <definedName name="FEAT_ARMOR">Feats!$J$11</definedName>
     <definedName name="FEAT_AURA">Feats!$J$12</definedName>
+    <definedName name="FEAT_DIRECTEDSTRIKE">Feats!$J$13</definedName>
     <definedName name="FEAT_DMG">Feats!$K$2</definedName>
     <definedName name="FEAT_EXPT">Feats!$J$8</definedName>
     <definedName name="FEAT_INI">Feats!$K$14</definedName>
     <definedName name="FEAT_MOVEMENT">Feats!$J$9</definedName>
+    <definedName name="FEAT_SPLASH">Feats!$J$6</definedName>
+    <definedName name="FEAT_SPLASHDMG">Feats!$J$7</definedName>
+    <definedName name="FEAT_STAMINA">Feats!$J$3</definedName>
     <definedName name="FEATS">Feats!$A$2:$L$19</definedName>
     <definedName name="HP">'Character Info'!$B$7</definedName>
     <definedName name="INU">Statistics!$N$4</definedName>
@@ -7143,7 +7147,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:BG291"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="AM27" sqref="AM27"/>
     </sheetView>
   </sheetViews>
@@ -12503,8 +12507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8280EFA-ECF3-804F-AF7A-CBB70278A61B}">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -15849,7 +15853,7 @@
   <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -16687,7 +16691,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="J10" formula="1"/>
+    <ignoredError sqref="J10 J6" formula="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -19948,7 +19952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DB37AD-94EE-E94F-9E74-B69BC6F6A7CE}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
